--- a/5/9/Índice de stress local 2019 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2019 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.5316</v>
+        <v>0.4107</v>
       </c>
       <c r="C2">
-        <v>0.1891</v>
+        <v>0.1915</v>
       </c>
       <c r="D2">
-        <v>0.3425</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5362</v>
+        <v>0.4119</v>
       </c>
       <c r="C3">
-        <v>0.1883</v>
+        <v>0.1907</v>
       </c>
       <c r="D3">
-        <v>0.3479</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.5404</v>
+        <v>0.4131</v>
       </c>
       <c r="C4">
-        <v>0.1878</v>
+        <v>0.1901</v>
       </c>
       <c r="D4">
-        <v>0.3526</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.5453</v>
+        <v>0.4155</v>
       </c>
       <c r="C5">
-        <v>0.1884</v>
+        <v>0.1907</v>
       </c>
       <c r="D5">
-        <v>0.3569</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5488</v>
+        <v>0.4169</v>
       </c>
       <c r="C6">
-        <v>0.1886</v>
+        <v>0.1909</v>
       </c>
       <c r="D6">
-        <v>0.3603</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.5517</v>
+        <v>0.4181</v>
       </c>
       <c r="C7">
-        <v>0.1888</v>
+        <v>0.1911</v>
       </c>
       <c r="D7">
-        <v>0.3629</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.5538</v>
+        <v>0.419</v>
       </c>
       <c r="C8">
-        <v>0.1888</v>
+        <v>0.1911</v>
       </c>
       <c r="D8">
-        <v>0.365</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.5547</v>
+        <v>0.4193</v>
       </c>
       <c r="C9">
-        <v>0.1888</v>
+        <v>0.1911</v>
       </c>
       <c r="D9">
-        <v>0.3659</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.5547</v>
+        <v>0.4192</v>
       </c>
       <c r="C10">
-        <v>0.1887</v>
+        <v>0.1911</v>
       </c>
       <c r="D10">
-        <v>0.3659</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.5531</v>
+        <v>0.4181</v>
       </c>
       <c r="C11">
-        <v>0.1882</v>
+        <v>0.1905</v>
       </c>
       <c r="D11">
-        <v>0.3649</v>
+        <v>0.2276</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.5516</v>
+        <v>0.4176</v>
       </c>
       <c r="C12">
-        <v>0.1881</v>
+        <v>0.1904</v>
       </c>
       <c r="D12">
-        <v>0.3635</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.5497</v>
+        <v>0.4171</v>
       </c>
       <c r="C13">
-        <v>0.188</v>
+        <v>0.1903</v>
       </c>
       <c r="D13">
-        <v>0.3617</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.5475</v>
+        <v>0.4167</v>
       </c>
       <c r="C14">
-        <v>0.1875</v>
+        <v>0.1899</v>
       </c>
       <c r="D14">
-        <v>0.36</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.5452</v>
+        <v>0.4165</v>
       </c>
       <c r="C15">
-        <v>0.1871</v>
+        <v>0.1895</v>
       </c>
       <c r="D15">
-        <v>0.3581</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.5431</v>
+        <v>0.4168</v>
       </c>
       <c r="C16">
-        <v>0.1865</v>
+        <v>0.189</v>
       </c>
       <c r="D16">
-        <v>0.3567</v>
+        <v>0.2278</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.5405</v>
+        <v>0.4168</v>
       </c>
       <c r="C17">
-        <v>0.1853</v>
+        <v>0.1879</v>
       </c>
       <c r="D17">
-        <v>0.3552</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.5382</v>
+        <v>0.4172</v>
       </c>
       <c r="C18">
-        <v>0.184</v>
+        <v>0.1866</v>
       </c>
       <c r="D18">
-        <v>0.3543</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.5365</v>
+        <v>0.4182</v>
       </c>
       <c r="C19">
-        <v>0.1831</v>
+        <v>0.1858</v>
       </c>
       <c r="D19">
-        <v>0.3534</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.5341</v>
+        <v>0.4187</v>
       </c>
       <c r="C20">
-        <v>0.182</v>
+        <v>0.1849</v>
       </c>
       <c r="D20">
-        <v>0.3521</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.5313</v>
+        <v>0.4187</v>
       </c>
       <c r="C21">
-        <v>0.1808</v>
+        <v>0.1837</v>
       </c>
       <c r="D21">
-        <v>0.3505</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.5286999999999999</v>
+        <v>0.4189</v>
       </c>
       <c r="C22">
-        <v>0.1799</v>
+        <v>0.1829</v>
       </c>
       <c r="D22">
-        <v>0.3488</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.5208</v>
+        <v>0.4148</v>
       </c>
       <c r="C23">
-        <v>0.1784</v>
+        <v>0.1814</v>
       </c>
       <c r="D23">
-        <v>0.3424</v>
+        <v>0.2334</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.5147</v>
+        <v>0.4123</v>
       </c>
       <c r="C24">
-        <v>0.1782</v>
+        <v>0.1812</v>
       </c>
       <c r="D24">
-        <v>0.3365</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.5082</v>
+        <v>0.4092</v>
       </c>
       <c r="C25">
-        <v>0.1768</v>
+        <v>0.1797</v>
       </c>
       <c r="D25">
-        <v>0.3314</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.5022</v>
+        <v>0.4064</v>
       </c>
       <c r="C26">
-        <v>0.1753</v>
+        <v>0.1783</v>
       </c>
       <c r="D26">
-        <v>0.3269</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4972</v>
+        <v>0.4043</v>
       </c>
       <c r="C27">
-        <v>0.1741</v>
+        <v>0.1771</v>
       </c>
       <c r="D27">
-        <v>0.3231</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4922</v>
+        <v>0.4021</v>
       </c>
       <c r="C28">
-        <v>0.1725</v>
+        <v>0.1755</v>
       </c>
       <c r="D28">
-        <v>0.3197</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4882</v>
+        <v>0.4005</v>
       </c>
       <c r="C29">
-        <v>0.1711</v>
+        <v>0.1741</v>
       </c>
       <c r="D29">
-        <v>0.317</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4853</v>
+        <v>0.3998</v>
       </c>
       <c r="C30">
-        <v>0.1698</v>
+        <v>0.1728</v>
       </c>
       <c r="D30">
-        <v>0.3155</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4834</v>
+        <v>0.3999</v>
       </c>
       <c r="C31">
-        <v>0.1689</v>
+        <v>0.172</v>
       </c>
       <c r="D31">
-        <v>0.3145</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4819</v>
+        <v>0.4002</v>
       </c>
       <c r="C32">
-        <v>0.1679</v>
+        <v>0.171</v>
       </c>
       <c r="D32">
-        <v>0.314</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.481</v>
+        <v>0.4009</v>
       </c>
       <c r="C33">
-        <v>0.167</v>
+        <v>0.1701</v>
       </c>
       <c r="D33">
-        <v>0.314</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4803</v>
+        <v>0.4019</v>
       </c>
       <c r="C34">
-        <v>0.1665</v>
+        <v>0.1697</v>
       </c>
       <c r="D34">
-        <v>0.3139</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4803</v>
+        <v>0.4034</v>
       </c>
       <c r="C35">
-        <v>0.1663</v>
+        <v>0.1696</v>
       </c>
       <c r="D35">
-        <v>0.314</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4802</v>
+        <v>0.4049</v>
       </c>
       <c r="C36">
-        <v>0.1663</v>
+        <v>0.1697</v>
       </c>
       <c r="D36">
-        <v>0.314</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4803</v>
+        <v>0.4066</v>
       </c>
       <c r="C37">
-        <v>0.1666</v>
+        <v>0.17</v>
       </c>
       <c r="D37">
-        <v>0.3137</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4799</v>
+        <v>0.4081</v>
       </c>
       <c r="C38">
-        <v>0.1668</v>
+        <v>0.1703</v>
       </c>
       <c r="D38">
-        <v>0.3131</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4788</v>
+        <v>0.409</v>
       </c>
       <c r="C39">
-        <v>0.1666</v>
+        <v>0.1703</v>
       </c>
       <c r="D39">
-        <v>0.3122</v>
+        <v>0.2387</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4779</v>
+        <v>0.4102</v>
       </c>
       <c r="C40">
-        <v>0.1664</v>
+        <v>0.1701</v>
       </c>
       <c r="D40">
-        <v>0.3115</v>
+        <v>0.2401</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4771</v>
+        <v>0.4116</v>
       </c>
       <c r="C41">
-        <v>0.166</v>
+        <v>0.1698</v>
       </c>
       <c r="D41">
-        <v>0.3111</v>
+        <v>0.2418</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4771</v>
+        <v>0.4138</v>
       </c>
       <c r="C42">
-        <v>0.1657</v>
+        <v>0.1697</v>
       </c>
       <c r="D42">
-        <v>0.3114</v>
+        <v>0.2442</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4779</v>
+        <v>0.4168</v>
       </c>
       <c r="C43">
-        <v>0.1657</v>
+        <v>0.1697</v>
       </c>
       <c r="D43">
-        <v>0.3122</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4776</v>
+        <v>0.4185</v>
       </c>
       <c r="C44">
-        <v>0.1642</v>
+        <v>0.1683</v>
       </c>
       <c r="D44">
-        <v>0.3134</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4775</v>
+        <v>0.4206</v>
       </c>
       <c r="C45">
-        <v>0.1631</v>
+        <v>0.1673</v>
       </c>
       <c r="D45">
-        <v>0.3144</v>
+        <v>0.2534</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4779</v>
+        <v>0.4232</v>
       </c>
       <c r="C46">
-        <v>0.1622</v>
+        <v>0.1665</v>
       </c>
       <c r="D46">
-        <v>0.3157</v>
+        <v>0.2567</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4784</v>
+        <v>0.426</v>
       </c>
       <c r="C47">
-        <v>0.1613</v>
+        <v>0.1656</v>
       </c>
       <c r="D47">
-        <v>0.3171</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4797</v>
+        <v>0.4295</v>
       </c>
       <c r="C48">
-        <v>0.1607</v>
+        <v>0.1652</v>
       </c>
       <c r="D48">
-        <v>0.3189</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4812</v>
+        <v>0.4333</v>
       </c>
       <c r="C49">
-        <v>0.1602</v>
+        <v>0.1647</v>
       </c>
       <c r="D49">
-        <v>0.321</v>
+        <v>0.2685</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4829</v>
+        <v>0.4372</v>
       </c>
       <c r="C50">
-        <v>0.1597</v>
+        <v>0.1644</v>
       </c>
       <c r="D50">
-        <v>0.3232</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4843</v>
+        <v>0.441</v>
       </c>
       <c r="C51">
-        <v>0.159</v>
+        <v>0.1638</v>
       </c>
       <c r="D51">
-        <v>0.3253</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4868</v>
+        <v>0.4457</v>
       </c>
       <c r="C52">
-        <v>0.1589</v>
+        <v>0.1638</v>
       </c>
       <c r="D52">
-        <v>0.3279</v>
+        <v>0.2819</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4896</v>
+        <v>0.4507</v>
       </c>
       <c r="C53">
-        <v>0.1587</v>
+        <v>0.1637</v>
       </c>
       <c r="D53">
-        <v>0.3309</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4928</v>
+        <v>0.4561</v>
       </c>
       <c r="C54">
-        <v>0.1585</v>
+        <v>0.1637</v>
       </c>
       <c r="D54">
-        <v>0.3343</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4964</v>
+        <v>0.4617</v>
       </c>
       <c r="C55">
-        <v>0.1585</v>
+        <v>0.1638</v>
       </c>
       <c r="D55">
-        <v>0.3379</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4999</v>
+        <v>0.4673</v>
       </c>
       <c r="C56">
-        <v>0.1584</v>
+        <v>0.1639</v>
       </c>
       <c r="D56">
-        <v>0.3415</v>
+        <v>0.3035</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.5041</v>
+        <v>0.4733</v>
       </c>
       <c r="C57">
-        <v>0.1584</v>
+        <v>0.1639</v>
       </c>
       <c r="D57">
-        <v>0.3457</v>
+        <v>0.3094</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.5088</v>
+        <v>0.4795</v>
       </c>
       <c r="C58">
-        <v>0.1583</v>
+        <v>0.164</v>
       </c>
       <c r="D58">
-        <v>0.3505</v>
+        <v>0.3156</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.5137</v>
+        <v>0.4857</v>
       </c>
       <c r="C59">
-        <v>0.1579</v>
+        <v>0.1637</v>
       </c>
       <c r="D59">
-        <v>0.3558</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.5198</v>
+        <v>0.4929</v>
       </c>
       <c r="C60">
-        <v>0.1586</v>
+        <v>0.1645</v>
       </c>
       <c r="D60">
-        <v>0.3612</v>
+        <v>0.3283</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.5262</v>
+        <v>0.5001</v>
       </c>
       <c r="C61">
-        <v>0.1593</v>
+        <v>0.1654</v>
       </c>
       <c r="D61">
-        <v>0.3668</v>
+        <v>0.3347</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.5324</v>
+        <v>0.507</v>
       </c>
       <c r="C62">
-        <v>0.1601</v>
+        <v>0.1663</v>
       </c>
       <c r="D62">
-        <v>0.3723</v>
+        <v>0.3407</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.5383</v>
+        <v>0.5135</v>
       </c>
       <c r="C63">
-        <v>0.1609</v>
+        <v>0.1672</v>
       </c>
       <c r="D63">
-        <v>0.3774</v>
+        <v>0.3463</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.5445</v>
+        <v>0.5201</v>
       </c>
       <c r="C64">
-        <v>0.1617</v>
+        <v>0.1681</v>
       </c>
       <c r="D64">
-        <v>0.3828</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.5503</v>
+        <v>0.5262</v>
       </c>
       <c r="C65">
-        <v>0.1624</v>
+        <v>0.1689</v>
       </c>
       <c r="D65">
-        <v>0.3879</v>
+        <v>0.3573</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.5564</v>
+        <v>0.5324</v>
       </c>
       <c r="C66">
-        <v>0.1636</v>
+        <v>0.1702</v>
       </c>
       <c r="D66">
-        <v>0.3928</v>
+        <v>0.3622</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.5619</v>
+        <v>0.5379</v>
       </c>
       <c r="C67">
-        <v>0.1645</v>
+        <v>0.1713</v>
       </c>
       <c r="D67">
-        <v>0.3973</v>
+        <v>0.3666</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.5671</v>
+        <v>0.5427999999999999</v>
       </c>
       <c r="C68">
-        <v>0.1655</v>
+        <v>0.1723</v>
       </c>
       <c r="D68">
-        <v>0.4016</v>
+        <v>0.3705</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.5715</v>
+        <v>0.5468</v>
       </c>
       <c r="C69">
-        <v>0.1662</v>
+        <v>0.1731</v>
       </c>
       <c r="D69">
-        <v>0.4053</v>
+        <v>0.3738</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.5748</v>
+        <v>0.5497</v>
       </c>
       <c r="C70">
-        <v>0.1667</v>
+        <v>0.1736</v>
       </c>
       <c r="D70">
-        <v>0.4081</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.5783</v>
+        <v>0.5523</v>
       </c>
       <c r="C71">
-        <v>0.1671</v>
+        <v>0.1741</v>
       </c>
       <c r="D71">
-        <v>0.4111</v>
+        <v>0.3782</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.5808</v>
+        <v>0.5537</v>
       </c>
       <c r="C72">
-        <v>0.1671</v>
+        <v>0.174</v>
       </c>
       <c r="D72">
-        <v>0.4137</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.5827</v>
+        <v>0.5542</v>
       </c>
       <c r="C73">
-        <v>0.167</v>
+        <v>0.1739</v>
       </c>
       <c r="D73">
-        <v>0.4157</v>
+        <v>0.3803</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.5845</v>
+        <v>0.5542</v>
       </c>
       <c r="C74">
-        <v>0.1668</v>
+        <v>0.1737</v>
       </c>
       <c r="D74">
-        <v>0.4177</v>
+        <v>0.3806</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.5857</v>
+        <v>0.5533</v>
       </c>
       <c r="C75">
-        <v>0.1664</v>
+        <v>0.1731</v>
       </c>
       <c r="D75">
-        <v>0.4193</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.5864</v>
+        <v>0.5518</v>
       </c>
       <c r="C76">
-        <v>0.166</v>
+        <v>0.1727</v>
       </c>
       <c r="D76">
-        <v>0.4204</v>
+        <v>0.3791</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5863</v>
+        <v>0.5493</v>
       </c>
       <c r="C77">
-        <v>0.1657</v>
+        <v>0.1723</v>
       </c>
       <c r="D77">
-        <v>0.4206</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.5857</v>
+        <v>0.5462</v>
       </c>
       <c r="C78">
-        <v>0.1657</v>
+        <v>0.1722</v>
       </c>
       <c r="D78">
-        <v>0.42</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.5841</v>
+        <v>0.5421</v>
       </c>
       <c r="C79">
-        <v>0.1655</v>
+        <v>0.1719</v>
       </c>
       <c r="D79">
-        <v>0.4185</v>
+        <v>0.3702</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.581</v>
+        <v>0.5366</v>
       </c>
       <c r="C80">
-        <v>0.1644</v>
+        <v>0.1706</v>
       </c>
       <c r="D80">
-        <v>0.4166</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.5773</v>
+        <v>0.5306</v>
       </c>
       <c r="C81">
-        <v>0.1633</v>
+        <v>0.1693</v>
       </c>
       <c r="D81">
-        <v>0.4141</v>
+        <v>0.3613</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.573</v>
+        <v>0.5242</v>
       </c>
       <c r="C82">
-        <v>0.1623</v>
+        <v>0.1682</v>
       </c>
       <c r="D82">
-        <v>0.4108</v>
+        <v>0.3561</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5683</v>
+        <v>0.5174</v>
       </c>
       <c r="C83">
-        <v>0.1612</v>
+        <v>0.1669</v>
       </c>
       <c r="D83">
-        <v>0.4071</v>
+        <v>0.3506</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5624</v>
+        <v>0.5097</v>
       </c>
       <c r="C84">
-        <v>0.16</v>
+        <v>0.1655</v>
       </c>
       <c r="D84">
-        <v>0.4024</v>
+        <v>0.3442</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5566</v>
+        <v>0.5021</v>
       </c>
       <c r="C85">
-        <v>0.1589</v>
+        <v>0.1643</v>
       </c>
       <c r="D85">
-        <v>0.3978</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.5505</v>
+        <v>0.4942</v>
       </c>
       <c r="C86">
-        <v>0.1576</v>
+        <v>0.1628</v>
       </c>
       <c r="D86">
-        <v>0.3929</v>
+        <v>0.3314</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5448</v>
+        <v>0.4868</v>
       </c>
       <c r="C87">
-        <v>0.1569</v>
+        <v>0.1619</v>
       </c>
       <c r="D87">
-        <v>0.3879</v>
+        <v>0.3249</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.5386</v>
+        <v>0.479</v>
       </c>
       <c r="C88">
-        <v>0.1561</v>
+        <v>0.1609</v>
       </c>
       <c r="D88">
-        <v>0.3825</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.5327</v>
+        <v>0.4718</v>
       </c>
       <c r="C89">
-        <v>0.1556</v>
+        <v>0.1603</v>
       </c>
       <c r="D89">
-        <v>0.3771</v>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.5274</v>
+        <v>0.465</v>
       </c>
       <c r="C90">
-        <v>0.1557</v>
+        <v>0.1602</v>
       </c>
       <c r="D90">
-        <v>0.3717</v>
+        <v>0.3048</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.5215</v>
+        <v>0.4581</v>
       </c>
       <c r="C91">
-        <v>0.1557</v>
+        <v>0.1601</v>
       </c>
       <c r="D91">
-        <v>0.3658</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.5153</v>
+        <v>0.4511</v>
       </c>
       <c r="C92">
-        <v>0.1557</v>
+        <v>0.16</v>
       </c>
       <c r="D92">
-        <v>0.3596</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.5096000000000001</v>
+        <v>0.4448</v>
       </c>
       <c r="C93">
-        <v>0.156</v>
+        <v>0.1602</v>
       </c>
       <c r="D93">
-        <v>0.3536</v>
+        <v>0.2846</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.5037</v>
+        <v>0.4385</v>
       </c>
       <c r="C94">
-        <v>0.1567</v>
+        <v>0.1608</v>
       </c>
       <c r="D94">
-        <v>0.347</v>
+        <v>0.2777</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4984</v>
+        <v>0.433</v>
       </c>
       <c r="C95">
-        <v>0.1576</v>
+        <v>0.1616</v>
       </c>
       <c r="D95">
-        <v>0.3409</v>
+        <v>0.2714</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4935</v>
+        <v>0.4278</v>
       </c>
       <c r="C96">
-        <v>0.1584</v>
+        <v>0.1624</v>
       </c>
       <c r="D96">
-        <v>0.335</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4887</v>
+        <v>0.4229</v>
       </c>
       <c r="C97">
-        <v>0.1593</v>
+        <v>0.1632</v>
       </c>
       <c r="D97">
-        <v>0.3294</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.484</v>
+        <v>0.418</v>
       </c>
       <c r="C98">
-        <v>0.1601</v>
+        <v>0.1639</v>
       </c>
       <c r="D98">
-        <v>0.3239</v>
+        <v>0.2541</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4805</v>
+        <v>0.4144</v>
       </c>
       <c r="C99">
-        <v>0.1617</v>
+        <v>0.1654</v>
       </c>
       <c r="D99">
-        <v>0.3188</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.477</v>
+        <v>0.4106</v>
       </c>
       <c r="C100">
-        <v>0.163</v>
+        <v>0.1667</v>
       </c>
       <c r="D100">
-        <v>0.314</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4742</v>
+        <v>0.4073</v>
       </c>
       <c r="C101">
-        <v>0.1642</v>
+        <v>0.1678</v>
       </c>
       <c r="D101">
-        <v>0.31</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4716</v>
+        <v>0.4042</v>
       </c>
       <c r="C102">
-        <v>0.1655</v>
+        <v>0.169</v>
       </c>
       <c r="D102">
-        <v>0.3062</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4696</v>
+        <v>0.4016</v>
       </c>
       <c r="C103">
-        <v>0.1672</v>
+        <v>0.1707</v>
       </c>
       <c r="D103">
-        <v>0.3024</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4688</v>
+        <v>0.4</v>
       </c>
       <c r="C104">
-        <v>0.169</v>
+        <v>0.1725</v>
       </c>
       <c r="D104">
-        <v>0.2998</v>
+        <v>0.2276</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.468</v>
+        <v>0.3984</v>
       </c>
       <c r="C105">
-        <v>0.1703</v>
+        <v>0.1738</v>
       </c>
       <c r="D105">
-        <v>0.2977</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.467</v>
+        <v>0.3967</v>
       </c>
       <c r="C106">
-        <v>0.1714</v>
+        <v>0.1748</v>
       </c>
       <c r="D106">
-        <v>0.2956</v>
+        <v>0.2218</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.466</v>
+        <v>0.3948</v>
       </c>
       <c r="C107">
-        <v>0.1721</v>
+        <v>0.1755</v>
       </c>
       <c r="D107">
-        <v>0.2939</v>
+        <v>0.2193</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.4652</v>
+        <v>0.3934</v>
       </c>
       <c r="C108">
-        <v>0.1733</v>
+        <v>0.1766</v>
       </c>
       <c r="D108">
-        <v>0.292</v>
+        <v>0.2168</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4642</v>
+        <v>0.392</v>
       </c>
       <c r="C109">
-        <v>0.1744</v>
+        <v>0.1778</v>
       </c>
       <c r="D109">
-        <v>0.2897</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.4624</v>
+        <v>0.3898</v>
       </c>
       <c r="C110">
-        <v>0.1751</v>
+        <v>0.1783</v>
       </c>
       <c r="D110">
-        <v>0.2873</v>
+        <v>0.2115</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.4598</v>
+        <v>0.387</v>
       </c>
       <c r="C111">
-        <v>0.1751</v>
+        <v>0.1783</v>
       </c>
       <c r="D111">
-        <v>0.2847</v>
+        <v>0.2087</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.456</v>
+        <v>0.3833</v>
       </c>
       <c r="C112">
-        <v>0.1748</v>
+        <v>0.1779</v>
       </c>
       <c r="D112">
-        <v>0.2812</v>
+        <v>0.2054</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4569</v>
+        <v>0.383</v>
       </c>
       <c r="C113">
-        <v>0.174</v>
+        <v>0.177</v>
       </c>
       <c r="D113">
-        <v>0.2829</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.4568</v>
+        <v>0.3821</v>
       </c>
       <c r="C114">
-        <v>0.1733</v>
+        <v>0.1763</v>
       </c>
       <c r="D114">
-        <v>0.2835</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.4558</v>
+        <v>0.3807</v>
       </c>
       <c r="C115">
-        <v>0.1727</v>
+        <v>0.1756</v>
       </c>
       <c r="D115">
-        <v>0.2831</v>
+        <v>0.2051</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.4541</v>
+        <v>0.3789</v>
       </c>
       <c r="C116">
-        <v>0.172</v>
+        <v>0.1748</v>
       </c>
       <c r="D116">
-        <v>0.2821</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.4514</v>
+        <v>0.3763</v>
       </c>
       <c r="C117">
-        <v>0.1709</v>
+        <v>0.1737</v>
       </c>
       <c r="D117">
-        <v>0.2805</v>
+        <v>0.2027</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.4483</v>
+        <v>0.3738</v>
       </c>
       <c r="C118">
-        <v>0.1699</v>
+        <v>0.1726</v>
       </c>
       <c r="D118">
-        <v>0.2783</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.4443</v>
+        <v>0.3707</v>
       </c>
       <c r="C119">
-        <v>0.1688</v>
+        <v>0.1714</v>
       </c>
       <c r="D119">
-        <v>0.2754</v>
+        <v>0.1993</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4407</v>
+        <v>0.3685</v>
       </c>
       <c r="C120">
-        <v>0.1686</v>
+        <v>0.1712</v>
       </c>
       <c r="D120">
-        <v>0.2721</v>
+        <v>0.1973</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.437</v>
+        <v>0.3665</v>
       </c>
       <c r="C121">
-        <v>0.1688</v>
+        <v>0.1714</v>
       </c>
       <c r="D121">
-        <v>0.2683</v>
+        <v>0.1951</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.4327</v>
+        <v>0.3642</v>
       </c>
       <c r="C122">
-        <v>0.1686</v>
+        <v>0.1713</v>
       </c>
       <c r="D122">
-        <v>0.2641</v>
+        <v>0.1929</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.428</v>
+        <v>0.3616</v>
       </c>
       <c r="C123">
-        <v>0.1685</v>
+        <v>0.1712</v>
       </c>
       <c r="D123">
-        <v>0.2594</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.4218</v>
+        <v>0.3581</v>
       </c>
       <c r="C124">
-        <v>0.1682</v>
+        <v>0.1709</v>
       </c>
       <c r="D124">
-        <v>0.2536</v>
+        <v>0.1872</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.4155</v>
+        <v>0.3546</v>
       </c>
       <c r="C125">
-        <v>0.1682</v>
+        <v>0.1709</v>
       </c>
       <c r="D125">
-        <v>0.2473</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4093</v>
+        <v>0.3513</v>
       </c>
       <c r="C126">
-        <v>0.1682</v>
+        <v>0.1709</v>
       </c>
       <c r="D126">
-        <v>0.2411</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.4027</v>
+        <v>0.3478</v>
       </c>
       <c r="C127">
-        <v>0.1681</v>
+        <v>0.1709</v>
       </c>
       <c r="D127">
-        <v>0.2347</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3957</v>
+        <v>0.3437</v>
       </c>
       <c r="C128">
-        <v>0.1672</v>
+        <v>0.17</v>
       </c>
       <c r="D128">
-        <v>0.2284</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3883</v>
+        <v>0.3392</v>
       </c>
       <c r="C129">
-        <v>0.1658</v>
+        <v>0.1686</v>
       </c>
       <c r="D129">
-        <v>0.2225</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3812</v>
+        <v>0.335</v>
       </c>
       <c r="C130">
-        <v>0.1646</v>
+        <v>0.1674</v>
       </c>
       <c r="D130">
-        <v>0.2166</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.375</v>
+        <v>0.3317</v>
       </c>
       <c r="C131">
-        <v>0.1641</v>
+        <v>0.1669</v>
       </c>
       <c r="D131">
-        <v>0.2109</v>
+        <v>0.1649</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3699</v>
+        <v>0.3294</v>
       </c>
       <c r="C132">
-        <v>0.1635</v>
+        <v>0.1664</v>
       </c>
       <c r="D132">
-        <v>0.2064</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3597</v>
+        <v>0.3232</v>
       </c>
       <c r="C133">
-        <v>0.1631</v>
+        <v>0.166</v>
       </c>
       <c r="D133">
-        <v>0.1966</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3501</v>
+        <v>0.3174</v>
       </c>
       <c r="C134">
-        <v>0.1623</v>
+        <v>0.1653</v>
       </c>
       <c r="D134">
-        <v>0.1877</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3414</v>
+        <v>0.3124</v>
       </c>
       <c r="C135">
-        <v>0.1616</v>
+        <v>0.1646</v>
       </c>
       <c r="D135">
-        <v>0.1798</v>
+        <v>0.1478</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3334</v>
+        <v>0.3079</v>
       </c>
       <c r="C136">
-        <v>0.1609</v>
+        <v>0.1639</v>
       </c>
       <c r="D136">
-        <v>0.1725</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3266</v>
+        <v>0.3045</v>
       </c>
       <c r="C137">
-        <v>0.1606</v>
+        <v>0.1638</v>
       </c>
       <c r="D137">
-        <v>0.166</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3198</v>
+        <v>0.3009</v>
       </c>
       <c r="C138">
-        <v>0.1599</v>
+        <v>0.1631</v>
       </c>
       <c r="D138">
-        <v>0.1599</v>
+        <v>0.1378</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3137</v>
+        <v>0.2978</v>
       </c>
       <c r="C139">
-        <v>0.1589</v>
+        <v>0.1622</v>
       </c>
       <c r="D139">
-        <v>0.1548</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3075</v>
+        <v>0.2942</v>
       </c>
       <c r="C140">
-        <v>0.1572</v>
+        <v>0.1605</v>
       </c>
       <c r="D140">
-        <v>0.1503</v>
+        <v>0.1337</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3022</v>
+        <v>0.2912</v>
       </c>
       <c r="C141">
-        <v>0.1551</v>
+        <v>0.1585</v>
       </c>
       <c r="D141">
-        <v>0.1471</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2971</v>
+        <v>0.2884</v>
       </c>
       <c r="C142">
-        <v>0.153</v>
+        <v>0.1564</v>
       </c>
       <c r="D142">
-        <v>0.1442</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2929</v>
+        <v>0.2862</v>
       </c>
       <c r="C143">
-        <v>0.1511</v>
+        <v>0.1546</v>
       </c>
       <c r="D143">
-        <v>0.1417</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2895</v>
+        <v>0.2848</v>
       </c>
       <c r="C144">
-        <v>0.1499</v>
+        <v>0.1534</v>
       </c>
       <c r="D144">
-        <v>0.1396</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2861</v>
+        <v>0.2834</v>
       </c>
       <c r="C145">
-        <v>0.1486</v>
+        <v>0.1522</v>
       </c>
       <c r="D145">
-        <v>0.1374</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2827</v>
+        <v>0.282</v>
       </c>
       <c r="C146">
-        <v>0.1472</v>
+        <v>0.1509</v>
       </c>
       <c r="D146">
-        <v>0.1354</v>
+        <v>0.1311</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2797</v>
+        <v>0.2809</v>
       </c>
       <c r="C147">
-        <v>0.146</v>
+        <v>0.1498</v>
       </c>
       <c r="D147">
-        <v>0.1337</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.278</v>
+        <v>0.2811</v>
       </c>
       <c r="C148">
-        <v>0.1456</v>
+        <v>0.1495</v>
       </c>
       <c r="D148">
-        <v>0.1324</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2776</v>
+        <v>0.2823</v>
       </c>
       <c r="C149">
-        <v>0.1455</v>
+        <v>0.1496</v>
       </c>
       <c r="D149">
-        <v>0.1321</v>
+        <v>0.1328</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2783</v>
+        <v>0.2846</v>
       </c>
       <c r="C150">
-        <v>0.1462</v>
+        <v>0.1504</v>
       </c>
       <c r="D150">
-        <v>0.1321</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.281</v>
+        <v>0.2886</v>
       </c>
       <c r="C151">
-        <v>0.1477</v>
+        <v>0.1521</v>
       </c>
       <c r="D151">
-        <v>0.1333</v>
+        <v>0.1365</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2843</v>
+        <v>0.2933</v>
       </c>
       <c r="C152">
-        <v>0.1498</v>
+        <v>0.1544</v>
       </c>
       <c r="D152">
-        <v>0.1346</v>
+        <v>0.1388</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2882</v>
+        <v>0.2984</v>
       </c>
       <c r="C153">
-        <v>0.1523</v>
+        <v>0.1572</v>
       </c>
       <c r="D153">
-        <v>0.1359</v>
+        <v>0.1412</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2918</v>
+        <v>0.3032</v>
       </c>
       <c r="C154">
-        <v>0.1544</v>
+        <v>0.1595</v>
       </c>
       <c r="D154">
-        <v>0.1374</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2955</v>
+        <v>0.3079</v>
       </c>
       <c r="C155">
-        <v>0.1564</v>
+        <v>0.1618</v>
       </c>
       <c r="D155">
-        <v>0.1391</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2989</v>
+        <v>0.3124</v>
       </c>
       <c r="C156">
-        <v>0.1583</v>
+        <v>0.1638</v>
       </c>
       <c r="D156">
-        <v>0.1406</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.302</v>
+        <v>0.3165</v>
       </c>
       <c r="C157">
-        <v>0.1601</v>
+        <v>0.1658</v>
       </c>
       <c r="D157">
-        <v>0.142</v>
+        <v>0.1507</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3055</v>
+        <v>0.3211</v>
       </c>
       <c r="C158">
-        <v>0.1623</v>
+        <v>0.1683</v>
       </c>
       <c r="D158">
-        <v>0.1432</v>
+        <v>0.1529</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3098</v>
+        <v>0.3265</v>
       </c>
       <c r="C159">
-        <v>0.1653</v>
+        <v>0.1715</v>
       </c>
       <c r="D159">
-        <v>0.1445</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3136</v>
+        <v>0.3314</v>
       </c>
       <c r="C160">
-        <v>0.1681</v>
+        <v>0.1745</v>
       </c>
       <c r="D160">
-        <v>0.1455</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3165</v>
+        <v>0.3358</v>
       </c>
       <c r="C161">
-        <v>0.1713</v>
+        <v>0.1781</v>
       </c>
       <c r="D161">
-        <v>0.1452</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3194</v>
+        <v>0.3402</v>
       </c>
       <c r="C162">
-        <v>0.1746</v>
+        <v>0.1816</v>
       </c>
       <c r="D162">
-        <v>0.1448</v>
+        <v>0.1587</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3217</v>
+        <v>0.344</v>
       </c>
       <c r="C163">
-        <v>0.1774</v>
+        <v>0.1847</v>
       </c>
       <c r="D163">
-        <v>0.1443</v>
+        <v>0.1594</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3234</v>
+        <v>0.347</v>
       </c>
       <c r="C164">
-        <v>0.1795</v>
+        <v>0.1869</v>
       </c>
       <c r="D164">
-        <v>0.1439</v>
+        <v>0.1601</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3255</v>
+        <v>0.3504</v>
       </c>
       <c r="C165">
-        <v>0.1818</v>
+        <v>0.1895</v>
       </c>
       <c r="D165">
-        <v>0.1437</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3286</v>
+        <v>0.3548</v>
       </c>
       <c r="C166">
-        <v>0.185</v>
+        <v>0.193</v>
       </c>
       <c r="D166">
-        <v>0.1436</v>
+        <v>0.1619</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3321</v>
+        <v>0.3595</v>
       </c>
       <c r="C167">
-        <v>0.1886</v>
+        <v>0.1968</v>
       </c>
       <c r="D167">
-        <v>0.1435</v>
+        <v>0.1627</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3347</v>
+        <v>0.3633</v>
       </c>
       <c r="C168">
-        <v>0.1916</v>
+        <v>0.2</v>
       </c>
       <c r="D168">
-        <v>0.1431</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3358</v>
+        <v>0.3657</v>
       </c>
       <c r="C169">
-        <v>0.1937</v>
+        <v>0.2024</v>
       </c>
       <c r="D169">
-        <v>0.1421</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3371</v>
+        <v>0.3679</v>
       </c>
       <c r="C170">
-        <v>0.1954</v>
+        <v>0.2042</v>
       </c>
       <c r="D170">
-        <v>0.1417</v>
+        <v>0.1638</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3375</v>
+        <v>0.3693</v>
       </c>
       <c r="C171">
-        <v>0.1965</v>
+        <v>0.2055</v>
       </c>
       <c r="D171">
-        <v>0.141</v>
+        <v>0.1638</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3376</v>
+        <v>0.3703</v>
       </c>
       <c r="C172">
-        <v>0.1973</v>
+        <v>0.2063</v>
       </c>
       <c r="D172">
-        <v>0.1404</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3394</v>
+        <v>0.3724</v>
       </c>
       <c r="C173">
-        <v>0.1976</v>
+        <v>0.2067</v>
       </c>
       <c r="D173">
-        <v>0.1418</v>
+        <v>0.1657</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3421</v>
+        <v>0.3753</v>
       </c>
       <c r="C174">
-        <v>0.1984</v>
+        <v>0.2076</v>
       </c>
       <c r="D174">
-        <v>0.1437</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3444</v>
+        <v>0.3776</v>
       </c>
       <c r="C175">
-        <v>0.1988</v>
+        <v>0.208</v>
       </c>
       <c r="D175">
-        <v>0.1455</v>
+        <v>0.1696</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3475</v>
+        <v>0.3808</v>
       </c>
       <c r="C176">
-        <v>0.1997</v>
+        <v>0.2089</v>
       </c>
       <c r="D176">
-        <v>0.1478</v>
+        <v>0.1719</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3512</v>
+        <v>0.3844</v>
       </c>
       <c r="C177">
-        <v>0.2008</v>
+        <v>0.2101</v>
       </c>
       <c r="D177">
-        <v>0.1505</v>
+        <v>0.1744</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3565</v>
+        <v>0.3893</v>
       </c>
       <c r="C178">
-        <v>0.2021</v>
+        <v>0.2115</v>
       </c>
       <c r="D178">
-        <v>0.1544</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.361</v>
+        <v>0.3933</v>
       </c>
       <c r="C179">
-        <v>0.2029</v>
+        <v>0.2123</v>
       </c>
       <c r="D179">
-        <v>0.158</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3665</v>
+        <v>0.398</v>
       </c>
       <c r="C180">
-        <v>0.2039</v>
+        <v>0.2133</v>
       </c>
       <c r="D180">
-        <v>0.1626</v>
+        <v>0.1847</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3723</v>
+        <v>0.4029</v>
       </c>
       <c r="C181">
-        <v>0.2048</v>
+        <v>0.2143</v>
       </c>
       <c r="D181">
-        <v>0.1674</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3784</v>
+        <v>0.4082</v>
       </c>
       <c r="C182">
-        <v>0.2057</v>
+        <v>0.2152</v>
       </c>
       <c r="D182">
-        <v>0.1727</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3841</v>
+        <v>0.413</v>
       </c>
       <c r="C183">
-        <v>0.2058</v>
+        <v>0.2152</v>
       </c>
       <c r="D183">
-        <v>0.1783</v>
+        <v>0.1977</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3901</v>
+        <v>0.4179</v>
       </c>
       <c r="C184">
-        <v>0.2061</v>
+        <v>0.2156</v>
       </c>
       <c r="D184">
-        <v>0.184</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3958</v>
+        <v>0.4224</v>
       </c>
       <c r="C185">
-        <v>0.2061</v>
+        <v>0.2155</v>
       </c>
       <c r="D185">
-        <v>0.1897</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4008</v>
+        <v>0.4262</v>
       </c>
       <c r="C186">
-        <v>0.2052</v>
+        <v>0.2145</v>
       </c>
       <c r="D186">
-        <v>0.1957</v>
+        <v>0.2117</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4057</v>
+        <v>0.4297</v>
       </c>
       <c r="C187">
-        <v>0.2039</v>
+        <v>0.2131</v>
       </c>
       <c r="D187">
-        <v>0.2017</v>
+        <v>0.2165</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4104</v>
+        <v>0.4329</v>
       </c>
       <c r="C188">
-        <v>0.2023</v>
+        <v>0.2114</v>
       </c>
       <c r="D188">
-        <v>0.208</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4166</v>
+        <v>0.4376</v>
       </c>
       <c r="C189">
-        <v>0.2016</v>
+        <v>0.2106</v>
       </c>
       <c r="D189">
-        <v>0.215</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4224</v>
+        <v>0.4418</v>
       </c>
       <c r="C190">
-        <v>0.2007</v>
+        <v>0.2096</v>
       </c>
       <c r="D190">
-        <v>0.2217</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4284</v>
+        <v>0.4462</v>
       </c>
       <c r="C191">
-        <v>0.1998</v>
+        <v>0.2086</v>
       </c>
       <c r="D191">
-        <v>0.2286</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4337</v>
+        <v>0.45</v>
       </c>
       <c r="C192">
-        <v>0.1987</v>
+        <v>0.2074</v>
       </c>
       <c r="D192">
-        <v>0.235</v>
+        <v>0.2425</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4373</v>
+        <v>0.4526</v>
       </c>
       <c r="C193">
-        <v>0.1979</v>
+        <v>0.2065</v>
       </c>
       <c r="D193">
-        <v>0.2394</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4411</v>
+        <v>0.4555</v>
       </c>
       <c r="C194">
-        <v>0.1974</v>
+        <v>0.206</v>
       </c>
       <c r="D194">
-        <v>0.2437</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.445</v>
+        <v>0.4584</v>
       </c>
       <c r="C195">
-        <v>0.1971</v>
+        <v>0.2057</v>
       </c>
       <c r="D195">
-        <v>0.2479</v>
+        <v>0.2527</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.448</v>
+        <v>0.4605</v>
       </c>
       <c r="C196">
-        <v>0.1961</v>
+        <v>0.2046</v>
       </c>
       <c r="D196">
-        <v>0.2519</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4519</v>
+        <v>0.4632</v>
       </c>
       <c r="C197">
-        <v>0.1954</v>
+        <v>0.2038</v>
       </c>
       <c r="D197">
-        <v>0.2565</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.454</v>
+        <v>0.4643</v>
       </c>
       <c r="C198">
-        <v>0.1941</v>
+        <v>0.2024</v>
       </c>
       <c r="D198">
-        <v>0.2599</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4557</v>
+        <v>0.465</v>
       </c>
       <c r="C199">
-        <v>0.1924</v>
+        <v>0.2006</v>
       </c>
       <c r="D199">
-        <v>0.2634</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4561</v>
+        <v>0.4645</v>
       </c>
       <c r="C200">
-        <v>0.1903</v>
+        <v>0.1984</v>
       </c>
       <c r="D200">
-        <v>0.2658</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.458</v>
+        <v>0.4652</v>
       </c>
       <c r="C201">
-        <v>0.1882</v>
+        <v>0.1962</v>
       </c>
       <c r="D201">
-        <v>0.2698</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4597</v>
+        <v>0.4656</v>
       </c>
       <c r="C202">
-        <v>0.1866</v>
+        <v>0.1945</v>
       </c>
       <c r="D202">
-        <v>0.2731</v>
+        <v>0.2711</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4651</v>
+        <v>0.4696</v>
       </c>
       <c r="C203">
-        <v>0.1875</v>
+        <v>0.1955</v>
       </c>
       <c r="D203">
-        <v>0.2776</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4709</v>
+        <v>0.474</v>
       </c>
       <c r="C204">
-        <v>0.1889</v>
+        <v>0.1968</v>
       </c>
       <c r="D204">
-        <v>0.282</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4766</v>
+        <v>0.4782</v>
       </c>
       <c r="C205">
-        <v>0.1895</v>
+        <v>0.1975</v>
       </c>
       <c r="D205">
-        <v>0.2871</v>
+        <v>0.2807</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4823</v>
+        <v>0.4825</v>
       </c>
       <c r="C206">
-        <v>0.1903</v>
+        <v>0.1983</v>
       </c>
       <c r="D206">
-        <v>0.292</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4875</v>
+        <v>0.4863</v>
       </c>
       <c r="C207">
-        <v>0.1911</v>
+        <v>0.1991</v>
       </c>
       <c r="D207">
-        <v>0.2963</v>
+        <v>0.2871</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4933</v>
+        <v>0.4907</v>
       </c>
       <c r="C208">
-        <v>0.1923</v>
+        <v>0.2004</v>
       </c>
       <c r="D208">
-        <v>0.301</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4986</v>
+        <v>0.4947</v>
       </c>
       <c r="C209">
-        <v>0.1934</v>
+        <v>0.2016</v>
       </c>
       <c r="D209">
-        <v>0.3052</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.5044999999999999</v>
+        <v>0.4993</v>
       </c>
       <c r="C210">
-        <v>0.1954</v>
+        <v>0.2036</v>
       </c>
       <c r="D210">
-        <v>0.3091</v>
+        <v>0.2957</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.5086000000000001</v>
+        <v>0.5023</v>
       </c>
       <c r="C211">
-        <v>0.1966</v>
+        <v>0.2049</v>
       </c>
       <c r="D211">
-        <v>0.312</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.513</v>
+        <v>0.5056</v>
       </c>
       <c r="C212">
-        <v>0.1982</v>
+        <v>0.2065</v>
       </c>
       <c r="D212">
-        <v>0.3148</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.5172</v>
+        <v>0.5085</v>
       </c>
       <c r="C213">
-        <v>0.1995</v>
+        <v>0.2079</v>
       </c>
       <c r="D213">
-        <v>0.3176</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.5203</v>
+        <v>0.5103</v>
       </c>
       <c r="C214">
-        <v>0.2003</v>
+        <v>0.2086</v>
       </c>
       <c r="D214">
-        <v>0.32</v>
+        <v>0.3017</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.5236</v>
+        <v>0.5124</v>
       </c>
       <c r="C215">
-        <v>0.2014</v>
+        <v>0.2097</v>
       </c>
       <c r="D215">
-        <v>0.3222</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.528</v>
+        <v>0.5158</v>
       </c>
       <c r="C216">
-        <v>0.2042</v>
+        <v>0.2127</v>
       </c>
       <c r="D216">
-        <v>0.3238</v>
+        <v>0.3031</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.5339</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="C217">
-        <v>0.2081</v>
+        <v>0.2168</v>
       </c>
       <c r="D217">
-        <v>0.3258</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.5427999999999999</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="C218">
-        <v>0.2121</v>
+        <v>0.221</v>
       </c>
       <c r="D218">
-        <v>0.3306</v>
+        <v>0.3067</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.5547</v>
+        <v>0.537</v>
       </c>
       <c r="C219">
-        <v>0.2165</v>
+        <v>0.2256</v>
       </c>
       <c r="D219">
-        <v>0.3381</v>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.5734</v>
+        <v>0.5538999999999999</v>
       </c>
       <c r="C220">
-        <v>0.2235</v>
+        <v>0.2331</v>
       </c>
       <c r="D220">
-        <v>0.3498</v>
+        <v>0.3209</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.588</v>
+        <v>0.5672</v>
       </c>
       <c r="C221">
-        <v>0.2296</v>
+        <v>0.2395</v>
       </c>
       <c r="D221">
-        <v>0.3584</v>
+        <v>0.3278</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.6019</v>
+        <v>0.5796</v>
       </c>
       <c r="C222">
-        <v>0.2356</v>
+        <v>0.2458</v>
       </c>
       <c r="D222">
-        <v>0.3663</v>
+        <v>0.3338</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.6115</v>
+        <v>0.5878</v>
       </c>
       <c r="C223">
-        <v>0.2393</v>
+        <v>0.2497</v>
       </c>
       <c r="D223">
-        <v>0.3722</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.6191</v>
+        <v>0.594</v>
       </c>
       <c r="C224">
-        <v>0.2421</v>
+        <v>0.2527</v>
       </c>
       <c r="D224">
-        <v>0.377</v>
+        <v>0.3413</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.6256</v>
+        <v>0.5991</v>
       </c>
       <c r="C225">
-        <v>0.2453</v>
+        <v>0.256</v>
       </c>
       <c r="D225">
-        <v>0.3803</v>
+        <v>0.3431</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.6309</v>
+        <v>0.6029</v>
       </c>
       <c r="C226">
-        <v>0.2481</v>
+        <v>0.259</v>
       </c>
       <c r="D226">
-        <v>0.3827</v>
+        <v>0.3439</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.6351</v>
+        <v>0.6056</v>
       </c>
       <c r="C227">
-        <v>0.2506</v>
+        <v>0.2616</v>
       </c>
       <c r="D227">
-        <v>0.3845</v>
+        <v>0.3441</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.6388</v>
+        <v>0.608</v>
       </c>
       <c r="C228">
-        <v>0.254</v>
+        <v>0.2651</v>
       </c>
       <c r="D228">
-        <v>0.3848</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.6409</v>
+        <v>0.6087</v>
       </c>
       <c r="C229">
-        <v>0.257</v>
+        <v>0.2681</v>
       </c>
       <c r="D229">
-        <v>0.3839</v>
+        <v>0.3405</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.6402</v>
+        <v>0.6066</v>
       </c>
       <c r="C230">
-        <v>0.2585</v>
+        <v>0.2696</v>
       </c>
       <c r="D230">
-        <v>0.3817</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.6393</v>
+        <v>0.6041</v>
       </c>
       <c r="C231">
-        <v>0.2598</v>
+        <v>0.2709</v>
       </c>
       <c r="D231">
-        <v>0.3795</v>
+        <v>0.3332</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.6365</v>
+        <v>0.5997</v>
       </c>
       <c r="C232">
-        <v>0.2602</v>
+        <v>0.2711</v>
       </c>
       <c r="D232">
-        <v>0.3764</v>
+        <v>0.3287</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.6326000000000001</v>
+        <v>0.5942</v>
       </c>
       <c r="C233">
-        <v>0.2602</v>
+        <v>0.2709</v>
       </c>
       <c r="D233">
-        <v>0.3725</v>
+        <v>0.3233</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.6307</v>
+        <v>0.5904</v>
       </c>
       <c r="C234">
-        <v>0.2607</v>
+        <v>0.2714</v>
       </c>
       <c r="D234">
-        <v>0.3699</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.6288</v>
+        <v>0.5866</v>
       </c>
       <c r="C235">
-        <v>0.2617</v>
+        <v>0.2722</v>
       </c>
       <c r="D235">
-        <v>0.3671</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.6247</v>
+        <v>0.5805</v>
       </c>
       <c r="C236">
-        <v>0.2609</v>
+        <v>0.2712</v>
       </c>
       <c r="D236">
-        <v>0.3638</v>
+        <v>0.3093</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,13 +4442,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.6171</v>
+        <v>0.571</v>
       </c>
       <c r="C237">
-        <v>0.2582</v>
+        <v>0.2681</v>
       </c>
       <c r="D237">
-        <v>0.3588</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.606</v>
+        <v>0.5588</v>
       </c>
       <c r="C238">
-        <v>0.2554</v>
+        <v>0.265</v>
       </c>
       <c r="D238">
-        <v>0.3506</v>
+        <v>0.2939</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,13 +4470,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.5915</v>
+        <v>0.5439000000000001</v>
       </c>
       <c r="C239">
-        <v>0.2522</v>
+        <v>0.2613</v>
       </c>
       <c r="D239">
-        <v>0.3393</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4484,13 +4484,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.571</v>
+        <v>0.5221</v>
       </c>
       <c r="C240">
-        <v>0.2471</v>
+        <v>0.2556</v>
       </c>
       <c r="D240">
-        <v>0.3239</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.552</v>
+        <v>0.5017</v>
       </c>
       <c r="C241">
-        <v>0.2424</v>
+        <v>0.2502</v>
       </c>
       <c r="D241">
-        <v>0.3097</v>
+        <v>0.2515</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.5348000000000001</v>
+        <v>0.4826</v>
       </c>
       <c r="C242">
-        <v>0.237</v>
+        <v>0.2442</v>
       </c>
       <c r="D242">
-        <v>0.2978</v>
+        <v>0.2384</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.5178</v>
+        <v>0.464</v>
       </c>
       <c r="C243">
-        <v>0.2317</v>
+        <v>0.2383</v>
       </c>
       <c r="D243">
-        <v>0.2861</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.5013</v>
+        <v>0.446</v>
       </c>
       <c r="C244">
-        <v>0.2267</v>
+        <v>0.2326</v>
       </c>
       <c r="D244">
-        <v>0.2747</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,13 +4554,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4855</v>
+        <v>0.4287</v>
       </c>
       <c r="C245">
-        <v>0.2219</v>
+        <v>0.2272</v>
       </c>
       <c r="D245">
-        <v>0.2636</v>
+        <v>0.2014</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4701</v>
+        <v>0.412</v>
       </c>
       <c r="C246">
-        <v>0.2172</v>
+        <v>0.2219</v>
       </c>
       <c r="D246">
-        <v>0.2529</v>
+        <v>0.1901</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4555</v>
+        <v>0.3961</v>
       </c>
       <c r="C247">
-        <v>0.2127</v>
+        <v>0.2168</v>
       </c>
       <c r="D247">
-        <v>0.2429</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4405</v>
+        <v>0.3797</v>
       </c>
       <c r="C248">
-        <v>0.207</v>
+        <v>0.2105</v>
       </c>
       <c r="D248">
-        <v>0.2334</v>
+        <v>0.1692</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.4255</v>
+        <v>0.3635</v>
       </c>
       <c r="C249">
-        <v>0.201</v>
+        <v>0.2038</v>
       </c>
       <c r="D249">
-        <v>0.2245</v>
+        <v>0.1598</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2019 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2019 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4107</v>
+        <v>0.4091</v>
       </c>
       <c r="C2">
-        <v>0.1915</v>
+        <v>0.1914</v>
       </c>
       <c r="D2">
-        <v>0.2192</v>
+        <v>0.2177</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4119</v>
+        <v>0.4102</v>
       </c>
       <c r="C3">
-        <v>0.1907</v>
+        <v>0.1905</v>
       </c>
       <c r="D3">
-        <v>0.2212</v>
+        <v>0.2197</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4131</v>
+        <v>0.4114</v>
       </c>
       <c r="C4">
-        <v>0.1901</v>
+        <v>0.19</v>
       </c>
       <c r="D4">
-        <v>0.223</v>
+        <v>0.2214</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4155</v>
+        <v>0.4138</v>
       </c>
       <c r="C5">
-        <v>0.1907</v>
+        <v>0.1906</v>
       </c>
       <c r="D5">
-        <v>0.2247</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4169</v>
+        <v>0.4152</v>
       </c>
       <c r="C6">
-        <v>0.1909</v>
+        <v>0.1908</v>
       </c>
       <c r="D6">
-        <v>0.226</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.4181</v>
+        <v>0.4165</v>
       </c>
       <c r="C7">
-        <v>0.1911</v>
+        <v>0.191</v>
       </c>
       <c r="D7">
-        <v>0.227</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.419</v>
+        <v>0.4174</v>
       </c>
       <c r="C8">
-        <v>0.1911</v>
+        <v>0.191</v>
       </c>
       <c r="D8">
-        <v>0.2279</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.4193</v>
+        <v>0.4177</v>
       </c>
       <c r="C9">
-        <v>0.1911</v>
+        <v>0.191</v>
       </c>
       <c r="D9">
-        <v>0.2282</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4192</v>
+        <v>0.4177</v>
       </c>
       <c r="C10">
-        <v>0.1911</v>
+        <v>0.1909</v>
       </c>
       <c r="D10">
-        <v>0.2281</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4181</v>
+        <v>0.4167</v>
       </c>
       <c r="C11">
-        <v>0.1905</v>
+        <v>0.1904</v>
       </c>
       <c r="D11">
-        <v>0.2276</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4176</v>
+        <v>0.4162</v>
       </c>
       <c r="C12">
-        <v>0.1904</v>
+        <v>0.1903</v>
       </c>
       <c r="D12">
-        <v>0.2271</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.4171</v>
+        <v>0.4158</v>
       </c>
       <c r="C13">
-        <v>0.1903</v>
+        <v>0.1902</v>
       </c>
       <c r="D13">
-        <v>0.2267</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.4167</v>
+        <v>0.4155</v>
       </c>
       <c r="C14">
-        <v>0.1899</v>
+        <v>0.1898</v>
       </c>
       <c r="D14">
-        <v>0.2268</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4165</v>
+        <v>0.4154</v>
       </c>
       <c r="C15">
-        <v>0.1895</v>
+        <v>0.1894</v>
       </c>
       <c r="D15">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4168</v>
+        <v>0.4157</v>
       </c>
       <c r="C16">
-        <v>0.189</v>
+        <v>0.1889</v>
       </c>
       <c r="D16">
-        <v>0.2278</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4168</v>
+        <v>0.4158</v>
       </c>
       <c r="C17">
-        <v>0.1879</v>
+        <v>0.1878</v>
       </c>
       <c r="D17">
-        <v>0.2289</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4172</v>
+        <v>0.4163</v>
       </c>
       <c r="C18">
-        <v>0.1866</v>
+        <v>0.1865</v>
       </c>
       <c r="D18">
-        <v>0.2306</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4182</v>
+        <v>0.4173</v>
       </c>
       <c r="C19">
-        <v>0.1858</v>
+        <v>0.1857</v>
       </c>
       <c r="D19">
-        <v>0.2324</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4187</v>
+        <v>0.4179</v>
       </c>
       <c r="C20">
-        <v>0.1849</v>
+        <v>0.1848</v>
       </c>
       <c r="D20">
-        <v>0.2338</v>
+        <v>0.2331</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4187</v>
+        <v>0.4179</v>
       </c>
       <c r="C21">
         <v>0.1837</v>
       </c>
       <c r="D21">
-        <v>0.235</v>
+        <v>0.2343</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4189</v>
+        <v>0.4182</v>
       </c>
       <c r="C22">
-        <v>0.1829</v>
+        <v>0.1828</v>
       </c>
       <c r="D22">
-        <v>0.236</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4148</v>
+        <v>0.4142</v>
       </c>
       <c r="C23">
-        <v>0.1814</v>
+        <v>0.1813</v>
       </c>
       <c r="D23">
-        <v>0.2334</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4123</v>
+        <v>0.4119</v>
       </c>
       <c r="C24">
-        <v>0.1812</v>
+        <v>0.1811</v>
       </c>
       <c r="D24">
-        <v>0.2312</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4092</v>
+        <v>0.4088</v>
       </c>
       <c r="C25">
         <v>0.1797</v>
       </c>
       <c r="D25">
-        <v>0.2295</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4064</v>
+        <v>0.406</v>
       </c>
       <c r="C26">
-        <v>0.1783</v>
+        <v>0.1782</v>
       </c>
       <c r="D26">
-        <v>0.2281</v>
+        <v>0.2278</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4043</v>
+        <v>0.4039</v>
       </c>
       <c r="C27">
-        <v>0.1771</v>
+        <v>0.177</v>
       </c>
       <c r="D27">
-        <v>0.2272</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4021</v>
+        <v>0.4017</v>
       </c>
       <c r="C28">
-        <v>0.1755</v>
+        <v>0.1754</v>
       </c>
       <c r="D28">
-        <v>0.2266</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4005</v>
+        <v>0.4001</v>
       </c>
       <c r="C29">
-        <v>0.1741</v>
+        <v>0.174</v>
       </c>
       <c r="D29">
-        <v>0.2264</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3998</v>
+        <v>0.3994</v>
       </c>
       <c r="C30">
-        <v>0.1728</v>
+        <v>0.1727</v>
       </c>
       <c r="D30">
-        <v>0.227</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3999</v>
+        <v>0.3995</v>
       </c>
       <c r="C31">
-        <v>0.172</v>
+        <v>0.1719</v>
       </c>
       <c r="D31">
-        <v>0.228</v>
+        <v>0.2276</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4002</v>
+        <v>0.3998</v>
       </c>
       <c r="C32">
-        <v>0.171</v>
+        <v>0.1709</v>
       </c>
       <c r="D32">
-        <v>0.2292</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.4009</v>
+        <v>0.4004</v>
       </c>
       <c r="C33">
-        <v>0.1701</v>
+        <v>0.17</v>
       </c>
       <c r="D33">
-        <v>0.2308</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4019</v>
+        <v>0.4014</v>
       </c>
       <c r="C34">
-        <v>0.1697</v>
+        <v>0.1696</v>
       </c>
       <c r="D34">
-        <v>0.2323</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4034</v>
+        <v>0.4028</v>
       </c>
       <c r="C35">
-        <v>0.1696</v>
+        <v>0.1695</v>
       </c>
       <c r="D35">
-        <v>0.2338</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4049</v>
+        <v>0.4043</v>
       </c>
       <c r="C36">
-        <v>0.1697</v>
+        <v>0.1696</v>
       </c>
       <c r="D36">
-        <v>0.2353</v>
+        <v>0.2347</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4066</v>
+        <v>0.406</v>
       </c>
       <c r="C37">
         <v>0.17</v>
       </c>
       <c r="D37">
-        <v>0.2366</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4081</v>
+        <v>0.4074</v>
       </c>
       <c r="C38">
         <v>0.1703</v>
       </c>
       <c r="D38">
-        <v>0.2377</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.409</v>
+        <v>0.4083</v>
       </c>
       <c r="C39">
-        <v>0.1703</v>
+        <v>0.1702</v>
       </c>
       <c r="D39">
-        <v>0.2387</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4102</v>
+        <v>0.4095</v>
       </c>
       <c r="C40">
         <v>0.1701</v>
       </c>
       <c r="D40">
-        <v>0.2401</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4116</v>
+        <v>0.4109</v>
       </c>
       <c r="C41">
-        <v>0.1698</v>
+        <v>0.1697</v>
       </c>
       <c r="D41">
-        <v>0.2418</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4138</v>
+        <v>0.413</v>
       </c>
       <c r="C42">
-        <v>0.1697</v>
+        <v>0.1696</v>
       </c>
       <c r="D42">
-        <v>0.2442</v>
+        <v>0.2435</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4168</v>
+        <v>0.4159</v>
       </c>
       <c r="C43">
-        <v>0.1697</v>
+        <v>0.1696</v>
       </c>
       <c r="D43">
-        <v>0.247</v>
+        <v>0.2463</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4185</v>
+        <v>0.4176</v>
       </c>
       <c r="C44">
-        <v>0.1683</v>
+        <v>0.1682</v>
       </c>
       <c r="D44">
-        <v>0.2502</v>
+        <v>0.2494</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4206</v>
+        <v>0.4197</v>
       </c>
       <c r="C45">
-        <v>0.1673</v>
+        <v>0.1672</v>
       </c>
       <c r="D45">
-        <v>0.2534</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4232</v>
+        <v>0.4222</v>
       </c>
       <c r="C46">
-        <v>0.1665</v>
+        <v>0.1664</v>
       </c>
       <c r="D46">
-        <v>0.2567</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.426</v>
+        <v>0.4249</v>
       </c>
       <c r="C47">
-        <v>0.1656</v>
+        <v>0.1655</v>
       </c>
       <c r="D47">
-        <v>0.2604</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4295</v>
+        <v>0.4284</v>
       </c>
       <c r="C48">
-        <v>0.1652</v>
+        <v>0.1651</v>
       </c>
       <c r="D48">
-        <v>0.2643</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4333</v>
+        <v>0.4321</v>
       </c>
       <c r="C49">
-        <v>0.1647</v>
+        <v>0.1646</v>
       </c>
       <c r="D49">
-        <v>0.2685</v>
+        <v>0.2675</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4372</v>
+        <v>0.4361</v>
       </c>
       <c r="C50">
-        <v>0.1644</v>
+        <v>0.1643</v>
       </c>
       <c r="D50">
-        <v>0.2729</v>
+        <v>0.2718</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.441</v>
+        <v>0.4398</v>
       </c>
       <c r="C51">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D51">
-        <v>0.2772</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4457</v>
+        <v>0.4445</v>
       </c>
       <c r="C52">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D52">
-        <v>0.2819</v>
+        <v>0.2808</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4507</v>
+        <v>0.4495</v>
       </c>
       <c r="C53">
-        <v>0.1637</v>
+        <v>0.1636</v>
       </c>
       <c r="D53">
-        <v>0.287</v>
+        <v>0.2858</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4561</v>
+        <v>0.4548</v>
       </c>
       <c r="C54">
-        <v>0.1637</v>
+        <v>0.1636</v>
       </c>
       <c r="D54">
-        <v>0.2924</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4617</v>
+        <v>0.4604</v>
       </c>
       <c r="C55">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D55">
-        <v>0.298</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4673</v>
+        <v>0.466</v>
       </c>
       <c r="C56">
-        <v>0.1639</v>
+        <v>0.1638</v>
       </c>
       <c r="D56">
-        <v>0.3035</v>
+        <v>0.3022</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.4733</v>
+        <v>0.4719</v>
       </c>
       <c r="C57">
-        <v>0.1639</v>
+        <v>0.1638</v>
       </c>
       <c r="D57">
-        <v>0.3094</v>
+        <v>0.3081</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.4795</v>
+        <v>0.4782</v>
       </c>
       <c r="C58">
-        <v>0.164</v>
+        <v>0.1638</v>
       </c>
       <c r="D58">
-        <v>0.3156</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.4857</v>
+        <v>0.4843</v>
       </c>
       <c r="C59">
-        <v>0.1637</v>
+        <v>0.1636</v>
       </c>
       <c r="D59">
-        <v>0.322</v>
+        <v>0.3207</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.4929</v>
+        <v>0.4915</v>
       </c>
       <c r="C60">
-        <v>0.1645</v>
+        <v>0.1644</v>
       </c>
       <c r="D60">
-        <v>0.3283</v>
+        <v>0.3271</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.5001</v>
+        <v>0.4987</v>
       </c>
       <c r="C61">
-        <v>0.1654</v>
+        <v>0.1653</v>
       </c>
       <c r="D61">
-        <v>0.3347</v>
+        <v>0.3334</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.507</v>
+        <v>0.5056</v>
       </c>
       <c r="C62">
-        <v>0.1663</v>
+        <v>0.1662</v>
       </c>
       <c r="D62">
-        <v>0.3407</v>
+        <v>0.3394</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.5135</v>
+        <v>0.5121</v>
       </c>
       <c r="C63">
-        <v>0.1672</v>
+        <v>0.1671</v>
       </c>
       <c r="D63">
-        <v>0.3463</v>
+        <v>0.3451</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.5201</v>
+        <v>0.5187</v>
       </c>
       <c r="C64">
-        <v>0.1681</v>
+        <v>0.168</v>
       </c>
       <c r="D64">
-        <v>0.352</v>
+        <v>0.3507</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.5262</v>
+        <v>0.5248</v>
       </c>
       <c r="C65">
-        <v>0.1689</v>
+        <v>0.1688</v>
       </c>
       <c r="D65">
-        <v>0.3573</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.5324</v>
+        <v>0.5311</v>
       </c>
       <c r="C66">
-        <v>0.1702</v>
+        <v>0.1701</v>
       </c>
       <c r="D66">
-        <v>0.3622</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.5379</v>
+        <v>0.5365</v>
       </c>
       <c r="C67">
-        <v>0.1713</v>
+        <v>0.1711</v>
       </c>
       <c r="D67">
-        <v>0.3666</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.5427999999999999</v>
+        <v>0.5416</v>
       </c>
       <c r="C68">
-        <v>0.1723</v>
+        <v>0.1722</v>
       </c>
       <c r="D68">
-        <v>0.3705</v>
+        <v>0.3694</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.5468</v>
+        <v>0.5456</v>
       </c>
       <c r="C69">
-        <v>0.1731</v>
+        <v>0.173</v>
       </c>
       <c r="D69">
-        <v>0.3738</v>
+        <v>0.3726</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.5497</v>
+        <v>0.5485</v>
       </c>
       <c r="C70">
-        <v>0.1736</v>
+        <v>0.1735</v>
       </c>
       <c r="D70">
-        <v>0.3761</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.5523</v>
+        <v>0.5511</v>
       </c>
       <c r="C71">
-        <v>0.1741</v>
+        <v>0.174</v>
       </c>
       <c r="D71">
-        <v>0.3782</v>
+        <v>0.3772</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.5537</v>
+        <v>0.5525</v>
       </c>
       <c r="C72">
-        <v>0.174</v>
+        <v>0.1739</v>
       </c>
       <c r="D72">
-        <v>0.3796</v>
+        <v>0.3786</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.5542</v>
+        <v>0.5531</v>
       </c>
       <c r="C73">
-        <v>0.1739</v>
+        <v>0.1738</v>
       </c>
       <c r="D73">
-        <v>0.3803</v>
+        <v>0.3793</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.5542</v>
+        <v>0.5531</v>
       </c>
       <c r="C74">
-        <v>0.1737</v>
+        <v>0.1736</v>
       </c>
       <c r="D74">
-        <v>0.3806</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.5533</v>
+        <v>0.5522</v>
       </c>
       <c r="C75">
-        <v>0.1731</v>
+        <v>0.173</v>
       </c>
       <c r="D75">
-        <v>0.3802</v>
+        <v>0.3792</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.5518</v>
+        <v>0.5507</v>
       </c>
       <c r="C76">
-        <v>0.1727</v>
+        <v>0.1726</v>
       </c>
       <c r="D76">
-        <v>0.3791</v>
+        <v>0.3781</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5493</v>
+        <v>0.5482</v>
       </c>
       <c r="C77">
-        <v>0.1723</v>
+        <v>0.1722</v>
       </c>
       <c r="D77">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.5462</v>
+        <v>0.5452</v>
       </c>
       <c r="C78">
-        <v>0.1722</v>
+        <v>0.1721</v>
       </c>
       <c r="D78">
-        <v>0.374</v>
+        <v>0.3731</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.5421</v>
+        <v>0.5411</v>
       </c>
       <c r="C79">
-        <v>0.1719</v>
+        <v>0.1718</v>
       </c>
       <c r="D79">
-        <v>0.3702</v>
+        <v>0.3693</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.5366</v>
+        <v>0.5356</v>
       </c>
       <c r="C80">
-        <v>0.1706</v>
+        <v>0.1705</v>
       </c>
       <c r="D80">
-        <v>0.366</v>
+        <v>0.3651</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.5306</v>
+        <v>0.5296</v>
       </c>
       <c r="C81">
-        <v>0.1693</v>
+        <v>0.1692</v>
       </c>
       <c r="D81">
-        <v>0.3613</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.5242</v>
+        <v>0.5233</v>
       </c>
       <c r="C82">
-        <v>0.1682</v>
+        <v>0.1681</v>
       </c>
       <c r="D82">
-        <v>0.3561</v>
+        <v>0.3552</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5174</v>
+        <v>0.5165</v>
       </c>
       <c r="C83">
-        <v>0.1669</v>
+        <v>0.1668</v>
       </c>
       <c r="D83">
-        <v>0.3506</v>
+        <v>0.3497</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5097</v>
+        <v>0.5088</v>
       </c>
       <c r="C84">
-        <v>0.1655</v>
+        <v>0.1654</v>
       </c>
       <c r="D84">
-        <v>0.3442</v>
+        <v>0.3434</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5021</v>
+        <v>0.5012</v>
       </c>
       <c r="C85">
-        <v>0.1643</v>
+        <v>0.1642</v>
       </c>
       <c r="D85">
-        <v>0.3379</v>
+        <v>0.3371</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.4942</v>
+        <v>0.4933</v>
       </c>
       <c r="C86">
-        <v>0.1628</v>
+        <v>0.1627</v>
       </c>
       <c r="D86">
-        <v>0.3314</v>
+        <v>0.3306</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.4868</v>
+        <v>0.4859</v>
       </c>
       <c r="C87">
-        <v>0.1619</v>
+        <v>0.1618</v>
       </c>
       <c r="D87">
-        <v>0.3249</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.479</v>
+        <v>0.4781</v>
       </c>
       <c r="C88">
         <v>0.1609</v>
       </c>
       <c r="D88">
-        <v>0.3181</v>
+        <v>0.3173</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4718</v>
+        <v>0.4708</v>
       </c>
       <c r="C89">
-        <v>0.1603</v>
+        <v>0.1602</v>
       </c>
       <c r="D89">
-        <v>0.3114</v>
+        <v>0.3106</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.465</v>
+        <v>0.4641</v>
       </c>
       <c r="C90">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D90">
-        <v>0.3048</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4581</v>
+        <v>0.4571</v>
       </c>
       <c r="C91">
-        <v>0.1601</v>
+        <v>0.16</v>
       </c>
       <c r="D91">
-        <v>0.298</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.4511</v>
+        <v>0.4501</v>
       </c>
       <c r="C92">
-        <v>0.16</v>
+        <v>0.1599</v>
       </c>
       <c r="D92">
-        <v>0.2911</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4448</v>
+        <v>0.4437</v>
       </c>
       <c r="C93">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D93">
-        <v>0.2846</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4385</v>
+        <v>0.4375</v>
       </c>
       <c r="C94">
-        <v>0.1608</v>
+        <v>0.1607</v>
       </c>
       <c r="D94">
-        <v>0.2777</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.433</v>
+        <v>0.4319</v>
       </c>
       <c r="C95">
-        <v>0.1616</v>
+        <v>0.1615</v>
       </c>
       <c r="D95">
-        <v>0.2714</v>
+        <v>0.2704</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4278</v>
+        <v>0.4267</v>
       </c>
       <c r="C96">
-        <v>0.1624</v>
+        <v>0.1623</v>
       </c>
       <c r="D96">
-        <v>0.2654</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4229</v>
+        <v>0.4217</v>
       </c>
       <c r="C97">
-        <v>0.1632</v>
+        <v>0.1631</v>
       </c>
       <c r="D97">
-        <v>0.2597</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.418</v>
+        <v>0.4168</v>
       </c>
       <c r="C98">
-        <v>0.1639</v>
+        <v>0.1638</v>
       </c>
       <c r="D98">
-        <v>0.2541</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4144</v>
+        <v>0.4132</v>
       </c>
       <c r="C99">
-        <v>0.1654</v>
+        <v>0.1653</v>
       </c>
       <c r="D99">
-        <v>0.249</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4106</v>
+        <v>0.4094</v>
       </c>
       <c r="C100">
-        <v>0.1667</v>
+        <v>0.1666</v>
       </c>
       <c r="D100">
-        <v>0.244</v>
+        <v>0.2428</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4073</v>
+        <v>0.406</v>
       </c>
       <c r="C101">
         <v>0.1678</v>
       </c>
       <c r="D101">
-        <v>0.2395</v>
+        <v>0.2382</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4042</v>
+        <v>0.4028</v>
       </c>
       <c r="C102">
-        <v>0.169</v>
+        <v>0.1689</v>
       </c>
       <c r="D102">
-        <v>0.2351</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4016</v>
+        <v>0.4002</v>
       </c>
       <c r="C103">
-        <v>0.1707</v>
+        <v>0.1706</v>
       </c>
       <c r="D103">
-        <v>0.2309</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4</v>
+        <v>0.3986</v>
       </c>
       <c r="C104">
-        <v>0.1725</v>
+        <v>0.1724</v>
       </c>
       <c r="D104">
-        <v>0.2276</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3984</v>
+        <v>0.3969</v>
       </c>
       <c r="C105">
-        <v>0.1738</v>
+        <v>0.1737</v>
       </c>
       <c r="D105">
-        <v>0.2247</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3967</v>
+        <v>0.3951</v>
       </c>
       <c r="C106">
-        <v>0.1748</v>
+        <v>0.1747</v>
       </c>
       <c r="D106">
-        <v>0.2218</v>
+        <v>0.2203</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3948</v>
+        <v>0.3932</v>
       </c>
       <c r="C107">
-        <v>0.1755</v>
+        <v>0.1754</v>
       </c>
       <c r="D107">
-        <v>0.2193</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3934</v>
+        <v>0.3918</v>
       </c>
       <c r="C108">
-        <v>0.1766</v>
+        <v>0.1765</v>
       </c>
       <c r="D108">
-        <v>0.2168</v>
+        <v>0.2153</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.392</v>
+        <v>0.3903</v>
       </c>
       <c r="C109">
-        <v>0.1778</v>
+        <v>0.1776</v>
       </c>
       <c r="D109">
-        <v>0.2142</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3898</v>
+        <v>0.3882</v>
       </c>
       <c r="C110">
-        <v>0.1783</v>
+        <v>0.1782</v>
       </c>
       <c r="D110">
-        <v>0.2115</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.387</v>
+        <v>0.3853</v>
       </c>
       <c r="C111">
-        <v>0.1783</v>
+        <v>0.1782</v>
       </c>
       <c r="D111">
-        <v>0.2087</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3833</v>
+        <v>0.3816</v>
       </c>
       <c r="C112">
-        <v>0.1779</v>
+        <v>0.1778</v>
       </c>
       <c r="D112">
-        <v>0.2054</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.383</v>
+        <v>0.3813</v>
       </c>
       <c r="C113">
-        <v>0.177</v>
+        <v>0.1769</v>
       </c>
       <c r="D113">
-        <v>0.206</v>
+        <v>0.2043</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3821</v>
+        <v>0.3803</v>
       </c>
       <c r="C114">
-        <v>0.1763</v>
+        <v>0.1761</v>
       </c>
       <c r="D114">
-        <v>0.2059</v>
+        <v>0.2042</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3807</v>
+        <v>0.3789</v>
       </c>
       <c r="C115">
-        <v>0.1756</v>
+        <v>0.1754</v>
       </c>
       <c r="D115">
-        <v>0.2051</v>
+        <v>0.2035</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3789</v>
+        <v>0.3771</v>
       </c>
       <c r="C116">
-        <v>0.1748</v>
+        <v>0.1747</v>
       </c>
       <c r="D116">
-        <v>0.204</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3763</v>
+        <v>0.3746</v>
       </c>
       <c r="C117">
-        <v>0.1737</v>
+        <v>0.1735</v>
       </c>
       <c r="D117">
-        <v>0.2027</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3738</v>
+        <v>0.3721</v>
       </c>
       <c r="C118">
-        <v>0.1726</v>
+        <v>0.1725</v>
       </c>
       <c r="D118">
-        <v>0.2011</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3707</v>
+        <v>0.3691</v>
       </c>
       <c r="C119">
-        <v>0.1714</v>
+        <v>0.1713</v>
       </c>
       <c r="D119">
-        <v>0.1993</v>
+        <v>0.1978</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3685</v>
+        <v>0.3669</v>
       </c>
       <c r="C120">
-        <v>0.1712</v>
+        <v>0.1711</v>
       </c>
       <c r="D120">
-        <v>0.1973</v>
+        <v>0.1959</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3665</v>
+        <v>0.3651</v>
       </c>
       <c r="C121">
-        <v>0.1714</v>
+        <v>0.1713</v>
       </c>
       <c r="D121">
-        <v>0.1951</v>
+        <v>0.1938</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3642</v>
+        <v>0.3628</v>
       </c>
       <c r="C122">
-        <v>0.1713</v>
+        <v>0.1712</v>
       </c>
       <c r="D122">
-        <v>0.1929</v>
+        <v>0.1916</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3616</v>
+        <v>0.3603</v>
       </c>
       <c r="C123">
-        <v>0.1712</v>
+        <v>0.1711</v>
       </c>
       <c r="D123">
-        <v>0.1904</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3581</v>
+        <v>0.3569</v>
       </c>
       <c r="C124">
-        <v>0.1709</v>
+        <v>0.1708</v>
       </c>
       <c r="D124">
-        <v>0.1872</v>
+        <v>0.1861</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3546</v>
+        <v>0.3536</v>
       </c>
       <c r="C125">
-        <v>0.1709</v>
+        <v>0.1708</v>
       </c>
       <c r="D125">
-        <v>0.1837</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3513</v>
+        <v>0.3504</v>
       </c>
       <c r="C126">
-        <v>0.1709</v>
+        <v>0.1708</v>
       </c>
       <c r="D126">
-        <v>0.1804</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3478</v>
+        <v>0.347</v>
       </c>
       <c r="C127">
-        <v>0.1709</v>
+        <v>0.1708</v>
       </c>
       <c r="D127">
-        <v>0.177</v>
+        <v>0.1762</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3437</v>
+        <v>0.3429</v>
       </c>
       <c r="C128">
-        <v>0.17</v>
+        <v>0.1699</v>
       </c>
       <c r="D128">
-        <v>0.1737</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3392</v>
+        <v>0.3385</v>
       </c>
       <c r="C129">
-        <v>0.1686</v>
+        <v>0.1685</v>
       </c>
       <c r="D129">
-        <v>0.1706</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.335</v>
+        <v>0.3344</v>
       </c>
       <c r="C130">
-        <v>0.1674</v>
+        <v>0.1673</v>
       </c>
       <c r="D130">
-        <v>0.1676</v>
+        <v>0.1671</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3317</v>
+        <v>0.3312</v>
       </c>
       <c r="C131">
-        <v>0.1669</v>
+        <v>0.1668</v>
       </c>
       <c r="D131">
-        <v>0.1649</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3294</v>
+        <v>0.3289</v>
       </c>
       <c r="C132">
         <v>0.1664</v>
       </c>
       <c r="D132">
-        <v>0.1629</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3232</v>
+        <v>0.3229</v>
       </c>
       <c r="C133">
         <v>0.166</v>
       </c>
       <c r="D133">
-        <v>0.1572</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3174</v>
+        <v>0.3172</v>
       </c>
       <c r="C134">
-        <v>0.1653</v>
+        <v>0.1652</v>
       </c>
       <c r="D134">
-        <v>0.1521</v>
+        <v>0.1519</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3124</v>
+        <v>0.3122</v>
       </c>
       <c r="C135">
         <v>0.1646</v>
       </c>
       <c r="D135">
-        <v>0.1478</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3079</v>
+        <v>0.3077</v>
       </c>
       <c r="C136">
         <v>0.1639</v>
       </c>
       <c r="D136">
-        <v>0.144</v>
+        <v>0.1438</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3045</v>
+        <v>0.3044</v>
       </c>
       <c r="C137">
         <v>0.1638</v>
       </c>
       <c r="D137">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3062,7 +3062,7 @@
         <v>0.1631</v>
       </c>
       <c r="D138">
-        <v>0.1378</v>
+        <v>0.1377</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2978</v>
+        <v>0.2977</v>
       </c>
       <c r="C139">
         <v>0.1622</v>
       </c>
       <c r="D139">
-        <v>0.1356</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2942</v>
+        <v>0.2941</v>
       </c>
       <c r="C140">
         <v>0.1605</v>
       </c>
       <c r="D140">
-        <v>0.1337</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2912</v>
+        <v>0.291</v>
       </c>
       <c r="C141">
         <v>0.1585</v>
       </c>
       <c r="D141">
-        <v>0.1327</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2884</v>
+        <v>0.2882</v>
       </c>
       <c r="C142">
         <v>0.1564</v>
       </c>
       <c r="D142">
-        <v>0.132</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2862</v>
+        <v>0.2859</v>
       </c>
       <c r="C143">
-        <v>0.1546</v>
+        <v>0.1545</v>
       </c>
       <c r="D143">
-        <v>0.1316</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2848</v>
+        <v>0.2845</v>
       </c>
       <c r="C144">
         <v>0.1534</v>
       </c>
       <c r="D144">
-        <v>0.1314</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2834</v>
+        <v>0.2831</v>
       </c>
       <c r="C145">
         <v>0.1522</v>
       </c>
       <c r="D145">
-        <v>0.1312</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.282</v>
+        <v>0.2816</v>
       </c>
       <c r="C146">
         <v>0.1509</v>
       </c>
       <c r="D146">
-        <v>0.1311</v>
+        <v>0.1307</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2809</v>
+        <v>0.2805</v>
       </c>
       <c r="C147">
-        <v>0.1498</v>
+        <v>0.1497</v>
       </c>
       <c r="D147">
-        <v>0.1312</v>
+        <v>0.1307</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2811</v>
+        <v>0.2806</v>
       </c>
       <c r="C148">
-        <v>0.1495</v>
+        <v>0.1494</v>
       </c>
       <c r="D148">
-        <v>0.1316</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2823</v>
+        <v>0.2818</v>
       </c>
       <c r="C149">
-        <v>0.1496</v>
+        <v>0.1495</v>
       </c>
       <c r="D149">
-        <v>0.1328</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2846</v>
+        <v>0.284</v>
       </c>
       <c r="C150">
-        <v>0.1504</v>
+        <v>0.1503</v>
       </c>
       <c r="D150">
-        <v>0.1342</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2886</v>
+        <v>0.2879</v>
       </c>
       <c r="C151">
-        <v>0.1521</v>
+        <v>0.152</v>
       </c>
       <c r="D151">
-        <v>0.1365</v>
+        <v>0.1359</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2933</v>
+        <v>0.2925</v>
       </c>
       <c r="C152">
         <v>0.1544</v>
       </c>
       <c r="D152">
-        <v>0.1388</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2984</v>
+        <v>0.2976</v>
       </c>
       <c r="C153">
         <v>0.1572</v>
       </c>
       <c r="D153">
-        <v>0.1412</v>
+        <v>0.1405</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3032</v>
+        <v>0.3023</v>
       </c>
       <c r="C154">
-        <v>0.1595</v>
+        <v>0.1594</v>
       </c>
       <c r="D154">
-        <v>0.1437</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3079</v>
+        <v>0.307</v>
       </c>
       <c r="C155">
-        <v>0.1618</v>
+        <v>0.1617</v>
       </c>
       <c r="D155">
-        <v>0.1461</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3124</v>
+        <v>0.3114</v>
       </c>
       <c r="C156">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D156">
-        <v>0.1486</v>
+        <v>0.1477</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3165</v>
+        <v>0.3155</v>
       </c>
       <c r="C157">
-        <v>0.1658</v>
+        <v>0.1657</v>
       </c>
       <c r="D157">
-        <v>0.1507</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3211</v>
+        <v>0.3201</v>
       </c>
       <c r="C158">
-        <v>0.1683</v>
+        <v>0.1682</v>
       </c>
       <c r="D158">
-        <v>0.1529</v>
+        <v>0.1519</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3265</v>
+        <v>0.3254</v>
       </c>
       <c r="C159">
-        <v>0.1715</v>
+        <v>0.1714</v>
       </c>
       <c r="D159">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3314</v>
+        <v>0.3303</v>
       </c>
       <c r="C160">
-        <v>0.1745</v>
+        <v>0.1744</v>
       </c>
       <c r="D160">
-        <v>0.1569</v>
+        <v>0.1559</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3358</v>
+        <v>0.3348</v>
       </c>
       <c r="C161">
-        <v>0.1781</v>
+        <v>0.178</v>
       </c>
       <c r="D161">
-        <v>0.1578</v>
+        <v>0.1568</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3402</v>
+        <v>0.3392</v>
       </c>
       <c r="C162">
-        <v>0.1816</v>
+        <v>0.1815</v>
       </c>
       <c r="D162">
-        <v>0.1587</v>
+        <v>0.1577</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="C163">
-        <v>0.1847</v>
+        <v>0.1846</v>
       </c>
       <c r="D163">
-        <v>0.1594</v>
+        <v>0.1584</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="C164">
-        <v>0.1869</v>
+        <v>0.1868</v>
       </c>
       <c r="D164">
-        <v>0.1601</v>
+        <v>0.1592</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3504</v>
+        <v>0.3494</v>
       </c>
       <c r="C165">
-        <v>0.1895</v>
+        <v>0.1894</v>
       </c>
       <c r="D165">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3548</v>
+        <v>0.3538</v>
       </c>
       <c r="C166">
-        <v>0.193</v>
+        <v>0.1929</v>
       </c>
       <c r="D166">
-        <v>0.1619</v>
+        <v>0.1609</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3595</v>
+        <v>0.3585</v>
       </c>
       <c r="C167">
-        <v>0.1968</v>
+        <v>0.1967</v>
       </c>
       <c r="D167">
-        <v>0.1627</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3633</v>
+        <v>0.3622</v>
       </c>
       <c r="C168">
-        <v>0.2</v>
+        <v>0.1999</v>
       </c>
       <c r="D168">
-        <v>0.1633</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3657</v>
+        <v>0.3646</v>
       </c>
       <c r="C169">
-        <v>0.2024</v>
+        <v>0.2023</v>
       </c>
       <c r="D169">
-        <v>0.1633</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3679</v>
+        <v>0.3669</v>
       </c>
       <c r="C170">
-        <v>0.2042</v>
+        <v>0.2041</v>
       </c>
       <c r="D170">
-        <v>0.1638</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3693</v>
+        <v>0.3682</v>
       </c>
       <c r="C171">
-        <v>0.2055</v>
+        <v>0.2054</v>
       </c>
       <c r="D171">
-        <v>0.1638</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3703</v>
+        <v>0.3693</v>
       </c>
       <c r="C172">
-        <v>0.2063</v>
+        <v>0.2062</v>
       </c>
       <c r="D172">
-        <v>0.164</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3724</v>
+        <v>0.3713</v>
       </c>
       <c r="C173">
-        <v>0.2067</v>
+        <v>0.2066</v>
       </c>
       <c r="D173">
-        <v>0.1657</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3753</v>
+        <v>0.3741</v>
       </c>
       <c r="C174">
-        <v>0.2076</v>
+        <v>0.2075</v>
       </c>
       <c r="D174">
-        <v>0.1677</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3776</v>
+        <v>0.3765</v>
       </c>
       <c r="C175">
-        <v>0.208</v>
+        <v>0.2079</v>
       </c>
       <c r="D175">
-        <v>0.1696</v>
+        <v>0.1686</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3808</v>
+        <v>0.3796</v>
       </c>
       <c r="C176">
-        <v>0.2089</v>
+        <v>0.2088</v>
       </c>
       <c r="D176">
-        <v>0.1719</v>
+        <v>0.1708</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3844</v>
+        <v>0.3833</v>
       </c>
       <c r="C177">
-        <v>0.2101</v>
+        <v>0.2099</v>
       </c>
       <c r="D177">
-        <v>0.1744</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3893</v>
+        <v>0.3881</v>
       </c>
       <c r="C178">
-        <v>0.2115</v>
+        <v>0.2114</v>
       </c>
       <c r="D178">
-        <v>0.1778</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3933</v>
+        <v>0.392</v>
       </c>
       <c r="C179">
-        <v>0.2123</v>
+        <v>0.2122</v>
       </c>
       <c r="D179">
-        <v>0.1809</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.398</v>
+        <v>0.3968</v>
       </c>
       <c r="C180">
-        <v>0.2133</v>
+        <v>0.2132</v>
       </c>
       <c r="D180">
-        <v>0.1847</v>
+        <v>0.1836</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4029</v>
+        <v>0.4016</v>
       </c>
       <c r="C181">
-        <v>0.2143</v>
+        <v>0.2142</v>
       </c>
       <c r="D181">
-        <v>0.1886</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4082</v>
+        <v>0.407</v>
       </c>
       <c r="C182">
-        <v>0.2152</v>
+        <v>0.2151</v>
       </c>
       <c r="D182">
-        <v>0.1931</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.413</v>
+        <v>0.4117</v>
       </c>
       <c r="C183">
-        <v>0.2152</v>
+        <v>0.2151</v>
       </c>
       <c r="D183">
-        <v>0.1977</v>
+        <v>0.1965</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4179</v>
+        <v>0.4166</v>
       </c>
       <c r="C184">
-        <v>0.2156</v>
+        <v>0.2155</v>
       </c>
       <c r="D184">
-        <v>0.2023</v>
+        <v>0.2012</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4224</v>
+        <v>0.4211</v>
       </c>
       <c r="C185">
-        <v>0.2155</v>
+        <v>0.2153</v>
       </c>
       <c r="D185">
-        <v>0.207</v>
+        <v>0.2058</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4262</v>
+        <v>0.4249</v>
       </c>
       <c r="C186">
-        <v>0.2145</v>
+        <v>0.2143</v>
       </c>
       <c r="D186">
-        <v>0.2117</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4297</v>
+        <v>0.4284</v>
       </c>
       <c r="C187">
-        <v>0.2131</v>
+        <v>0.213</v>
       </c>
       <c r="D187">
-        <v>0.2165</v>
+        <v>0.2154</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4329</v>
+        <v>0.4316</v>
       </c>
       <c r="C188">
-        <v>0.2114</v>
+        <v>0.2113</v>
       </c>
       <c r="D188">
-        <v>0.2215</v>
+        <v>0.2203</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4376</v>
+        <v>0.4363</v>
       </c>
       <c r="C189">
-        <v>0.2106</v>
+        <v>0.2105</v>
       </c>
       <c r="D189">
-        <v>0.2269</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4418</v>
+        <v>0.4405</v>
       </c>
       <c r="C190">
-        <v>0.2096</v>
+        <v>0.2094</v>
       </c>
       <c r="D190">
-        <v>0.2322</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4462</v>
+        <v>0.4449</v>
       </c>
       <c r="C191">
-        <v>0.2086</v>
+        <v>0.2085</v>
       </c>
       <c r="D191">
-        <v>0.2376</v>
+        <v>0.2365</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.45</v>
+        <v>0.4488</v>
       </c>
       <c r="C192">
-        <v>0.2074</v>
+        <v>0.2073</v>
       </c>
       <c r="D192">
-        <v>0.2425</v>
+        <v>0.2415</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4526</v>
+        <v>0.4514</v>
       </c>
       <c r="C193">
-        <v>0.2065</v>
+        <v>0.2064</v>
       </c>
       <c r="D193">
-        <v>0.246</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4555</v>
+        <v>0.4544</v>
       </c>
       <c r="C194">
-        <v>0.206</v>
+        <v>0.2059</v>
       </c>
       <c r="D194">
-        <v>0.2495</v>
+        <v>0.2485</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4584</v>
+        <v>0.4574</v>
       </c>
       <c r="C195">
-        <v>0.2057</v>
+        <v>0.2056</v>
       </c>
       <c r="D195">
-        <v>0.2527</v>
+        <v>0.2518</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4605</v>
+        <v>0.4595</v>
       </c>
       <c r="C196">
-        <v>0.2046</v>
+        <v>0.2045</v>
       </c>
       <c r="D196">
-        <v>0.2559</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4632</v>
+        <v>0.4622</v>
       </c>
       <c r="C197">
-        <v>0.2038</v>
+        <v>0.2037</v>
       </c>
       <c r="D197">
-        <v>0.2594</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4643</v>
+        <v>0.4633</v>
       </c>
       <c r="C198">
-        <v>0.2024</v>
+        <v>0.2023</v>
       </c>
       <c r="D198">
-        <v>0.2619</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="C199">
-        <v>0.2006</v>
+        <v>0.2005</v>
       </c>
       <c r="D199">
-        <v>0.2644</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4645</v>
+        <v>0.4636</v>
       </c>
       <c r="C200">
-        <v>0.1984</v>
+        <v>0.1983</v>
       </c>
       <c r="D200">
-        <v>0.2661</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4652</v>
+        <v>0.4642</v>
       </c>
       <c r="C201">
-        <v>0.1962</v>
+        <v>0.196</v>
       </c>
       <c r="D201">
-        <v>0.269</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4656</v>
+        <v>0.4646</v>
       </c>
       <c r="C202">
-        <v>0.1945</v>
+        <v>0.1944</v>
       </c>
       <c r="D202">
-        <v>0.2711</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4696</v>
+        <v>0.4686</v>
       </c>
       <c r="C203">
-        <v>0.1955</v>
+        <v>0.1953</v>
       </c>
       <c r="D203">
-        <v>0.2742</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="C204">
-        <v>0.1968</v>
+        <v>0.1967</v>
       </c>
       <c r="D204">
-        <v>0.2772</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4782</v>
+        <v>0.4771</v>
       </c>
       <c r="C205">
-        <v>0.1975</v>
+        <v>0.1973</v>
       </c>
       <c r="D205">
-        <v>0.2807</v>
+        <v>0.2798</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4825</v>
+        <v>0.4814</v>
       </c>
       <c r="C206">
-        <v>0.1983</v>
+        <v>0.1982</v>
       </c>
       <c r="D206">
-        <v>0.2841</v>
+        <v>0.2832</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4863</v>
+        <v>0.4851</v>
       </c>
       <c r="C207">
-        <v>0.1991</v>
+        <v>0.199</v>
       </c>
       <c r="D207">
-        <v>0.2871</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4907</v>
+        <v>0.4895</v>
       </c>
       <c r="C208">
-        <v>0.2004</v>
+        <v>0.2002</v>
       </c>
       <c r="D208">
-        <v>0.2903</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4947</v>
+        <v>0.4935</v>
       </c>
       <c r="C209">
-        <v>0.2016</v>
+        <v>0.2014</v>
       </c>
       <c r="D209">
-        <v>0.2931</v>
+        <v>0.2921</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4993</v>
+        <v>0.4981</v>
       </c>
       <c r="C210">
-        <v>0.2036</v>
+        <v>0.2035</v>
       </c>
       <c r="D210">
-        <v>0.2957</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.5023</v>
+        <v>0.5011</v>
       </c>
       <c r="C211">
-        <v>0.2049</v>
+        <v>0.2047</v>
       </c>
       <c r="D211">
-        <v>0.2974</v>
+        <v>0.2964</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.5056</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="C212">
-        <v>0.2065</v>
+        <v>0.2064</v>
       </c>
       <c r="D212">
-        <v>0.299</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.5085</v>
+        <v>0.5074</v>
       </c>
       <c r="C213">
-        <v>0.2079</v>
+        <v>0.2077</v>
       </c>
       <c r="D213">
-        <v>0.3006</v>
+        <v>0.2996</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.5103</v>
+        <v>0.5093</v>
       </c>
       <c r="C214">
-        <v>0.2086</v>
+        <v>0.2085</v>
       </c>
       <c r="D214">
-        <v>0.3017</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.5124</v>
+        <v>0.5114</v>
       </c>
       <c r="C215">
-        <v>0.2097</v>
+        <v>0.2096</v>
       </c>
       <c r="D215">
-        <v>0.3026</v>
+        <v>0.3017</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.5158</v>
+        <v>0.5149</v>
       </c>
       <c r="C216">
-        <v>0.2127</v>
+        <v>0.2126</v>
       </c>
       <c r="D216">
-        <v>0.3031</v>
+        <v>0.3023</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.5207000000000001</v>
+        <v>0.5198</v>
       </c>
       <c r="C217">
-        <v>0.2168</v>
+        <v>0.2167</v>
       </c>
       <c r="D217">
-        <v>0.3039</v>
+        <v>0.3031</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.5276999999999999</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="C218">
-        <v>0.221</v>
+        <v>0.2209</v>
       </c>
       <c r="D218">
-        <v>0.3067</v>
+        <v>0.3059</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.537</v>
+        <v>0.536</v>
       </c>
       <c r="C219">
-        <v>0.2256</v>
+        <v>0.2255</v>
       </c>
       <c r="D219">
-        <v>0.3114</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.5538999999999999</v>
+        <v>0.5528</v>
       </c>
       <c r="C220">
-        <v>0.2331</v>
+        <v>0.2329</v>
       </c>
       <c r="D220">
-        <v>0.3209</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="C221">
-        <v>0.2395</v>
+        <v>0.2393</v>
       </c>
       <c r="D221">
-        <v>0.3278</v>
+        <v>0.3269</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.5796</v>
+        <v>0.5786</v>
       </c>
       <c r="C222">
-        <v>0.2458</v>
+        <v>0.2457</v>
       </c>
       <c r="D222">
-        <v>0.3338</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.5878</v>
+        <v>0.5869</v>
       </c>
       <c r="C223">
-        <v>0.2497</v>
+        <v>0.2496</v>
       </c>
       <c r="D223">
-        <v>0.338</v>
+        <v>0.3373</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.594</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C224">
-        <v>0.2527</v>
+        <v>0.2525</v>
       </c>
       <c r="D224">
-        <v>0.3413</v>
+        <v>0.3407</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.5991</v>
+        <v>0.5985</v>
       </c>
       <c r="C225">
-        <v>0.256</v>
+        <v>0.2559</v>
       </c>
       <c r="D225">
-        <v>0.3431</v>
+        <v>0.3426</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.6029</v>
+        <v>0.6025</v>
       </c>
       <c r="C226">
-        <v>0.259</v>
+        <v>0.2588</v>
       </c>
       <c r="D226">
-        <v>0.3439</v>
+        <v>0.3437</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.6056</v>
+        <v>0.6054</v>
       </c>
       <c r="C227">
-        <v>0.2616</v>
+        <v>0.2614</v>
       </c>
       <c r="D227">
-        <v>0.3441</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4319,10 +4319,10 @@
         <v>0.608</v>
       </c>
       <c r="C228">
-        <v>0.2651</v>
+        <v>0.2649</v>
       </c>
       <c r="D228">
-        <v>0.3429</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.6087</v>
+        <v>0.6088</v>
       </c>
       <c r="C229">
-        <v>0.2681</v>
+        <v>0.268</v>
       </c>
       <c r="D229">
-        <v>0.3405</v>
+        <v>0.3409</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.6066</v>
+        <v>0.607</v>
       </c>
       <c r="C230">
-        <v>0.2696</v>
+        <v>0.2694</v>
       </c>
       <c r="D230">
-        <v>0.337</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.6041</v>
+        <v>0.6047</v>
       </c>
       <c r="C231">
-        <v>0.2709</v>
+        <v>0.2707</v>
       </c>
       <c r="D231">
-        <v>0.3332</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.5997</v>
+        <v>0.6005</v>
       </c>
       <c r="C232">
-        <v>0.2711</v>
+        <v>0.2709</v>
       </c>
       <c r="D232">
-        <v>0.3287</v>
+        <v>0.3296</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.5942</v>
+        <v>0.5952</v>
       </c>
       <c r="C233">
-        <v>0.2709</v>
+        <v>0.2708</v>
       </c>
       <c r="D233">
-        <v>0.3233</v>
+        <v>0.3244</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.5904</v>
+        <v>0.5914</v>
       </c>
       <c r="C234">
-        <v>0.2714</v>
+        <v>0.2712</v>
       </c>
       <c r="D234">
-        <v>0.319</v>
+        <v>0.3202</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.5866</v>
+        <v>0.5878</v>
       </c>
       <c r="C235">
-        <v>0.2722</v>
+        <v>0.2721</v>
       </c>
       <c r="D235">
-        <v>0.3144</v>
+        <v>0.3157</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.5805</v>
+        <v>0.5818</v>
       </c>
       <c r="C236">
-        <v>0.2712</v>
+        <v>0.2711</v>
       </c>
       <c r="D236">
-        <v>0.3093</v>
+        <v>0.3107</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,13 +4442,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.571</v>
+        <v>0.5724</v>
       </c>
       <c r="C237">
-        <v>0.2681</v>
+        <v>0.268</v>
       </c>
       <c r="D237">
-        <v>0.3028</v>
+        <v>0.3044</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.5588</v>
+        <v>0.5605</v>
       </c>
       <c r="C238">
-        <v>0.265</v>
+        <v>0.2649</v>
       </c>
       <c r="D238">
-        <v>0.2939</v>
+        <v>0.2956</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,13 +4470,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.5439000000000001</v>
+        <v>0.5458</v>
       </c>
       <c r="C239">
-        <v>0.2613</v>
+        <v>0.2612</v>
       </c>
       <c r="D239">
-        <v>0.2826</v>
+        <v>0.2846</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4484,13 +4484,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.5221</v>
+        <v>0.5242</v>
       </c>
       <c r="C240">
-        <v>0.2556</v>
+        <v>0.2555</v>
       </c>
       <c r="D240">
-        <v>0.2665</v>
+        <v>0.2687</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.5017</v>
+        <v>0.504</v>
       </c>
       <c r="C241">
-        <v>0.2502</v>
+        <v>0.2501</v>
       </c>
       <c r="D241">
-        <v>0.2515</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4826</v>
+        <v>0.485</v>
       </c>
       <c r="C242">
-        <v>0.2442</v>
+        <v>0.2441</v>
       </c>
       <c r="D242">
-        <v>0.2384</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.464</v>
+        <v>0.4665</v>
       </c>
       <c r="C243">
         <v>0.2383</v>
       </c>
       <c r="D243">
-        <v>0.2257</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.446</v>
+        <v>0.4485</v>
       </c>
       <c r="C244">
         <v>0.2326</v>
       </c>
       <c r="D244">
-        <v>0.2134</v>
+        <v>0.2159</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,13 +4554,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4287</v>
+        <v>0.4312</v>
       </c>
       <c r="C245">
-        <v>0.2272</v>
+        <v>0.2273</v>
       </c>
       <c r="D245">
-        <v>0.2014</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.412</v>
+        <v>0.4145</v>
       </c>
       <c r="C246">
-        <v>0.2219</v>
+        <v>0.222</v>
       </c>
       <c r="D246">
-        <v>0.1901</v>
+        <v>0.1925</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3961</v>
+        <v>0.3985</v>
       </c>
       <c r="C247">
         <v>0.2168</v>
       </c>
       <c r="D247">
-        <v>0.1793</v>
+        <v>0.1817</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3797</v>
+        <v>0.3821</v>
       </c>
       <c r="C248">
         <v>0.2105</v>
       </c>
       <c r="D248">
-        <v>0.1692</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3635</v>
+        <v>0.3659</v>
       </c>
       <c r="C249">
         <v>0.2038</v>
       </c>
       <c r="D249">
-        <v>0.1598</v>
+        <v>0.1621</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2019 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2019 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4091</v>
+        <v>0.4096</v>
       </c>
       <c r="C2">
-        <v>0.1914</v>
+        <v>0.1915</v>
       </c>
       <c r="D2">
-        <v>0.2177</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4102</v>
+        <v>0.4108</v>
       </c>
       <c r="C3">
-        <v>0.1905</v>
+        <v>0.1907</v>
       </c>
       <c r="D3">
-        <v>0.2197</v>
+        <v>0.2201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4114</v>
+        <v>0.412</v>
       </c>
       <c r="C4">
-        <v>0.19</v>
+        <v>0.1901</v>
       </c>
       <c r="D4">
-        <v>0.2214</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4138</v>
+        <v>0.4143</v>
       </c>
       <c r="C5">
-        <v>0.1906</v>
+        <v>0.1907</v>
       </c>
       <c r="D5">
-        <v>0.2232</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4152</v>
+        <v>0.4158</v>
       </c>
       <c r="C6">
-        <v>0.1908</v>
+        <v>0.1909</v>
       </c>
       <c r="D6">
-        <v>0.2244</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.4165</v>
+        <v>0.417</v>
       </c>
       <c r="C7">
-        <v>0.191</v>
+        <v>0.1911</v>
       </c>
       <c r="D7">
-        <v>0.2255</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.4174</v>
+        <v>0.4179</v>
       </c>
       <c r="C8">
-        <v>0.191</v>
+        <v>0.1911</v>
       </c>
       <c r="D8">
-        <v>0.2264</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.4177</v>
+        <v>0.4183</v>
       </c>
       <c r="C9">
-        <v>0.191</v>
+        <v>0.1911</v>
       </c>
       <c r="D9">
-        <v>0.2268</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4177</v>
+        <v>0.4182</v>
       </c>
       <c r="C10">
-        <v>0.1909</v>
+        <v>0.191</v>
       </c>
       <c r="D10">
-        <v>0.2268</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4167</v>
+        <v>0.4172</v>
       </c>
       <c r="C11">
-        <v>0.1904</v>
+        <v>0.1905</v>
       </c>
       <c r="D11">
-        <v>0.2263</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4162</v>
+        <v>0.4167</v>
       </c>
       <c r="C12">
-        <v>0.1903</v>
+        <v>0.1904</v>
       </c>
       <c r="D12">
-        <v>0.2259</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.4158</v>
+        <v>0.4163</v>
       </c>
       <c r="C13">
-        <v>0.1902</v>
+        <v>0.1903</v>
       </c>
       <c r="D13">
-        <v>0.2256</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.4155</v>
+        <v>0.4159</v>
       </c>
       <c r="C14">
-        <v>0.1898</v>
+        <v>0.1899</v>
       </c>
       <c r="D14">
-        <v>0.2257</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4154</v>
+        <v>0.4158</v>
       </c>
       <c r="C15">
-        <v>0.1894</v>
+        <v>0.1895</v>
       </c>
       <c r="D15">
-        <v>0.226</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4157</v>
+        <v>0.4161</v>
       </c>
       <c r="C16">
-        <v>0.1889</v>
+        <v>0.189</v>
       </c>
       <c r="D16">
-        <v>0.2269</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4158</v>
+        <v>0.4163</v>
       </c>
       <c r="C17">
-        <v>0.1878</v>
+        <v>0.1879</v>
       </c>
       <c r="D17">
-        <v>0.228</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4163</v>
+        <v>0.4167</v>
       </c>
       <c r="C18">
-        <v>0.1865</v>
+        <v>0.1866</v>
       </c>
       <c r="D18">
-        <v>0.2297</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4173</v>
+        <v>0.4177</v>
       </c>
       <c r="C19">
-        <v>0.1857</v>
+        <v>0.1858</v>
       </c>
       <c r="D19">
-        <v>0.2316</v>
+        <v>0.2319</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4179</v>
+        <v>0.4183</v>
       </c>
       <c r="C20">
-        <v>0.1848</v>
+        <v>0.1849</v>
       </c>
       <c r="D20">
-        <v>0.2331</v>
+        <v>0.2334</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4179</v>
+        <v>0.4183</v>
       </c>
       <c r="C21">
-        <v>0.1837</v>
+        <v>0.1838</v>
       </c>
       <c r="D21">
-        <v>0.2343</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4182</v>
+        <v>0.4185</v>
       </c>
       <c r="C22">
-        <v>0.1828</v>
+        <v>0.1829</v>
       </c>
       <c r="D22">
-        <v>0.2353</v>
+        <v>0.2356</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4142</v>
+        <v>0.4145</v>
       </c>
       <c r="C23">
-        <v>0.1813</v>
+        <v>0.1814</v>
       </c>
       <c r="D23">
-        <v>0.2329</v>
+        <v>0.2331</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4119</v>
+        <v>0.4122</v>
       </c>
       <c r="C24">
-        <v>0.1811</v>
+        <v>0.1812</v>
       </c>
       <c r="D24">
-        <v>0.2308</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4088</v>
+        <v>0.4091</v>
       </c>
       <c r="C25">
-        <v>0.1797</v>
+        <v>0.1798</v>
       </c>
       <c r="D25">
-        <v>0.2291</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.406</v>
+        <v>0.4063</v>
       </c>
       <c r="C26">
-        <v>0.1782</v>
+        <v>0.1783</v>
       </c>
       <c r="D26">
-        <v>0.2278</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4039</v>
+        <v>0.4042</v>
       </c>
       <c r="C27">
-        <v>0.177</v>
+        <v>0.1771</v>
       </c>
       <c r="D27">
-        <v>0.2269</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4017</v>
+        <v>0.402</v>
       </c>
       <c r="C28">
-        <v>0.1754</v>
+        <v>0.1755</v>
       </c>
       <c r="D28">
-        <v>0.2263</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4001</v>
+        <v>0.4004</v>
       </c>
       <c r="C29">
-        <v>0.174</v>
+        <v>0.1741</v>
       </c>
       <c r="D29">
-        <v>0.2261</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3994</v>
+        <v>0.3997</v>
       </c>
       <c r="C30">
-        <v>0.1727</v>
+        <v>0.1728</v>
       </c>
       <c r="D30">
-        <v>0.2267</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3995</v>
+        <v>0.3998</v>
       </c>
       <c r="C31">
-        <v>0.1719</v>
+        <v>0.172</v>
       </c>
       <c r="D31">
-        <v>0.2276</v>
+        <v>0.2278</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3998</v>
+        <v>0.4001</v>
       </c>
       <c r="C32">
-        <v>0.1709</v>
+        <v>0.171</v>
       </c>
       <c r="D32">
-        <v>0.2288</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.4004</v>
+        <v>0.4007</v>
       </c>
       <c r="C33">
-        <v>0.17</v>
+        <v>0.1701</v>
       </c>
       <c r="D33">
-        <v>0.2304</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4014</v>
+        <v>0.4017</v>
       </c>
       <c r="C34">
-        <v>0.1696</v>
+        <v>0.1697</v>
       </c>
       <c r="D34">
-        <v>0.2318</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4028</v>
+        <v>0.4031</v>
       </c>
       <c r="C35">
-        <v>0.1695</v>
+        <v>0.1696</v>
       </c>
       <c r="D35">
-        <v>0.2333</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4043</v>
+        <v>0.4046</v>
       </c>
       <c r="C36">
-        <v>0.1696</v>
+        <v>0.1697</v>
       </c>
       <c r="D36">
-        <v>0.2347</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.406</v>
+        <v>0.4062</v>
       </c>
       <c r="C37">
         <v>0.17</v>
       </c>
       <c r="D37">
-        <v>0.236</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4074</v>
+        <v>0.4077</v>
       </c>
       <c r="C38">
         <v>0.1703</v>
       </c>
       <c r="D38">
-        <v>0.2371</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4083</v>
+        <v>0.4086</v>
       </c>
       <c r="C39">
-        <v>0.1702</v>
+        <v>0.1703</v>
       </c>
       <c r="D39">
-        <v>0.2381</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4095</v>
+        <v>0.4098</v>
       </c>
       <c r="C40">
         <v>0.1701</v>
       </c>
       <c r="D40">
-        <v>0.2395</v>
+        <v>0.2397</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4109</v>
+        <v>0.4111</v>
       </c>
       <c r="C41">
-        <v>0.1697</v>
+        <v>0.1698</v>
       </c>
       <c r="D41">
-        <v>0.2411</v>
+        <v>0.2413</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.413</v>
+        <v>0.4133</v>
       </c>
       <c r="C42">
-        <v>0.1696</v>
+        <v>0.1697</v>
       </c>
       <c r="D42">
-        <v>0.2435</v>
+        <v>0.2437</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4159</v>
+        <v>0.4162</v>
       </c>
       <c r="C43">
-        <v>0.1696</v>
+        <v>0.1697</v>
       </c>
       <c r="D43">
-        <v>0.2463</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4176</v>
+        <v>0.4179</v>
       </c>
       <c r="C44">
-        <v>0.1682</v>
+        <v>0.1683</v>
       </c>
       <c r="D44">
-        <v>0.2494</v>
+        <v>0.2496</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4197</v>
+        <v>0.42</v>
       </c>
       <c r="C45">
         <v>0.1672</v>
       </c>
       <c r="D45">
-        <v>0.2525</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4222</v>
+        <v>0.4225</v>
       </c>
       <c r="C46">
-        <v>0.1664</v>
+        <v>0.1665</v>
       </c>
       <c r="D46">
-        <v>0.2558</v>
+        <v>0.2561</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4249</v>
+        <v>0.4253</v>
       </c>
       <c r="C47">
-        <v>0.1655</v>
+        <v>0.1656</v>
       </c>
       <c r="D47">
-        <v>0.2594</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4284</v>
+        <v>0.4288</v>
       </c>
       <c r="C48">
-        <v>0.1651</v>
+        <v>0.1652</v>
       </c>
       <c r="D48">
-        <v>0.2633</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4321</v>
+        <v>0.4325</v>
       </c>
       <c r="C49">
-        <v>0.1646</v>
+        <v>0.1647</v>
       </c>
       <c r="D49">
-        <v>0.2675</v>
+        <v>0.2678</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4361</v>
+        <v>0.4364</v>
       </c>
       <c r="C50">
-        <v>0.1643</v>
+        <v>0.1644</v>
       </c>
       <c r="D50">
-        <v>0.2718</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4398</v>
+        <v>0.4402</v>
       </c>
       <c r="C51">
-        <v>0.1637</v>
+        <v>0.1638</v>
       </c>
       <c r="D51">
-        <v>0.2761</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4445</v>
+        <v>0.4449</v>
       </c>
       <c r="C52">
         <v>0.1637</v>
       </c>
       <c r="D52">
-        <v>0.2808</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4495</v>
+        <v>0.4498</v>
       </c>
       <c r="C53">
-        <v>0.1636</v>
+        <v>0.1637</v>
       </c>
       <c r="D53">
-        <v>0.2858</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4548</v>
+        <v>0.4552</v>
       </c>
       <c r="C54">
         <v>0.1636</v>
       </c>
       <c r="D54">
-        <v>0.2912</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4604</v>
+        <v>0.4608</v>
       </c>
       <c r="C55">
         <v>0.1637</v>
       </c>
       <c r="D55">
-        <v>0.2968</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.466</v>
+        <v>0.4664</v>
       </c>
       <c r="C56">
         <v>0.1638</v>
       </c>
       <c r="D56">
-        <v>0.3022</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.4719</v>
+        <v>0.4724</v>
       </c>
       <c r="C57">
-        <v>0.1638</v>
+        <v>0.1639</v>
       </c>
       <c r="D57">
-        <v>0.3081</v>
+        <v>0.3085</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.4782</v>
+        <v>0.4786</v>
       </c>
       <c r="C58">
-        <v>0.1638</v>
+        <v>0.1639</v>
       </c>
       <c r="D58">
-        <v>0.3143</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.4843</v>
+        <v>0.4848</v>
       </c>
       <c r="C59">
-        <v>0.1636</v>
+        <v>0.1637</v>
       </c>
       <c r="D59">
-        <v>0.3207</v>
+        <v>0.3211</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.4915</v>
+        <v>0.4919</v>
       </c>
       <c r="C60">
         <v>0.1644</v>
       </c>
       <c r="D60">
-        <v>0.3271</v>
+        <v>0.3275</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.4987</v>
+        <v>0.4991</v>
       </c>
       <c r="C61">
         <v>0.1653</v>
       </c>
       <c r="D61">
-        <v>0.3334</v>
+        <v>0.3338</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.5056</v>
+        <v>0.5061</v>
       </c>
       <c r="C62">
         <v>0.1662</v>
       </c>
       <c r="D62">
-        <v>0.3394</v>
+        <v>0.3399</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.5121</v>
+        <v>0.5125999999999999</v>
       </c>
       <c r="C63">
         <v>0.1671</v>
       </c>
       <c r="D63">
-        <v>0.3451</v>
+        <v>0.3455</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.5187</v>
+        <v>0.5192</v>
       </c>
       <c r="C64">
         <v>0.168</v>
       </c>
       <c r="D64">
-        <v>0.3507</v>
+        <v>0.3512</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.5248</v>
+        <v>0.5253</v>
       </c>
       <c r="C65">
         <v>0.1688</v>
       </c>
       <c r="D65">
-        <v>0.356</v>
+        <v>0.3565</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.5311</v>
+        <v>0.5315</v>
       </c>
       <c r="C66">
         <v>0.1701</v>
       </c>
       <c r="D66">
-        <v>0.361</v>
+        <v>0.3614</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.5365</v>
+        <v>0.537</v>
       </c>
       <c r="C67">
-        <v>0.1711</v>
+        <v>0.1712</v>
       </c>
       <c r="D67">
-        <v>0.3654</v>
+        <v>0.3658</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.5416</v>
+        <v>0.542</v>
       </c>
       <c r="C68">
         <v>0.1722</v>
       </c>
       <c r="D68">
-        <v>0.3694</v>
+        <v>0.3698</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.5456</v>
+        <v>0.546</v>
       </c>
       <c r="C69">
         <v>0.173</v>
       </c>
       <c r="D69">
-        <v>0.3726</v>
+        <v>0.3731</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.5485</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="C70">
         <v>0.1735</v>
       </c>
       <c r="D70">
-        <v>0.375</v>
+        <v>0.3754</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.5511</v>
+        <v>0.5516</v>
       </c>
       <c r="C71">
         <v>0.174</v>
       </c>
       <c r="D71">
-        <v>0.3772</v>
+        <v>0.3776</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.5525</v>
+        <v>0.553</v>
       </c>
       <c r="C72">
-        <v>0.1739</v>
+        <v>0.174</v>
       </c>
       <c r="D72">
-        <v>0.3786</v>
+        <v>0.3791</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.5531</v>
+        <v>0.5535</v>
       </c>
       <c r="C73">
         <v>0.1738</v>
       </c>
       <c r="D73">
-        <v>0.3793</v>
+        <v>0.3797</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.5531</v>
+        <v>0.5536</v>
       </c>
       <c r="C74">
         <v>0.1736</v>
       </c>
       <c r="D74">
-        <v>0.3796</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.5522</v>
+        <v>0.5527</v>
       </c>
       <c r="C75">
-        <v>0.173</v>
+        <v>0.1731</v>
       </c>
       <c r="D75">
-        <v>0.3792</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.5507</v>
+        <v>0.5512</v>
       </c>
       <c r="C76">
         <v>0.1726</v>
       </c>
       <c r="D76">
-        <v>0.3781</v>
+        <v>0.3785</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5482</v>
+        <v>0.5487</v>
       </c>
       <c r="C77">
         <v>0.1722</v>
       </c>
       <c r="D77">
-        <v>0.376</v>
+        <v>0.3764</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.5452</v>
+        <v>0.5456</v>
       </c>
       <c r="C78">
         <v>0.1721</v>
       </c>
       <c r="D78">
-        <v>0.3731</v>
+        <v>0.3735</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.5411</v>
+        <v>0.5415</v>
       </c>
       <c r="C79">
-        <v>0.1718</v>
+        <v>0.1719</v>
       </c>
       <c r="D79">
-        <v>0.3693</v>
+        <v>0.3696</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.5356</v>
+        <v>0.536</v>
       </c>
       <c r="C80">
-        <v>0.1705</v>
+        <v>0.1706</v>
       </c>
       <c r="D80">
-        <v>0.3651</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.5296</v>
+        <v>0.53</v>
       </c>
       <c r="C81">
-        <v>0.1692</v>
+        <v>0.1693</v>
       </c>
       <c r="D81">
-        <v>0.3604</v>
+        <v>0.3608</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.5233</v>
+        <v>0.5237000000000001</v>
       </c>
       <c r="C82">
         <v>0.1681</v>
       </c>
       <c r="D82">
-        <v>0.3552</v>
+        <v>0.3556</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5165</v>
+        <v>0.5169</v>
       </c>
       <c r="C83">
         <v>0.1668</v>
       </c>
       <c r="D83">
-        <v>0.3497</v>
+        <v>0.3501</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5088</v>
+        <v>0.5092</v>
       </c>
       <c r="C84">
-        <v>0.1654</v>
+        <v>0.1655</v>
       </c>
       <c r="D84">
-        <v>0.3434</v>
+        <v>0.3437</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5012</v>
+        <v>0.5016</v>
       </c>
       <c r="C85">
         <v>0.1642</v>
       </c>
       <c r="D85">
-        <v>0.3371</v>
+        <v>0.3374</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.4933</v>
+        <v>0.4936</v>
       </c>
       <c r="C86">
         <v>0.1627</v>
       </c>
       <c r="D86">
-        <v>0.3306</v>
+        <v>0.3309</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.4859</v>
+        <v>0.4862</v>
       </c>
       <c r="C87">
-        <v>0.1618</v>
+        <v>0.1619</v>
       </c>
       <c r="D87">
-        <v>0.324</v>
+        <v>0.3243</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4781</v>
+        <v>0.4785</v>
       </c>
       <c r="C88">
         <v>0.1609</v>
       </c>
       <c r="D88">
-        <v>0.3173</v>
+        <v>0.3175</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4708</v>
+        <v>0.4711</v>
       </c>
       <c r="C89">
-        <v>0.1602</v>
+        <v>0.1603</v>
       </c>
       <c r="D89">
-        <v>0.3106</v>
+        <v>0.3108</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.4641</v>
+        <v>0.4644</v>
       </c>
       <c r="C90">
-        <v>0.1601</v>
+        <v>0.1602</v>
       </c>
       <c r="D90">
-        <v>0.3039</v>
+        <v>0.3042</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4571</v>
+        <v>0.4574</v>
       </c>
       <c r="C91">
         <v>0.16</v>
       </c>
       <c r="D91">
-        <v>0.2971</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.4501</v>
+        <v>0.4504</v>
       </c>
       <c r="C92">
-        <v>0.1599</v>
+        <v>0.16</v>
       </c>
       <c r="D92">
-        <v>0.2902</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4437</v>
+        <v>0.444</v>
       </c>
       <c r="C93">
         <v>0.1601</v>
       </c>
       <c r="D93">
-        <v>0.2836</v>
+        <v>0.2839</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4375</v>
+        <v>0.4378</v>
       </c>
       <c r="C94">
-        <v>0.1607</v>
+        <v>0.1608</v>
       </c>
       <c r="D94">
-        <v>0.2767</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4319</v>
+        <v>0.4322</v>
       </c>
       <c r="C95">
         <v>0.1615</v>
       </c>
       <c r="D95">
-        <v>0.2704</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4267</v>
+        <v>0.427</v>
       </c>
       <c r="C96">
         <v>0.1623</v>
       </c>
       <c r="D96">
-        <v>0.2644</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4217</v>
+        <v>0.422</v>
       </c>
       <c r="C97">
         <v>0.1631</v>
       </c>
       <c r="D97">
-        <v>0.2586</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4168</v>
+        <v>0.4171</v>
       </c>
       <c r="C98">
         <v>0.1638</v>
       </c>
       <c r="D98">
-        <v>0.253</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4132</v>
+        <v>0.4135</v>
       </c>
       <c r="C99">
-        <v>0.1653</v>
+        <v>0.1654</v>
       </c>
       <c r="D99">
-        <v>0.2479</v>
+        <v>0.2481</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4094</v>
+        <v>0.4097</v>
       </c>
       <c r="C100">
         <v>0.1666</v>
       </c>
       <c r="D100">
-        <v>0.2428</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.406</v>
+        <v>0.4063</v>
       </c>
       <c r="C101">
         <v>0.1678</v>
       </c>
       <c r="D101">
-        <v>0.2382</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4028</v>
+        <v>0.4031</v>
       </c>
       <c r="C102">
-        <v>0.1689</v>
+        <v>0.169</v>
       </c>
       <c r="D102">
-        <v>0.2338</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4002</v>
+        <v>0.4005</v>
       </c>
       <c r="C103">
         <v>0.1706</v>
       </c>
       <c r="D103">
-        <v>0.2296</v>
+        <v>0.2298</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3986</v>
+        <v>0.3989</v>
       </c>
       <c r="C104">
         <v>0.1724</v>
       </c>
       <c r="D104">
-        <v>0.2262</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3969</v>
+        <v>0.3972</v>
       </c>
       <c r="C105">
         <v>0.1737</v>
       </c>
       <c r="D105">
-        <v>0.2232</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3951</v>
+        <v>0.3954</v>
       </c>
       <c r="C106">
         <v>0.1747</v>
       </c>
       <c r="D106">
-        <v>0.2203</v>
+        <v>0.2206</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3932</v>
+        <v>0.3935</v>
       </c>
       <c r="C107">
         <v>0.1754</v>
       </c>
       <c r="D107">
-        <v>0.2178</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3918</v>
+        <v>0.3921</v>
       </c>
       <c r="C108">
         <v>0.1765</v>
       </c>
       <c r="D108">
-        <v>0.2153</v>
+        <v>0.2156</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3903</v>
+        <v>0.3906</v>
       </c>
       <c r="C109">
-        <v>0.1776</v>
+        <v>0.1777</v>
       </c>
       <c r="D109">
-        <v>0.2126</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3882</v>
+        <v>0.3885</v>
       </c>
       <c r="C110">
         <v>0.1782</v>
       </c>
       <c r="D110">
-        <v>0.21</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3853</v>
+        <v>0.3857</v>
       </c>
       <c r="C111">
         <v>0.1782</v>
       </c>
       <c r="D111">
-        <v>0.2072</v>
+        <v>0.2075</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3816</v>
+        <v>0.382</v>
       </c>
       <c r="C112">
         <v>0.1778</v>
       </c>
       <c r="D112">
-        <v>0.2039</v>
+        <v>0.2042</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3813</v>
+        <v>0.3816</v>
       </c>
       <c r="C113">
         <v>0.1769</v>
       </c>
       <c r="D113">
-        <v>0.2043</v>
+        <v>0.2047</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3803</v>
+        <v>0.3807</v>
       </c>
       <c r="C114">
         <v>0.1761</v>
       </c>
       <c r="D114">
-        <v>0.2042</v>
+        <v>0.2046</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3789</v>
+        <v>0.3793</v>
       </c>
       <c r="C115">
-        <v>0.1754</v>
+        <v>0.1755</v>
       </c>
       <c r="D115">
-        <v>0.2035</v>
+        <v>0.2038</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3771</v>
+        <v>0.3775</v>
       </c>
       <c r="C116">
         <v>0.1747</v>
       </c>
       <c r="D116">
-        <v>0.2024</v>
+        <v>0.2028</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3746</v>
+        <v>0.375</v>
       </c>
       <c r="C117">
-        <v>0.1735</v>
+        <v>0.1736</v>
       </c>
       <c r="D117">
-        <v>0.2011</v>
+        <v>0.2014</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3721</v>
+        <v>0.3725</v>
       </c>
       <c r="C118">
         <v>0.1725</v>
       </c>
       <c r="D118">
-        <v>0.1996</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3691</v>
+        <v>0.3694</v>
       </c>
       <c r="C119">
         <v>0.1713</v>
       </c>
       <c r="D119">
-        <v>0.1978</v>
+        <v>0.1981</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3669</v>
+        <v>0.3673</v>
       </c>
       <c r="C120">
         <v>0.1711</v>
       </c>
       <c r="D120">
-        <v>0.1959</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3651</v>
+        <v>0.3654</v>
       </c>
       <c r="C121">
         <v>0.1713</v>
       </c>
       <c r="D121">
-        <v>0.1938</v>
+        <v>0.1941</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3628</v>
+        <v>0.3631</v>
       </c>
       <c r="C122">
         <v>0.1712</v>
       </c>
       <c r="D122">
-        <v>0.1916</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3603</v>
+        <v>0.3607</v>
       </c>
       <c r="C123">
         <v>0.1711</v>
       </c>
       <c r="D123">
-        <v>0.1893</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3569</v>
+        <v>0.3572</v>
       </c>
       <c r="C124">
         <v>0.1708</v>
       </c>
       <c r="D124">
-        <v>0.1861</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3536</v>
+        <v>0.3539</v>
       </c>
       <c r="C125">
-        <v>0.1708</v>
+        <v>0.1709</v>
       </c>
       <c r="D125">
-        <v>0.1827</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3504</v>
+        <v>0.3507</v>
       </c>
       <c r="C126">
-        <v>0.1708</v>
+        <v>0.1709</v>
       </c>
       <c r="D126">
-        <v>0.1796</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.347</v>
+        <v>0.3473</v>
       </c>
       <c r="C127">
         <v>0.1708</v>
       </c>
       <c r="D127">
-        <v>0.1762</v>
+        <v>0.1764</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3429</v>
+        <v>0.3432</v>
       </c>
       <c r="C128">
-        <v>0.1699</v>
+        <v>0.17</v>
       </c>
       <c r="D128">
-        <v>0.173</v>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3385</v>
+        <v>0.3388</v>
       </c>
       <c r="C129">
-        <v>0.1685</v>
+        <v>0.1686</v>
       </c>
       <c r="D129">
-        <v>0.17</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3344</v>
+        <v>0.3347</v>
       </c>
       <c r="C130">
+        <v>0.1674</v>
+      </c>
+      <c r="D130">
         <v>0.1673</v>
-      </c>
-      <c r="D130">
-        <v>0.1671</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3312</v>
+        <v>0.3315</v>
       </c>
       <c r="C131">
-        <v>0.1668</v>
+        <v>0.1669</v>
       </c>
       <c r="D131">
-        <v>0.1644</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3289</v>
+        <v>0.3292</v>
       </c>
       <c r="C132">
-        <v>0.1664</v>
+        <v>0.1665</v>
       </c>
       <c r="D132">
-        <v>0.1625</v>
+        <v>0.1627</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3229</v>
+        <v>0.3231</v>
       </c>
       <c r="C133">
-        <v>0.166</v>
+        <v>0.1661</v>
       </c>
       <c r="D133">
-        <v>0.1569</v>
+        <v>0.1571</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3172</v>
+        <v>0.3174</v>
       </c>
       <c r="C134">
-        <v>0.1652</v>
+        <v>0.1653</v>
       </c>
       <c r="D134">
-        <v>0.1519</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3122</v>
+        <v>0.3125</v>
       </c>
       <c r="C135">
-        <v>0.1646</v>
+        <v>0.1647</v>
       </c>
       <c r="D135">
-        <v>0.1476</v>
+        <v>0.1478</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3077</v>
+        <v>0.308</v>
       </c>
       <c r="C136">
-        <v>0.1639</v>
+        <v>0.164</v>
       </c>
       <c r="D136">
-        <v>0.1438</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3044</v>
+        <v>0.3047</v>
       </c>
       <c r="C137">
-        <v>0.1638</v>
+        <v>0.1639</v>
       </c>
       <c r="D137">
-        <v>0.1406</v>
+        <v>0.1408</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3009</v>
+        <v>0.3011</v>
       </c>
       <c r="C138">
-        <v>0.1631</v>
+        <v>0.1632</v>
       </c>
       <c r="D138">
-        <v>0.1377</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2977</v>
+        <v>0.2979</v>
       </c>
       <c r="C139">
-        <v>0.1622</v>
+        <v>0.1623</v>
       </c>
       <c r="D139">
-        <v>0.1355</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2941</v>
+        <v>0.2943</v>
       </c>
       <c r="C140">
-        <v>0.1605</v>
+        <v>0.1606</v>
       </c>
       <c r="D140">
-        <v>0.1336</v>
+        <v>0.1337</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.291</v>
+        <v>0.2913</v>
       </c>
       <c r="C141">
         <v>0.1585</v>
       </c>
       <c r="D141">
-        <v>0.1326</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2882</v>
+        <v>0.2884</v>
       </c>
       <c r="C142">
-        <v>0.1564</v>
+        <v>0.1565</v>
       </c>
       <c r="D142">
-        <v>0.1318</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2859</v>
+        <v>0.2862</v>
       </c>
       <c r="C143">
-        <v>0.1545</v>
+        <v>0.1546</v>
       </c>
       <c r="D143">
-        <v>0.1314</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2845</v>
+        <v>0.2848</v>
       </c>
       <c r="C144">
         <v>0.1534</v>
       </c>
       <c r="D144">
-        <v>0.1312</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2831</v>
+        <v>0.2834</v>
       </c>
       <c r="C145">
-        <v>0.1522</v>
+        <v>0.1523</v>
       </c>
       <c r="D145">
-        <v>0.1309</v>
+        <v>0.1311</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2816</v>
+        <v>0.2819</v>
       </c>
       <c r="C146">
-        <v>0.1509</v>
+        <v>0.151</v>
       </c>
       <c r="D146">
-        <v>0.1307</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2805</v>
+        <v>0.2808</v>
       </c>
       <c r="C147">
-        <v>0.1497</v>
+        <v>0.1498</v>
       </c>
       <c r="D147">
-        <v>0.1307</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2806</v>
+        <v>0.2809</v>
       </c>
       <c r="C148">
-        <v>0.1494</v>
+        <v>0.1495</v>
       </c>
       <c r="D148">
-        <v>0.1312</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2818</v>
+        <v>0.2821</v>
       </c>
       <c r="C149">
-        <v>0.1495</v>
+        <v>0.1496</v>
       </c>
       <c r="D149">
-        <v>0.1323</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.284</v>
+        <v>0.2842</v>
       </c>
       <c r="C150">
-        <v>0.1503</v>
+        <v>0.1504</v>
       </c>
       <c r="D150">
-        <v>0.1336</v>
+        <v>0.1339</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2879</v>
+        <v>0.2882</v>
       </c>
       <c r="C151">
-        <v>0.152</v>
+        <v>0.1521</v>
       </c>
       <c r="D151">
-        <v>0.1359</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2925</v>
+        <v>0.2928</v>
       </c>
       <c r="C152">
         <v>0.1544</v>
       </c>
       <c r="D152">
-        <v>0.1381</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2976</v>
+        <v>0.2979</v>
       </c>
       <c r="C153">
         <v>0.1572</v>
       </c>
       <c r="D153">
-        <v>0.1405</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3023</v>
+        <v>0.3026</v>
       </c>
       <c r="C154">
-        <v>0.1594</v>
+        <v>0.1595</v>
       </c>
       <c r="D154">
-        <v>0.1429</v>
+        <v>0.1431</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.307</v>
+        <v>0.3073</v>
       </c>
       <c r="C155">
         <v>0.1617</v>
       </c>
       <c r="D155">
-        <v>0.1453</v>
+        <v>0.1456</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3114</v>
+        <v>0.3117</v>
       </c>
       <c r="C156">
-        <v>0.1637</v>
+        <v>0.1638</v>
       </c>
       <c r="D156">
-        <v>0.1477</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3155</v>
+        <v>0.3158</v>
       </c>
       <c r="C157">
-        <v>0.1657</v>
+        <v>0.1658</v>
       </c>
       <c r="D157">
-        <v>0.1498</v>
+        <v>0.1501</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3201</v>
+        <v>0.3204</v>
       </c>
       <c r="C158">
         <v>0.1682</v>
       </c>
       <c r="D158">
-        <v>0.1519</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3254</v>
+        <v>0.3257</v>
       </c>
       <c r="C159">
         <v>0.1714</v>
       </c>
       <c r="D159">
-        <v>0.154</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3303</v>
+        <v>0.3306</v>
       </c>
       <c r="C160">
-        <v>0.1744</v>
+        <v>0.1745</v>
       </c>
       <c r="D160">
-        <v>0.1559</v>
+        <v>0.1562</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3348</v>
+        <v>0.3351</v>
       </c>
       <c r="C161">
         <v>0.178</v>
       </c>
       <c r="D161">
-        <v>0.1568</v>
+        <v>0.1571</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3392</v>
+        <v>0.3395</v>
       </c>
       <c r="C162">
         <v>0.1815</v>
       </c>
       <c r="D162">
-        <v>0.1577</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.343</v>
+        <v>0.3433</v>
       </c>
       <c r="C163">
         <v>0.1846</v>
       </c>
       <c r="D163">
-        <v>0.1584</v>
+        <v>0.1587</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.346</v>
+        <v>0.3463</v>
       </c>
       <c r="C164">
-        <v>0.1868</v>
+        <v>0.1869</v>
       </c>
       <c r="D164">
-        <v>0.1592</v>
+        <v>0.1595</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3494</v>
+        <v>0.3497</v>
       </c>
       <c r="C165">
         <v>0.1894</v>
       </c>
       <c r="D165">
-        <v>0.16</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3538</v>
+        <v>0.3541</v>
       </c>
       <c r="C166">
         <v>0.1929</v>
       </c>
       <c r="D166">
-        <v>0.1609</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3585</v>
+        <v>0.3588</v>
       </c>
       <c r="C167">
-        <v>0.1967</v>
+        <v>0.1968</v>
       </c>
       <c r="D167">
-        <v>0.1618</v>
+        <v>0.1621</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3622</v>
+        <v>0.3626</v>
       </c>
       <c r="C168">
-        <v>0.1999</v>
+        <v>0.2</v>
       </c>
       <c r="D168">
-        <v>0.1623</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3646</v>
+        <v>0.365</v>
       </c>
       <c r="C169">
-        <v>0.2023</v>
+        <v>0.2024</v>
       </c>
       <c r="D169">
-        <v>0.1623</v>
+        <v>0.1627</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3669</v>
+        <v>0.3673</v>
       </c>
       <c r="C170">
         <v>0.2041</v>
       </c>
       <c r="D170">
-        <v>0.1628</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3682</v>
+        <v>0.3686</v>
       </c>
       <c r="C171">
         <v>0.2054</v>
       </c>
       <c r="D171">
-        <v>0.1629</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3693</v>
+        <v>0.3697</v>
       </c>
       <c r="C172">
         <v>0.2062</v>
       </c>
       <c r="D172">
-        <v>0.1631</v>
+        <v>0.1634</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3713</v>
+        <v>0.3717</v>
       </c>
       <c r="C173">
-        <v>0.2066</v>
+        <v>0.2067</v>
       </c>
       <c r="D173">
-        <v>0.1647</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3741</v>
+        <v>0.3746</v>
       </c>
       <c r="C174">
-        <v>0.2075</v>
+        <v>0.2076</v>
       </c>
       <c r="D174">
-        <v>0.1667</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3765</v>
+        <v>0.3769</v>
       </c>
       <c r="C175">
-        <v>0.2079</v>
+        <v>0.208</v>
       </c>
       <c r="D175">
-        <v>0.1686</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3796</v>
+        <v>0.3801</v>
       </c>
       <c r="C176">
-        <v>0.2088</v>
+        <v>0.2089</v>
       </c>
       <c r="D176">
-        <v>0.1708</v>
+        <v>0.1712</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3833</v>
+        <v>0.3837</v>
       </c>
       <c r="C177">
-        <v>0.2099</v>
+        <v>0.21</v>
       </c>
       <c r="D177">
-        <v>0.1733</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3881</v>
+        <v>0.3886</v>
       </c>
       <c r="C178">
-        <v>0.2114</v>
+        <v>0.2115</v>
       </c>
       <c r="D178">
-        <v>0.1767</v>
+        <v>0.1771</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.392</v>
+        <v>0.3925</v>
       </c>
       <c r="C179">
-        <v>0.2122</v>
+        <v>0.2123</v>
       </c>
       <c r="D179">
-        <v>0.1798</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3968</v>
+        <v>0.3973</v>
       </c>
       <c r="C180">
-        <v>0.2132</v>
+        <v>0.2133</v>
       </c>
       <c r="D180">
-        <v>0.1836</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4016</v>
+        <v>0.4021</v>
       </c>
       <c r="C181">
-        <v>0.2142</v>
+        <v>0.2143</v>
       </c>
       <c r="D181">
-        <v>0.1875</v>
+        <v>0.1879</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.407</v>
+        <v>0.4075</v>
       </c>
       <c r="C182">
-        <v>0.2151</v>
+        <v>0.2152</v>
       </c>
       <c r="D182">
-        <v>0.1919</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.4117</v>
+        <v>0.4122</v>
       </c>
       <c r="C183">
-        <v>0.2151</v>
+        <v>0.2152</v>
       </c>
       <c r="D183">
-        <v>0.1965</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4166</v>
+        <v>0.4172</v>
       </c>
       <c r="C184">
-        <v>0.2155</v>
+        <v>0.2156</v>
       </c>
       <c r="D184">
-        <v>0.2012</v>
+        <v>0.2016</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4211</v>
+        <v>0.4217</v>
       </c>
       <c r="C185">
-        <v>0.2153</v>
+        <v>0.2154</v>
       </c>
       <c r="D185">
-        <v>0.2058</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4249</v>
+        <v>0.4254</v>
       </c>
       <c r="C186">
-        <v>0.2143</v>
+        <v>0.2144</v>
       </c>
       <c r="D186">
-        <v>0.2106</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4284</v>
+        <v>0.4289</v>
       </c>
       <c r="C187">
-        <v>0.213</v>
+        <v>0.2131</v>
       </c>
       <c r="D187">
-        <v>0.2154</v>
+        <v>0.2158</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4316</v>
+        <v>0.4321</v>
       </c>
       <c r="C188">
-        <v>0.2113</v>
+        <v>0.2114</v>
       </c>
       <c r="D188">
-        <v>0.2203</v>
+        <v>0.2208</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4363</v>
+        <v>0.4368</v>
       </c>
       <c r="C189">
-        <v>0.2105</v>
+        <v>0.2106</v>
       </c>
       <c r="D189">
-        <v>0.2258</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4405</v>
+        <v>0.4411</v>
       </c>
       <c r="C190">
-        <v>0.2094</v>
+        <v>0.2095</v>
       </c>
       <c r="D190">
-        <v>0.2311</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4449</v>
+        <v>0.4454</v>
       </c>
       <c r="C191">
         <v>0.2085</v>
       </c>
       <c r="D191">
-        <v>0.2365</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4488</v>
+        <v>0.4493</v>
       </c>
       <c r="C192">
-        <v>0.2073</v>
+        <v>0.2074</v>
       </c>
       <c r="D192">
-        <v>0.2415</v>
+        <v>0.2419</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4514</v>
+        <v>0.4519</v>
       </c>
       <c r="C193">
-        <v>0.2064</v>
+        <v>0.2065</v>
       </c>
       <c r="D193">
-        <v>0.245</v>
+        <v>0.2454</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4544</v>
+        <v>0.4549</v>
       </c>
       <c r="C194">
-        <v>0.2059</v>
+        <v>0.206</v>
       </c>
       <c r="D194">
-        <v>0.2485</v>
+        <v>0.2489</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4574</v>
+        <v>0.4578</v>
       </c>
       <c r="C195">
         <v>0.2056</v>
       </c>
       <c r="D195">
-        <v>0.2518</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4595</v>
+        <v>0.4599</v>
       </c>
       <c r="C196">
-        <v>0.2045</v>
+        <v>0.2046</v>
       </c>
       <c r="D196">
-        <v>0.255</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4622</v>
+        <v>0.4627</v>
       </c>
       <c r="C197">
-        <v>0.2037</v>
+        <v>0.2038</v>
       </c>
       <c r="D197">
-        <v>0.2585</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4633</v>
+        <v>0.4638</v>
       </c>
       <c r="C198">
-        <v>0.2023</v>
+        <v>0.2024</v>
       </c>
       <c r="D198">
-        <v>0.261</v>
+        <v>0.2614</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.464</v>
+        <v>0.4645</v>
       </c>
       <c r="C199">
         <v>0.2005</v>
       </c>
       <c r="D199">
-        <v>0.2635</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4636</v>
+        <v>0.464</v>
       </c>
       <c r="C200">
         <v>0.1983</v>
       </c>
       <c r="D200">
-        <v>0.2653</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4642</v>
+        <v>0.4646</v>
       </c>
       <c r="C201">
-        <v>0.196</v>
+        <v>0.1961</v>
       </c>
       <c r="D201">
-        <v>0.2681</v>
+        <v>0.2685</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4646</v>
+        <v>0.465</v>
       </c>
       <c r="C202">
         <v>0.1944</v>
       </c>
       <c r="D202">
-        <v>0.2702</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4686</v>
+        <v>0.4691</v>
       </c>
       <c r="C203">
-        <v>0.1953</v>
+        <v>0.1954</v>
       </c>
       <c r="D203">
-        <v>0.2733</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.473</v>
+        <v>0.4734</v>
       </c>
       <c r="C204">
         <v>0.1967</v>
       </c>
       <c r="D204">
-        <v>0.2763</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4771</v>
+        <v>0.4776</v>
       </c>
       <c r="C205">
-        <v>0.1973</v>
+        <v>0.1974</v>
       </c>
       <c r="D205">
-        <v>0.2798</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4814</v>
+        <v>0.4818</v>
       </c>
       <c r="C206">
-        <v>0.1982</v>
+        <v>0.1983</v>
       </c>
       <c r="D206">
-        <v>0.2832</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4851</v>
+        <v>0.4856</v>
       </c>
       <c r="C207">
-        <v>0.199</v>
+        <v>0.1991</v>
       </c>
       <c r="D207">
-        <v>0.2861</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4895</v>
+        <v>0.49</v>
       </c>
       <c r="C208">
-        <v>0.2002</v>
+        <v>0.2003</v>
       </c>
       <c r="D208">
-        <v>0.2893</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4935</v>
+        <v>0.494</v>
       </c>
       <c r="C209">
-        <v>0.2014</v>
+        <v>0.2015</v>
       </c>
       <c r="D209">
-        <v>0.2921</v>
+        <v>0.2925</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4981</v>
+        <v>0.4986</v>
       </c>
       <c r="C210">
         <v>0.2035</v>
       </c>
       <c r="D210">
-        <v>0.2946</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.5011</v>
+        <v>0.5016</v>
       </c>
       <c r="C211">
-        <v>0.2047</v>
+        <v>0.2048</v>
       </c>
       <c r="D211">
-        <v>0.2964</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.5044999999999999</v>
+        <v>0.5049</v>
       </c>
       <c r="C212">
         <v>0.2064</v>
       </c>
       <c r="D212">
-        <v>0.298</v>
+        <v>0.2984</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.5074</v>
+        <v>0.5078</v>
       </c>
       <c r="C213">
-        <v>0.2077</v>
+        <v>0.2078</v>
       </c>
       <c r="D213">
-        <v>0.2996</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.5093</v>
+        <v>0.5097</v>
       </c>
       <c r="C214">
-        <v>0.2085</v>
+        <v>0.2086</v>
       </c>
       <c r="D214">
-        <v>0.3008</v>
+        <v>0.3011</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.5114</v>
+        <v>0.5118</v>
       </c>
       <c r="C215">
-        <v>0.2096</v>
+        <v>0.2097</v>
       </c>
       <c r="D215">
-        <v>0.3017</v>
+        <v>0.3021</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.5149</v>
+        <v>0.5152</v>
       </c>
       <c r="C216">
         <v>0.2126</v>
       </c>
       <c r="D216">
-        <v>0.3023</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.5198</v>
+        <v>0.5201</v>
       </c>
       <c r="C217">
         <v>0.2167</v>
       </c>
       <c r="D217">
-        <v>0.3031</v>
+        <v>0.3034</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.5266999999999999</v>
+        <v>0.5271</v>
       </c>
       <c r="C218">
         <v>0.2209</v>
       </c>
       <c r="D218">
-        <v>0.3059</v>
+        <v>0.3062</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.536</v>
+        <v>0.5363</v>
       </c>
       <c r="C219">
         <v>0.2255</v>
       </c>
       <c r="D219">
-        <v>0.3105</v>
+        <v>0.3108</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.5528</v>
+        <v>0.5532</v>
       </c>
       <c r="C220">
         <v>0.2329</v>
       </c>
       <c r="D220">
-        <v>0.3199</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.5662</v>
+        <v>0.5665</v>
       </c>
       <c r="C221">
         <v>0.2393</v>
       </c>
       <c r="D221">
-        <v>0.3269</v>
+        <v>0.3272</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.5786</v>
+        <v>0.579</v>
       </c>
       <c r="C222">
         <v>0.2457</v>
       </c>
       <c r="D222">
-        <v>0.333</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.5869</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="C223">
         <v>0.2496</v>
       </c>
       <c r="D223">
-        <v>0.3373</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.5931999999999999</v>
+        <v>0.5935</v>
       </c>
       <c r="C224">
         <v>0.2525</v>
       </c>
       <c r="D224">
-        <v>0.3407</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.5985</v>
+        <v>0.5988</v>
       </c>
       <c r="C225">
         <v>0.2559</v>
       </c>
       <c r="D225">
-        <v>0.3426</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.6025</v>
+        <v>0.6028</v>
       </c>
       <c r="C226">
-        <v>0.2588</v>
+        <v>0.2589</v>
       </c>
       <c r="D226">
-        <v>0.3437</v>
+        <v>0.3439</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.6054</v>
+        <v>0.6057</v>
       </c>
       <c r="C227">
         <v>0.2614</v>
       </c>
       <c r="D227">
-        <v>0.344</v>
+        <v>0.3442</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.608</v>
+        <v>0.6082</v>
       </c>
       <c r="C228">
-        <v>0.2649</v>
+        <v>0.265</v>
       </c>
       <c r="D228">
-        <v>0.343</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.6088</v>
+        <v>0.6091</v>
       </c>
       <c r="C229">
         <v>0.268</v>
       </c>
       <c r="D229">
-        <v>0.3409</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.607</v>
+        <v>0.6072</v>
       </c>
       <c r="C230">
-        <v>0.2694</v>
+        <v>0.2695</v>
       </c>
       <c r="D230">
-        <v>0.3376</v>
+        <v>0.3377</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.6047</v>
+        <v>0.6049</v>
       </c>
       <c r="C231">
-        <v>0.2707</v>
+        <v>0.2708</v>
       </c>
       <c r="D231">
-        <v>0.334</v>
+        <v>0.3341</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.6005</v>
+        <v>0.6007</v>
       </c>
       <c r="C232">
-        <v>0.2709</v>
+        <v>0.271</v>
       </c>
       <c r="D232">
-        <v>0.3296</v>
+        <v>0.3297</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.5952</v>
+        <v>0.5954</v>
       </c>
       <c r="C233">
-        <v>0.2708</v>
+        <v>0.2709</v>
       </c>
       <c r="D233">
-        <v>0.3244</v>
+        <v>0.3245</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.5914</v>
+        <v>0.5916</v>
       </c>
       <c r="C234">
-        <v>0.2712</v>
+        <v>0.2713</v>
       </c>
       <c r="D234">
-        <v>0.3202</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.5878</v>
+        <v>0.588</v>
       </c>
       <c r="C235">
-        <v>0.2721</v>
+        <v>0.2722</v>
       </c>
       <c r="D235">
-        <v>0.3157</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.5818</v>
+        <v>0.582</v>
       </c>
       <c r="C236">
-        <v>0.2711</v>
+        <v>0.2712</v>
       </c>
       <c r="D236">
-        <v>0.3107</v>
+        <v>0.3108</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,10 +4442,10 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.5724</v>
+        <v>0.5726</v>
       </c>
       <c r="C237">
-        <v>0.268</v>
+        <v>0.2682</v>
       </c>
       <c r="D237">
         <v>0.3044</v>
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.5605</v>
+        <v>0.5607</v>
       </c>
       <c r="C238">
-        <v>0.2649</v>
+        <v>0.265</v>
       </c>
       <c r="D238">
-        <v>0.2956</v>
+        <v>0.2957</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,10 +4470,10 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.5458</v>
+        <v>0.546</v>
       </c>
       <c r="C239">
-        <v>0.2612</v>
+        <v>0.2614</v>
       </c>
       <c r="D239">
         <v>0.2846</v>
@@ -4484,10 +4484,10 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.5242</v>
+        <v>0.5244</v>
       </c>
       <c r="C240">
-        <v>0.2555</v>
+        <v>0.2557</v>
       </c>
       <c r="D240">
         <v>0.2687</v>
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.504</v>
+        <v>0.5042</v>
       </c>
       <c r="C241">
-        <v>0.2501</v>
+        <v>0.2504</v>
       </c>
       <c r="D241">
-        <v>0.2539</v>
+        <v>0.2538</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.485</v>
+        <v>0.4852</v>
       </c>
       <c r="C242">
-        <v>0.2441</v>
+        <v>0.2444</v>
       </c>
       <c r="D242">
-        <v>0.2409</v>
+        <v>0.2408</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4665</v>
+        <v>0.4667</v>
       </c>
       <c r="C243">
-        <v>0.2383</v>
+        <v>0.2386</v>
       </c>
       <c r="D243">
-        <v>0.2282</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4485</v>
+        <v>0.4487</v>
       </c>
       <c r="C244">
-        <v>0.2326</v>
+        <v>0.2329</v>
       </c>
       <c r="D244">
-        <v>0.2159</v>
+        <v>0.2158</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,10 +4554,10 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4312</v>
+        <v>0.4314</v>
       </c>
       <c r="C245">
-        <v>0.2273</v>
+        <v>0.2276</v>
       </c>
       <c r="D245">
         <v>0.2039</v>
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4145</v>
+        <v>0.4147</v>
       </c>
       <c r="C246">
-        <v>0.222</v>
+        <v>0.2223</v>
       </c>
       <c r="D246">
-        <v>0.1925</v>
+        <v>0.1924</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3985</v>
+        <v>0.3988</v>
       </c>
       <c r="C247">
-        <v>0.2168</v>
+        <v>0.2171</v>
       </c>
       <c r="D247">
-        <v>0.1817</v>
+        <v>0.1816</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3821</v>
+        <v>0.3824</v>
       </c>
       <c r="C248">
-        <v>0.2105</v>
+        <v>0.2109</v>
       </c>
       <c r="D248">
-        <v>0.1716</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3659</v>
+        <v>0.3662</v>
       </c>
       <c r="C249">
-        <v>0.2038</v>
+        <v>0.2042</v>
       </c>
       <c r="D249">
-        <v>0.1621</v>
+        <v>0.162</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2019 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2019 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4096</v>
+        <v>0.4088</v>
       </c>
       <c r="C2">
-        <v>0.1915</v>
+        <v>0.1916</v>
       </c>
       <c r="D2">
-        <v>0.2181</v>
+        <v>0.2173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4108</v>
+        <v>0.4099</v>
       </c>
       <c r="C3">
         <v>0.1907</v>
       </c>
       <c r="D3">
-        <v>0.2201</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.412</v>
+        <v>0.4111</v>
       </c>
       <c r="C4">
-        <v>0.1901</v>
+        <v>0.1902</v>
       </c>
       <c r="D4">
-        <v>0.2219</v>
+        <v>0.2209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4143</v>
+        <v>0.4134</v>
       </c>
       <c r="C5">
         <v>0.1907</v>
       </c>
       <c r="D5">
-        <v>0.2236</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4158</v>
+        <v>0.4149</v>
       </c>
       <c r="C6">
         <v>0.1909</v>
       </c>
       <c r="D6">
-        <v>0.2248</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.417</v>
+        <v>0.4162</v>
       </c>
       <c r="C7">
         <v>0.1911</v>
       </c>
       <c r="D7">
-        <v>0.2259</v>
+        <v>0.2251</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.4179</v>
+        <v>0.4171</v>
       </c>
       <c r="C8">
         <v>0.1911</v>
       </c>
       <c r="D8">
-        <v>0.2268</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.4183</v>
+        <v>0.4175</v>
       </c>
       <c r="C9">
         <v>0.1911</v>
       </c>
       <c r="D9">
-        <v>0.2272</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4182</v>
+        <v>0.4175</v>
       </c>
       <c r="C10">
         <v>0.191</v>
       </c>
       <c r="D10">
-        <v>0.2272</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4172</v>
+        <v>0.4165</v>
       </c>
       <c r="C11">
         <v>0.1905</v>
       </c>
       <c r="D11">
-        <v>0.2267</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4167</v>
+        <v>0.4161</v>
       </c>
       <c r="C12">
         <v>0.1904</v>
       </c>
       <c r="D12">
-        <v>0.2263</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.4163</v>
+        <v>0.4158</v>
       </c>
       <c r="C13">
         <v>0.1903</v>
       </c>
       <c r="D13">
-        <v>0.226</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.4159</v>
+        <v>0.4154</v>
       </c>
       <c r="C14">
         <v>0.1899</v>
       </c>
       <c r="D14">
-        <v>0.226</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4158</v>
+        <v>0.4154</v>
       </c>
       <c r="C15">
         <v>0.1895</v>
       </c>
       <c r="D15">
-        <v>0.2263</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4161</v>
+        <v>0.4158</v>
       </c>
       <c r="C16">
         <v>0.189</v>
       </c>
       <c r="D16">
-        <v>0.2272</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4163</v>
+        <v>0.4159</v>
       </c>
       <c r="C17">
         <v>0.1879</v>
       </c>
       <c r="D17">
-        <v>0.2283</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4167</v>
+        <v>0.4164</v>
       </c>
       <c r="C18">
         <v>0.1866</v>
       </c>
       <c r="D18">
-        <v>0.2301</v>
+        <v>0.2298</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4177</v>
+        <v>0.4175</v>
       </c>
       <c r="C19">
         <v>0.1858</v>
       </c>
       <c r="D19">
-        <v>0.2319</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4183</v>
+        <v>0.4181</v>
       </c>
       <c r="C20">
         <v>0.1849</v>
       </c>
       <c r="D20">
-        <v>0.2334</v>
+        <v>0.2332</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4183</v>
+        <v>0.4182</v>
       </c>
       <c r="C21">
         <v>0.1838</v>
       </c>
       <c r="D21">
-        <v>0.2346</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4185</v>
+        <v>0.4184</v>
       </c>
       <c r="C22">
         <v>0.1829</v>
       </c>
       <c r="D22">
-        <v>0.2356</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>0.1812</v>
       </c>
       <c r="D24">
-        <v>0.231</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4091</v>
+        <v>0.4092</v>
       </c>
       <c r="C25">
         <v>0.1798</v>
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4063</v>
+        <v>0.4065</v>
       </c>
       <c r="C26">
         <v>0.1783</v>
       </c>
       <c r="D26">
-        <v>0.228</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4042</v>
+        <v>0.4044</v>
       </c>
       <c r="C27">
         <v>0.1771</v>
       </c>
       <c r="D27">
-        <v>0.2271</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.402</v>
+        <v>0.4021</v>
       </c>
       <c r="C28">
         <v>0.1755</v>
       </c>
       <c r="D28">
-        <v>0.2265</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4004</v>
+        <v>0.4006</v>
       </c>
       <c r="C29">
         <v>0.1741</v>
       </c>
       <c r="D29">
-        <v>0.2263</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3997</v>
+        <v>0.3998</v>
       </c>
       <c r="C30">
         <v>0.1728</v>
       </c>
       <c r="D30">
-        <v>0.2269</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3998</v>
+        <v>0.3999</v>
       </c>
       <c r="C31">
         <v>0.172</v>
       </c>
       <c r="D31">
-        <v>0.2278</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1600,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4017</v>
+        <v>0.4016</v>
       </c>
       <c r="C34">
         <v>0.1697</v>
@@ -1620,7 +1620,7 @@
         <v>0.1696</v>
       </c>
       <c r="D35">
-        <v>0.2336</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4046</v>
+        <v>0.4045</v>
       </c>
       <c r="C36">
         <v>0.1697</v>
       </c>
       <c r="D36">
-        <v>0.2349</v>
+        <v>0.2348</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4062</v>
+        <v>0.4061</v>
       </c>
       <c r="C37">
         <v>0.17</v>
       </c>
       <c r="D37">
-        <v>0.2362</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4077</v>
+        <v>0.4075</v>
       </c>
       <c r="C38">
         <v>0.1703</v>
       </c>
       <c r="D38">
-        <v>0.2373</v>
+        <v>0.2372</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4086</v>
+        <v>0.4084</v>
       </c>
       <c r="C39">
-        <v>0.1703</v>
+        <v>0.1702</v>
       </c>
       <c r="D39">
-        <v>0.2383</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4098</v>
+        <v>0.4096</v>
       </c>
       <c r="C40">
         <v>0.1701</v>
       </c>
       <c r="D40">
-        <v>0.2397</v>
+        <v>0.2394</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4111</v>
+        <v>0.4108</v>
       </c>
       <c r="C41">
         <v>0.1698</v>
       </c>
       <c r="D41">
-        <v>0.2413</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4133</v>
+        <v>0.413</v>
       </c>
       <c r="C42">
-        <v>0.1697</v>
+        <v>0.1696</v>
       </c>
       <c r="D42">
-        <v>0.2437</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4162</v>
+        <v>0.4158</v>
       </c>
       <c r="C43">
         <v>0.1697</v>
       </c>
       <c r="D43">
-        <v>0.2465</v>
+        <v>0.2461</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4179</v>
+        <v>0.4175</v>
       </c>
       <c r="C44">
         <v>0.1683</v>
       </c>
       <c r="D44">
-        <v>0.2496</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.42</v>
+        <v>0.4196</v>
       </c>
       <c r="C45">
         <v>0.1672</v>
       </c>
       <c r="D45">
-        <v>0.2528</v>
+        <v>0.2523</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4225</v>
+        <v>0.4221</v>
       </c>
       <c r="C46">
-        <v>0.1665</v>
+        <v>0.1664</v>
       </c>
       <c r="D46">
-        <v>0.2561</v>
+        <v>0.2556</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4253</v>
+        <v>0.4248</v>
       </c>
       <c r="C47">
         <v>0.1656</v>
       </c>
       <c r="D47">
-        <v>0.2597</v>
+        <v>0.2592</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4288</v>
+        <v>0.4282</v>
       </c>
       <c r="C48">
         <v>0.1652</v>
       </c>
       <c r="D48">
-        <v>0.2636</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4325</v>
+        <v>0.4319</v>
       </c>
       <c r="C49">
         <v>0.1647</v>
       </c>
       <c r="D49">
-        <v>0.2678</v>
+        <v>0.2673</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4364</v>
+        <v>0.4358</v>
       </c>
       <c r="C50">
-        <v>0.1644</v>
+        <v>0.1643</v>
       </c>
       <c r="D50">
-        <v>0.2721</v>
+        <v>0.2715</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4402</v>
+        <v>0.4395</v>
       </c>
       <c r="C51">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D51">
-        <v>0.2764</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4449</v>
+        <v>0.4442</v>
       </c>
       <c r="C52">
         <v>0.1637</v>
       </c>
       <c r="D52">
-        <v>0.2811</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4498</v>
+        <v>0.4492</v>
       </c>
       <c r="C53">
         <v>0.1637</v>
       </c>
       <c r="D53">
-        <v>0.2861</v>
+        <v>0.2855</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4552</v>
+        <v>0.4545</v>
       </c>
       <c r="C54">
         <v>0.1636</v>
       </c>
       <c r="D54">
-        <v>0.2916</v>
+        <v>0.2909</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4608</v>
+        <v>0.4601</v>
       </c>
       <c r="C55">
         <v>0.1637</v>
       </c>
       <c r="D55">
-        <v>0.2971</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4664</v>
+        <v>0.4657</v>
       </c>
       <c r="C56">
         <v>0.1638</v>
       </c>
       <c r="D56">
-        <v>0.3026</v>
+        <v>0.3019</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.4724</v>
+        <v>0.4717</v>
       </c>
       <c r="C57">
-        <v>0.1639</v>
+        <v>0.1638</v>
       </c>
       <c r="D57">
-        <v>0.3085</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.4786</v>
+        <v>0.4779</v>
       </c>
       <c r="C58">
-        <v>0.1639</v>
+        <v>0.1638</v>
       </c>
       <c r="D58">
-        <v>0.3147</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.4848</v>
+        <v>0.4841</v>
       </c>
       <c r="C59">
-        <v>0.1637</v>
+        <v>0.1636</v>
       </c>
       <c r="D59">
-        <v>0.3211</v>
+        <v>0.3205</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.4919</v>
+        <v>0.4912</v>
       </c>
       <c r="C60">
         <v>0.1644</v>
       </c>
       <c r="D60">
-        <v>0.3275</v>
+        <v>0.3268</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.4991</v>
+        <v>0.4984</v>
       </c>
       <c r="C61">
-        <v>0.1653</v>
+        <v>0.1652</v>
       </c>
       <c r="D61">
-        <v>0.3338</v>
+        <v>0.3332</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.5061</v>
+        <v>0.5054</v>
       </c>
       <c r="C62">
-        <v>0.1662</v>
+        <v>0.1661</v>
       </c>
       <c r="D62">
-        <v>0.3399</v>
+        <v>0.3393</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.5125999999999999</v>
+        <v>0.5119</v>
       </c>
       <c r="C63">
-        <v>0.1671</v>
+        <v>0.167</v>
       </c>
       <c r="D63">
-        <v>0.3455</v>
+        <v>0.3449</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.5192</v>
+        <v>0.5185</v>
       </c>
       <c r="C64">
-        <v>0.168</v>
+        <v>0.1679</v>
       </c>
       <c r="D64">
-        <v>0.3512</v>
+        <v>0.3506</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.5253</v>
+        <v>0.5246</v>
       </c>
       <c r="C65">
-        <v>0.1688</v>
+        <v>0.1687</v>
       </c>
       <c r="D65">
-        <v>0.3565</v>
+        <v>0.3559</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.5315</v>
+        <v>0.5309</v>
       </c>
       <c r="C66">
-        <v>0.1701</v>
+        <v>0.17</v>
       </c>
       <c r="D66">
-        <v>0.3614</v>
+        <v>0.3609</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.537</v>
+        <v>0.5364</v>
       </c>
       <c r="C67">
-        <v>0.1712</v>
+        <v>0.171</v>
       </c>
       <c r="D67">
-        <v>0.3658</v>
+        <v>0.3653</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.542</v>
+        <v>0.5414</v>
       </c>
       <c r="C68">
-        <v>0.1722</v>
+        <v>0.1721</v>
       </c>
       <c r="D68">
-        <v>0.3698</v>
+        <v>0.3694</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.546</v>
+        <v>0.5455</v>
       </c>
       <c r="C69">
-        <v>0.173</v>
+        <v>0.1728</v>
       </c>
       <c r="D69">
-        <v>0.3731</v>
+        <v>0.3726</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.5489000000000001</v>
+        <v>0.5484</v>
       </c>
       <c r="C70">
-        <v>0.1735</v>
+        <v>0.1734</v>
       </c>
       <c r="D70">
-        <v>0.3754</v>
+        <v>0.3751</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.5516</v>
+        <v>0.5511</v>
       </c>
       <c r="C71">
-        <v>0.174</v>
+        <v>0.1739</v>
       </c>
       <c r="D71">
-        <v>0.3776</v>
+        <v>0.3773</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.553</v>
+        <v>0.5526</v>
       </c>
       <c r="C72">
-        <v>0.174</v>
+        <v>0.1738</v>
       </c>
       <c r="D72">
-        <v>0.3791</v>
+        <v>0.3787</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.5535</v>
+        <v>0.5531</v>
       </c>
       <c r="C73">
-        <v>0.1738</v>
+        <v>0.1737</v>
       </c>
       <c r="D73">
-        <v>0.3797</v>
+        <v>0.3794</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.5536</v>
+        <v>0.5532</v>
       </c>
       <c r="C74">
-        <v>0.1736</v>
+        <v>0.1735</v>
       </c>
       <c r="D74">
-        <v>0.38</v>
+        <v>0.3797</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.5527</v>
+        <v>0.5523</v>
       </c>
       <c r="C75">
-        <v>0.1731</v>
+        <v>0.173</v>
       </c>
       <c r="D75">
-        <v>0.3796</v>
+        <v>0.3793</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.5512</v>
+        <v>0.5508</v>
       </c>
       <c r="C76">
-        <v>0.1726</v>
+        <v>0.1725</v>
       </c>
       <c r="D76">
-        <v>0.3785</v>
+        <v>0.3783</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5487</v>
+        <v>0.5483</v>
       </c>
       <c r="C77">
-        <v>0.1722</v>
+        <v>0.1721</v>
       </c>
       <c r="D77">
-        <v>0.3764</v>
+        <v>0.3762</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.5456</v>
+        <v>0.5453</v>
       </c>
       <c r="C78">
-        <v>0.1721</v>
+        <v>0.172</v>
       </c>
       <c r="D78">
-        <v>0.3735</v>
+        <v>0.3732</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.5415</v>
+        <v>0.5412</v>
       </c>
       <c r="C79">
-        <v>0.1719</v>
+        <v>0.1718</v>
       </c>
       <c r="D79">
-        <v>0.3696</v>
+        <v>0.3694</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.536</v>
+        <v>0.5357</v>
       </c>
       <c r="C80">
-        <v>0.1706</v>
+        <v>0.1705</v>
       </c>
       <c r="D80">
-        <v>0.3654</v>
+        <v>0.3652</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.53</v>
+        <v>0.5296999999999999</v>
       </c>
       <c r="C81">
-        <v>0.1693</v>
+        <v>0.1692</v>
       </c>
       <c r="D81">
-        <v>0.3608</v>
+        <v>0.3605</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.5237000000000001</v>
+        <v>0.5234</v>
       </c>
       <c r="C82">
-        <v>0.1681</v>
+        <v>0.168</v>
       </c>
       <c r="D82">
-        <v>0.3556</v>
+        <v>0.3553</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5169</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="C83">
         <v>0.1668</v>
       </c>
       <c r="D83">
-        <v>0.3501</v>
+        <v>0.3498</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5092</v>
+        <v>0.5089</v>
       </c>
       <c r="C84">
-        <v>0.1655</v>
+        <v>0.1654</v>
       </c>
       <c r="D84">
-        <v>0.3437</v>
+        <v>0.3434</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5016</v>
+        <v>0.5013</v>
       </c>
       <c r="C85">
-        <v>0.1642</v>
+        <v>0.1641</v>
       </c>
       <c r="D85">
-        <v>0.3374</v>
+        <v>0.3371</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.4936</v>
+        <v>0.4933</v>
       </c>
       <c r="C86">
         <v>0.1627</v>
       </c>
       <c r="D86">
-        <v>0.3309</v>
+        <v>0.3306</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.4862</v>
+        <v>0.4858</v>
       </c>
       <c r="C87">
-        <v>0.1619</v>
+        <v>0.1618</v>
       </c>
       <c r="D87">
-        <v>0.3243</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4785</v>
+        <v>0.478</v>
       </c>
       <c r="C88">
         <v>0.1609</v>
       </c>
       <c r="D88">
-        <v>0.3175</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4711</v>
+        <v>0.4707</v>
       </c>
       <c r="C89">
-        <v>0.1603</v>
+        <v>0.1602</v>
       </c>
       <c r="D89">
-        <v>0.3108</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.4644</v>
+        <v>0.4639</v>
       </c>
       <c r="C90">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D90">
-        <v>0.3042</v>
+        <v>0.3038</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4574</v>
+        <v>0.4569</v>
       </c>
       <c r="C91">
         <v>0.16</v>
       </c>
       <c r="D91">
-        <v>0.2974</v>
+        <v>0.2969</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.4504</v>
+        <v>0.4499</v>
       </c>
       <c r="C92">
-        <v>0.16</v>
+        <v>0.1599</v>
       </c>
       <c r="D92">
-        <v>0.2905</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.444</v>
+        <v>0.4434</v>
       </c>
       <c r="C93">
         <v>0.1601</v>
       </c>
       <c r="D93">
-        <v>0.2839</v>
+        <v>0.2833</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4378</v>
+        <v>0.4371</v>
       </c>
       <c r="C94">
-        <v>0.1608</v>
+        <v>0.1607</v>
       </c>
       <c r="D94">
-        <v>0.277</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4322</v>
+        <v>0.4315</v>
       </c>
       <c r="C95">
-        <v>0.1615</v>
+        <v>0.1614</v>
       </c>
       <c r="D95">
-        <v>0.2707</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.427</v>
+        <v>0.4262</v>
       </c>
       <c r="C96">
-        <v>0.1623</v>
+        <v>0.1622</v>
       </c>
       <c r="D96">
-        <v>0.2646</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.422</v>
+        <v>0.4212</v>
       </c>
       <c r="C97">
-        <v>0.1631</v>
+        <v>0.163</v>
       </c>
       <c r="D97">
-        <v>0.2589</v>
+        <v>0.2582</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4171</v>
+        <v>0.4162</v>
       </c>
       <c r="C98">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D98">
-        <v>0.2533</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4135</v>
+        <v>0.4126</v>
       </c>
       <c r="C99">
-        <v>0.1654</v>
+        <v>0.1653</v>
       </c>
       <c r="D99">
-        <v>0.2481</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4097</v>
+        <v>0.4087</v>
       </c>
       <c r="C100">
-        <v>0.1666</v>
+        <v>0.1665</v>
       </c>
       <c r="D100">
-        <v>0.243</v>
+        <v>0.2422</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4063</v>
+        <v>0.4053</v>
       </c>
       <c r="C101">
-        <v>0.1678</v>
+        <v>0.1677</v>
       </c>
       <c r="D101">
-        <v>0.2385</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4031</v>
+        <v>0.402</v>
       </c>
       <c r="C102">
-        <v>0.169</v>
+        <v>0.1689</v>
       </c>
       <c r="D102">
-        <v>0.2341</v>
+        <v>0.2332</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4005</v>
+        <v>0.3994</v>
       </c>
       <c r="C103">
-        <v>0.1706</v>
+        <v>0.1705</v>
       </c>
       <c r="D103">
-        <v>0.2298</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3989</v>
+        <v>0.3977</v>
       </c>
       <c r="C104">
-        <v>0.1724</v>
+        <v>0.1723</v>
       </c>
       <c r="D104">
-        <v>0.2265</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3972</v>
+        <v>0.396</v>
       </c>
       <c r="C105">
-        <v>0.1737</v>
+        <v>0.1736</v>
       </c>
       <c r="D105">
-        <v>0.2235</v>
+        <v>0.2224</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3954</v>
+        <v>0.3941</v>
       </c>
       <c r="C106">
-        <v>0.1747</v>
+        <v>0.1746</v>
       </c>
       <c r="D106">
-        <v>0.2206</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3935</v>
+        <v>0.3922</v>
       </c>
       <c r="C107">
-        <v>0.1754</v>
+        <v>0.1753</v>
       </c>
       <c r="D107">
-        <v>0.2181</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3921</v>
+        <v>0.3908</v>
       </c>
       <c r="C108">
-        <v>0.1765</v>
+        <v>0.1764</v>
       </c>
       <c r="D108">
-        <v>0.2156</v>
+        <v>0.2144</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3906</v>
+        <v>0.3893</v>
       </c>
       <c r="C109">
-        <v>0.1777</v>
+        <v>0.1775</v>
       </c>
       <c r="D109">
-        <v>0.213</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3885</v>
+        <v>0.3872</v>
       </c>
       <c r="C110">
-        <v>0.1782</v>
+        <v>0.1781</v>
       </c>
       <c r="D110">
-        <v>0.2103</v>
+        <v>0.2091</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3857</v>
+        <v>0.3844</v>
       </c>
       <c r="C111">
-        <v>0.1782</v>
+        <v>0.1781</v>
       </c>
       <c r="D111">
-        <v>0.2075</v>
+        <v>0.2063</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.382</v>
+        <v>0.3807</v>
       </c>
       <c r="C112">
-        <v>0.1778</v>
+        <v>0.1777</v>
       </c>
       <c r="D112">
-        <v>0.2042</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3816</v>
+        <v>0.3803</v>
       </c>
       <c r="C113">
-        <v>0.1769</v>
+        <v>0.1768</v>
       </c>
       <c r="D113">
-        <v>0.2047</v>
+        <v>0.2035</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3807</v>
+        <v>0.3793</v>
       </c>
       <c r="C114">
-        <v>0.1761</v>
+        <v>0.176</v>
       </c>
       <c r="D114">
-        <v>0.2046</v>
+        <v>0.2033</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3793</v>
+        <v>0.3779</v>
       </c>
       <c r="C115">
-        <v>0.1755</v>
+        <v>0.1753</v>
       </c>
       <c r="D115">
-        <v>0.2038</v>
+        <v>0.2026</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3775</v>
+        <v>0.3762</v>
       </c>
       <c r="C116">
-        <v>0.1747</v>
+        <v>0.1746</v>
       </c>
       <c r="D116">
-        <v>0.2028</v>
+        <v>0.2016</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.375</v>
+        <v>0.3737</v>
       </c>
       <c r="C117">
-        <v>0.1736</v>
+        <v>0.1734</v>
       </c>
       <c r="D117">
-        <v>0.2014</v>
+        <v>0.2003</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3725</v>
+        <v>0.3712</v>
       </c>
       <c r="C118">
-        <v>0.1725</v>
+        <v>0.1724</v>
       </c>
       <c r="D118">
-        <v>0.1999</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3694</v>
+        <v>0.3683</v>
       </c>
       <c r="C119">
-        <v>0.1713</v>
+        <v>0.1712</v>
       </c>
       <c r="D119">
-        <v>0.1981</v>
+        <v>0.1971</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3673</v>
+        <v>0.3662</v>
       </c>
       <c r="C120">
-        <v>0.1711</v>
+        <v>0.171</v>
       </c>
       <c r="D120">
-        <v>0.1962</v>
+        <v>0.1952</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3654</v>
+        <v>0.3644</v>
       </c>
       <c r="C121">
-        <v>0.1713</v>
+        <v>0.1712</v>
       </c>
       <c r="D121">
-        <v>0.1941</v>
+        <v>0.1932</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3631</v>
+        <v>0.3622</v>
       </c>
       <c r="C122">
-        <v>0.1712</v>
+        <v>0.1711</v>
       </c>
       <c r="D122">
-        <v>0.1919</v>
+        <v>0.1911</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3607</v>
+        <v>0.3598</v>
       </c>
       <c r="C123">
-        <v>0.1711</v>
+        <v>0.171</v>
       </c>
       <c r="D123">
-        <v>0.1896</v>
+        <v>0.1888</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3572</v>
+        <v>0.3565</v>
       </c>
       <c r="C124">
-        <v>0.1708</v>
+        <v>0.1707</v>
       </c>
       <c r="D124">
-        <v>0.1864</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3539</v>
+        <v>0.3532</v>
       </c>
       <c r="C125">
-        <v>0.1709</v>
+        <v>0.1708</v>
       </c>
       <c r="D125">
-        <v>0.183</v>
+        <v>0.1824</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3507</v>
+        <v>0.3501</v>
       </c>
       <c r="C126">
-        <v>0.1709</v>
+        <v>0.1708</v>
       </c>
       <c r="D126">
-        <v>0.1798</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3473</v>
+        <v>0.3468</v>
       </c>
       <c r="C127">
         <v>0.1708</v>
       </c>
       <c r="D127">
-        <v>0.1764</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3432</v>
+        <v>0.3428</v>
       </c>
       <c r="C128">
         <v>0.17</v>
       </c>
       <c r="D128">
-        <v>0.1732</v>
+        <v>0.1728</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3388</v>
+        <v>0.3385</v>
       </c>
       <c r="C129">
         <v>0.1686</v>
       </c>
       <c r="D129">
-        <v>0.1702</v>
+        <v>0.1699</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3347</v>
+        <v>0.3344</v>
       </c>
       <c r="C130">
         <v>0.1674</v>
       </c>
       <c r="D130">
-        <v>0.1673</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3315</v>
+        <v>0.3313</v>
       </c>
       <c r="C131">
         <v>0.1669</v>
       </c>
       <c r="D131">
-        <v>0.1646</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3292</v>
+        <v>0.329</v>
       </c>
       <c r="C132">
         <v>0.1665</v>
       </c>
       <c r="D132">
-        <v>0.1627</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2992,7 +2992,7 @@
         <v>0.1661</v>
       </c>
       <c r="D133">
-        <v>0.1571</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,10 +3000,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3174</v>
+        <v>0.3175</v>
       </c>
       <c r="C134">
-        <v>0.1653</v>
+        <v>0.1654</v>
       </c>
       <c r="D134">
         <v>0.1521</v>
@@ -3014,7 +3014,7 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3125</v>
+        <v>0.3126</v>
       </c>
       <c r="C135">
         <v>0.1647</v>
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.308</v>
+        <v>0.3081</v>
       </c>
       <c r="C136">
         <v>0.164</v>
       </c>
       <c r="D136">
-        <v>0.144</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3047</v>
+        <v>0.3048</v>
       </c>
       <c r="C137">
         <v>0.1639</v>
       </c>
       <c r="D137">
-        <v>0.1408</v>
+        <v>0.1409</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3011</v>
+        <v>0.3013</v>
       </c>
       <c r="C138">
-        <v>0.1632</v>
+        <v>0.1633</v>
       </c>
       <c r="D138">
-        <v>0.1379</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2979</v>
+        <v>0.2981</v>
       </c>
       <c r="C139">
         <v>0.1623</v>
       </c>
       <c r="D139">
-        <v>0.1356</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2943</v>
+        <v>0.2945</v>
       </c>
       <c r="C140">
-        <v>0.1606</v>
+        <v>0.1607</v>
       </c>
       <c r="D140">
-        <v>0.1337</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2913</v>
+        <v>0.2914</v>
       </c>
       <c r="C141">
-        <v>0.1585</v>
+        <v>0.1586</v>
       </c>
       <c r="D141">
-        <v>0.1327</v>
+        <v>0.1328</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2884</v>
+        <v>0.2885</v>
       </c>
       <c r="C142">
         <v>0.1565</v>
@@ -3129,7 +3129,7 @@
         <v>0.2862</v>
       </c>
       <c r="C143">
-        <v>0.1546</v>
+        <v>0.1547</v>
       </c>
       <c r="D143">
         <v>0.1315</v>
@@ -3143,7 +3143,7 @@
         <v>0.2848</v>
       </c>
       <c r="C144">
-        <v>0.1534</v>
+        <v>0.1535</v>
       </c>
       <c r="D144">
         <v>0.1313</v>
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2834</v>
+        <v>0.2833</v>
       </c>
       <c r="C145">
         <v>0.1523</v>
       </c>
       <c r="D145">
-        <v>0.1311</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2819</v>
+        <v>0.2818</v>
       </c>
       <c r="C146">
         <v>0.151</v>
       </c>
       <c r="D146">
-        <v>0.1309</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2808</v>
+        <v>0.2806</v>
       </c>
       <c r="C147">
         <v>0.1498</v>
       </c>
       <c r="D147">
-        <v>0.1309</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2809</v>
+        <v>0.2807</v>
       </c>
       <c r="C148">
         <v>0.1495</v>
       </c>
       <c r="D148">
-        <v>0.1314</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2821</v>
+        <v>0.2818</v>
       </c>
       <c r="C149">
         <v>0.1496</v>
       </c>
       <c r="D149">
-        <v>0.1325</v>
+        <v>0.1322</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2842</v>
+        <v>0.2839</v>
       </c>
       <c r="C150">
         <v>0.1504</v>
       </c>
       <c r="D150">
-        <v>0.1339</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2882</v>
+        <v>0.2878</v>
       </c>
       <c r="C151">
-        <v>0.1521</v>
+        <v>0.152</v>
       </c>
       <c r="D151">
-        <v>0.1361</v>
+        <v>0.1357</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2928</v>
+        <v>0.2923</v>
       </c>
       <c r="C152">
         <v>0.1544</v>
       </c>
       <c r="D152">
-        <v>0.1384</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2979</v>
+        <v>0.2974</v>
       </c>
       <c r="C153">
-        <v>0.1572</v>
+        <v>0.1571</v>
       </c>
       <c r="D153">
-        <v>0.1407</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3026</v>
+        <v>0.302</v>
       </c>
       <c r="C154">
-        <v>0.1595</v>
+        <v>0.1594</v>
       </c>
       <c r="D154">
-        <v>0.1431</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3073</v>
+        <v>0.3067</v>
       </c>
       <c r="C155">
-        <v>0.1617</v>
+        <v>0.1616</v>
       </c>
       <c r="D155">
-        <v>0.1456</v>
+        <v>0.1451</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3117</v>
+        <v>0.3111</v>
       </c>
       <c r="C156">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D156">
-        <v>0.1479</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3158</v>
+        <v>0.3152</v>
       </c>
       <c r="C157">
-        <v>0.1658</v>
+        <v>0.1657</v>
       </c>
       <c r="D157">
-        <v>0.1501</v>
+        <v>0.1495</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3204</v>
+        <v>0.3197</v>
       </c>
       <c r="C158">
-        <v>0.1682</v>
+        <v>0.1681</v>
       </c>
       <c r="D158">
-        <v>0.1522</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3257</v>
+        <v>0.325</v>
       </c>
       <c r="C159">
-        <v>0.1714</v>
+        <v>0.1713</v>
       </c>
       <c r="D159">
-        <v>0.1543</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3306</v>
+        <v>0.3299</v>
       </c>
       <c r="C160">
-        <v>0.1745</v>
+        <v>0.1743</v>
       </c>
       <c r="D160">
-        <v>0.1562</v>
+        <v>0.1556</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3351</v>
+        <v>0.3344</v>
       </c>
       <c r="C161">
-        <v>0.178</v>
+        <v>0.1779</v>
       </c>
       <c r="D161">
-        <v>0.1571</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3395</v>
+        <v>0.3388</v>
       </c>
       <c r="C162">
-        <v>0.1815</v>
+        <v>0.1814</v>
       </c>
       <c r="D162">
-        <v>0.158</v>
+        <v>0.1574</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3433</v>
+        <v>0.3426</v>
       </c>
       <c r="C163">
-        <v>0.1846</v>
+        <v>0.1845</v>
       </c>
       <c r="D163">
-        <v>0.1587</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3463</v>
+        <v>0.3456</v>
       </c>
       <c r="C164">
-        <v>0.1869</v>
+        <v>0.1868</v>
       </c>
       <c r="D164">
-        <v>0.1595</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3497</v>
+        <v>0.349</v>
       </c>
       <c r="C165">
-        <v>0.1894</v>
+        <v>0.1893</v>
       </c>
       <c r="D165">
-        <v>0.1603</v>
+        <v>0.1597</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3541</v>
+        <v>0.3534</v>
       </c>
       <c r="C166">
-        <v>0.1929</v>
+        <v>0.1928</v>
       </c>
       <c r="D166">
-        <v>0.1612</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3588</v>
+        <v>0.3581</v>
       </c>
       <c r="C167">
-        <v>0.1968</v>
+        <v>0.1967</v>
       </c>
       <c r="D167">
-        <v>0.1621</v>
+        <v>0.1615</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3626</v>
+        <v>0.3619</v>
       </c>
       <c r="C168">
-        <v>0.2</v>
+        <v>0.1999</v>
       </c>
       <c r="D168">
-        <v>0.1626</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.365</v>
+        <v>0.3643</v>
       </c>
       <c r="C169">
-        <v>0.2024</v>
+        <v>0.2023</v>
       </c>
       <c r="D169">
-        <v>0.1627</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3673</v>
+        <v>0.3665</v>
       </c>
       <c r="C170">
-        <v>0.2041</v>
+        <v>0.204</v>
       </c>
       <c r="D170">
-        <v>0.1631</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3686</v>
+        <v>0.3679</v>
       </c>
       <c r="C171">
         <v>0.2054</v>
       </c>
       <c r="D171">
-        <v>0.1632</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3697</v>
+        <v>0.369</v>
       </c>
       <c r="C172">
         <v>0.2062</v>
       </c>
       <c r="D172">
-        <v>0.1634</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3717</v>
+        <v>0.371</v>
       </c>
       <c r="C173">
-        <v>0.2067</v>
+        <v>0.2066</v>
       </c>
       <c r="D173">
-        <v>0.1651</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3746</v>
+        <v>0.3739</v>
       </c>
       <c r="C174">
-        <v>0.2076</v>
+        <v>0.2075</v>
       </c>
       <c r="D174">
-        <v>0.167</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3769</v>
+        <v>0.3762</v>
       </c>
       <c r="C175">
         <v>0.208</v>
       </c>
       <c r="D175">
-        <v>0.169</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3801</v>
+        <v>0.3794</v>
       </c>
       <c r="C176">
         <v>0.2089</v>
       </c>
       <c r="D176">
-        <v>0.1712</v>
+        <v>0.1705</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3837</v>
+        <v>0.383</v>
       </c>
       <c r="C177">
         <v>0.21</v>
       </c>
       <c r="D177">
-        <v>0.1737</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3886</v>
+        <v>0.3878</v>
       </c>
       <c r="C178">
-        <v>0.2115</v>
+        <v>0.2114</v>
       </c>
       <c r="D178">
-        <v>0.1771</v>
+        <v>0.1764</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3925</v>
+        <v>0.3918</v>
       </c>
       <c r="C179">
         <v>0.2123</v>
       </c>
       <c r="D179">
-        <v>0.1802</v>
+        <v>0.1795</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3973</v>
+        <v>0.3965</v>
       </c>
       <c r="C180">
         <v>0.2133</v>
       </c>
       <c r="D180">
-        <v>0.184</v>
+        <v>0.1832</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4021</v>
+        <v>0.4014</v>
       </c>
       <c r="C181">
-        <v>0.2143</v>
+        <v>0.2142</v>
       </c>
       <c r="D181">
-        <v>0.1879</v>
+        <v>0.1871</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4075</v>
+        <v>0.4067</v>
       </c>
       <c r="C182">
-        <v>0.2152</v>
+        <v>0.2151</v>
       </c>
       <c r="D182">
-        <v>0.1923</v>
+        <v>0.1916</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.4122</v>
+        <v>0.4114</v>
       </c>
       <c r="C183">
         <v>0.2152</v>
       </c>
       <c r="D183">
-        <v>0.197</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4172</v>
+        <v>0.4164</v>
       </c>
       <c r="C184">
-        <v>0.2156</v>
+        <v>0.2155</v>
       </c>
       <c r="D184">
-        <v>0.2016</v>
+        <v>0.2009</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4217</v>
+        <v>0.4209</v>
       </c>
       <c r="C185">
         <v>0.2154</v>
       </c>
       <c r="D185">
-        <v>0.2062</v>
+        <v>0.2055</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4254</v>
+        <v>0.4247</v>
       </c>
       <c r="C186">
         <v>0.2144</v>
       </c>
       <c r="D186">
-        <v>0.211</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4289</v>
+        <v>0.4282</v>
       </c>
       <c r="C187">
-        <v>0.2131</v>
+        <v>0.213</v>
       </c>
       <c r="D187">
-        <v>0.2158</v>
+        <v>0.2151</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4321</v>
+        <v>0.4314</v>
       </c>
       <c r="C188">
-        <v>0.2114</v>
+        <v>0.2113</v>
       </c>
       <c r="D188">
-        <v>0.2208</v>
+        <v>0.2201</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4368</v>
+        <v>0.4361</v>
       </c>
       <c r="C189">
-        <v>0.2106</v>
+        <v>0.2105</v>
       </c>
       <c r="D189">
-        <v>0.2263</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4411</v>
+        <v>0.4404</v>
       </c>
       <c r="C190">
-        <v>0.2095</v>
+        <v>0.2094</v>
       </c>
       <c r="D190">
-        <v>0.2316</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4454</v>
+        <v>0.4448</v>
       </c>
       <c r="C191">
         <v>0.2085</v>
       </c>
       <c r="D191">
-        <v>0.2369</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4493</v>
+        <v>0.4486</v>
       </c>
       <c r="C192">
-        <v>0.2074</v>
+        <v>0.2073</v>
       </c>
       <c r="D192">
-        <v>0.2419</v>
+        <v>0.2413</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4519</v>
+        <v>0.4513</v>
       </c>
       <c r="C193">
-        <v>0.2065</v>
+        <v>0.2064</v>
       </c>
       <c r="D193">
-        <v>0.2454</v>
+        <v>0.2449</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4549</v>
+        <v>0.4543</v>
       </c>
       <c r="C194">
-        <v>0.206</v>
+        <v>0.2059</v>
       </c>
       <c r="D194">
-        <v>0.2489</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4578</v>
+        <v>0.4572</v>
       </c>
       <c r="C195">
-        <v>0.2056</v>
+        <v>0.2055</v>
       </c>
       <c r="D195">
-        <v>0.2522</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4599</v>
+        <v>0.4594</v>
       </c>
       <c r="C196">
-        <v>0.2046</v>
+        <v>0.2045</v>
       </c>
       <c r="D196">
-        <v>0.2554</v>
+        <v>0.2549</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4627</v>
+        <v>0.4621</v>
       </c>
       <c r="C197">
-        <v>0.2038</v>
+        <v>0.2037</v>
       </c>
       <c r="D197">
-        <v>0.2589</v>
+        <v>0.2584</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4638</v>
+        <v>0.4632</v>
       </c>
       <c r="C198">
-        <v>0.2024</v>
+        <v>0.2023</v>
       </c>
       <c r="D198">
-        <v>0.2614</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4645</v>
+        <v>0.4639</v>
       </c>
       <c r="C199">
         <v>0.2005</v>
       </c>
       <c r="D199">
-        <v>0.2639</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.464</v>
+        <v>0.4635</v>
       </c>
       <c r="C200">
-        <v>0.1983</v>
+        <v>0.1982</v>
       </c>
       <c r="D200">
-        <v>0.2657</v>
+        <v>0.2652</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4646</v>
+        <v>0.4641</v>
       </c>
       <c r="C201">
-        <v>0.1961</v>
+        <v>0.196</v>
       </c>
       <c r="D201">
-        <v>0.2685</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.465</v>
+        <v>0.4645</v>
       </c>
       <c r="C202">
-        <v>0.1944</v>
+        <v>0.1943</v>
       </c>
       <c r="D202">
-        <v>0.2706</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4691</v>
+        <v>0.4684</v>
       </c>
       <c r="C203">
-        <v>0.1954</v>
+        <v>0.1953</v>
       </c>
       <c r="D203">
-        <v>0.2737</v>
+        <v>0.2731</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4734</v>
+        <v>0.4728</v>
       </c>
       <c r="C204">
-        <v>0.1967</v>
+        <v>0.1966</v>
       </c>
       <c r="D204">
-        <v>0.2767</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4776</v>
+        <v>0.4769</v>
       </c>
       <c r="C205">
-        <v>0.1974</v>
+        <v>0.1973</v>
       </c>
       <c r="D205">
-        <v>0.2802</v>
+        <v>0.2796</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4818</v>
+        <v>0.4811</v>
       </c>
       <c r="C206">
-        <v>0.1983</v>
+        <v>0.1981</v>
       </c>
       <c r="D206">
-        <v>0.2836</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4856</v>
+        <v>0.4848</v>
       </c>
       <c r="C207">
-        <v>0.1991</v>
+        <v>0.1989</v>
       </c>
       <c r="D207">
-        <v>0.2865</v>
+        <v>0.2859</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.49</v>
+        <v>0.4892</v>
       </c>
       <c r="C208">
-        <v>0.2003</v>
+        <v>0.2002</v>
       </c>
       <c r="D208">
-        <v>0.2897</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.494</v>
+        <v>0.4932</v>
       </c>
       <c r="C209">
-        <v>0.2015</v>
+        <v>0.2013</v>
       </c>
       <c r="D209">
-        <v>0.2925</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4986</v>
+        <v>0.4977</v>
       </c>
       <c r="C210">
-        <v>0.2035</v>
+        <v>0.2034</v>
       </c>
       <c r="D210">
-        <v>0.295</v>
+        <v>0.2943</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.5016</v>
+        <v>0.5007</v>
       </c>
       <c r="C211">
-        <v>0.2048</v>
+        <v>0.2046</v>
       </c>
       <c r="D211">
-        <v>0.2968</v>
+        <v>0.2961</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.5049</v>
+        <v>0.504</v>
       </c>
       <c r="C212">
-        <v>0.2064</v>
+        <v>0.2063</v>
       </c>
       <c r="D212">
-        <v>0.2984</v>
+        <v>0.2977</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.5078</v>
+        <v>0.5069</v>
       </c>
       <c r="C213">
-        <v>0.2078</v>
+        <v>0.2076</v>
       </c>
       <c r="D213">
-        <v>0.3</v>
+        <v>0.2993</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.5097</v>
+        <v>0.5089</v>
       </c>
       <c r="C214">
-        <v>0.2086</v>
+        <v>0.2084</v>
       </c>
       <c r="D214">
-        <v>0.3011</v>
+        <v>0.3004</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.5118</v>
+        <v>0.5109</v>
       </c>
       <c r="C215">
-        <v>0.2097</v>
+        <v>0.2095</v>
       </c>
       <c r="D215">
-        <v>0.3021</v>
+        <v>0.3014</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.5152</v>
+        <v>0.5144</v>
       </c>
       <c r="C216">
-        <v>0.2126</v>
+        <v>0.2125</v>
       </c>
       <c r="D216">
-        <v>0.3026</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.5201</v>
+        <v>0.5193</v>
       </c>
       <c r="C217">
-        <v>0.2167</v>
+        <v>0.2165</v>
       </c>
       <c r="D217">
-        <v>0.3034</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.5271</v>
+        <v>0.5262</v>
       </c>
       <c r="C218">
-        <v>0.2209</v>
+        <v>0.2207</v>
       </c>
       <c r="D218">
-        <v>0.3062</v>
+        <v>0.3055</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.5363</v>
+        <v>0.5354</v>
       </c>
       <c r="C219">
-        <v>0.2255</v>
+        <v>0.2253</v>
       </c>
       <c r="D219">
-        <v>0.3108</v>
+        <v>0.3101</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.5532</v>
+        <v>0.5521</v>
       </c>
       <c r="C220">
-        <v>0.2329</v>
+        <v>0.2327</v>
       </c>
       <c r="D220">
-        <v>0.3203</v>
+        <v>0.3194</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.5665</v>
+        <v>0.5654</v>
       </c>
       <c r="C221">
-        <v>0.2393</v>
+        <v>0.2391</v>
       </c>
       <c r="D221">
-        <v>0.3272</v>
+        <v>0.3263</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.579</v>
+        <v>0.5779</v>
       </c>
       <c r="C222">
-        <v>0.2457</v>
+        <v>0.2454</v>
       </c>
       <c r="D222">
-        <v>0.3333</v>
+        <v>0.3325</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.5872000000000001</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="C223">
-        <v>0.2496</v>
+        <v>0.2494</v>
       </c>
       <c r="D223">
-        <v>0.3376</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.5935</v>
+        <v>0.5926</v>
       </c>
       <c r="C224">
-        <v>0.2525</v>
+        <v>0.2523</v>
       </c>
       <c r="D224">
-        <v>0.341</v>
+        <v>0.3403</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.5988</v>
+        <v>0.598</v>
       </c>
       <c r="C225">
-        <v>0.2559</v>
+        <v>0.2557</v>
       </c>
       <c r="D225">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.6028</v>
+        <v>0.6021</v>
       </c>
       <c r="C226">
-        <v>0.2589</v>
+        <v>0.2587</v>
       </c>
       <c r="D226">
-        <v>0.3439</v>
+        <v>0.3435</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.6057</v>
+        <v>0.6052</v>
       </c>
       <c r="C227">
-        <v>0.2614</v>
+        <v>0.2613</v>
       </c>
       <c r="D227">
-        <v>0.3442</v>
+        <v>0.3439</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.6082</v>
+        <v>0.6079</v>
       </c>
       <c r="C228">
-        <v>0.265</v>
+        <v>0.2648</v>
       </c>
       <c r="D228">
-        <v>0.3432</v>
+        <v>0.3431</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,10 +4330,10 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.6091</v>
+        <v>0.6089</v>
       </c>
       <c r="C229">
-        <v>0.268</v>
+        <v>0.2679</v>
       </c>
       <c r="D229">
         <v>0.341</v>
@@ -4347,10 +4347,10 @@
         <v>0.6072</v>
       </c>
       <c r="C230">
-        <v>0.2695</v>
+        <v>0.2693</v>
       </c>
       <c r="D230">
-        <v>0.3377</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.6049</v>
+        <v>0.6051</v>
       </c>
       <c r="C231">
-        <v>0.2708</v>
+        <v>0.2706</v>
       </c>
       <c r="D231">
-        <v>0.3341</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.6007</v>
+        <v>0.601</v>
       </c>
       <c r="C232">
-        <v>0.271</v>
+        <v>0.2709</v>
       </c>
       <c r="D232">
-        <v>0.3297</v>
+        <v>0.3301</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.5954</v>
+        <v>0.5959</v>
       </c>
       <c r="C233">
-        <v>0.2709</v>
+        <v>0.2708</v>
       </c>
       <c r="D233">
-        <v>0.3245</v>
+        <v>0.3251</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.5916</v>
+        <v>0.5921999999999999</v>
       </c>
       <c r="C234">
         <v>0.2713</v>
       </c>
       <c r="D234">
-        <v>0.3203</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.588</v>
+        <v>0.5887</v>
       </c>
       <c r="C235">
         <v>0.2722</v>
       </c>
       <c r="D235">
-        <v>0.3158</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.582</v>
+        <v>0.5828</v>
       </c>
       <c r="C236">
         <v>0.2712</v>
       </c>
       <c r="D236">
-        <v>0.3108</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,13 +4442,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.5726</v>
+        <v>0.5736</v>
       </c>
       <c r="C237">
         <v>0.2682</v>
       </c>
       <c r="D237">
-        <v>0.3044</v>
+        <v>0.3054</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.5607</v>
+        <v>0.5619</v>
       </c>
       <c r="C238">
-        <v>0.265</v>
+        <v>0.2651</v>
       </c>
       <c r="D238">
-        <v>0.2957</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,13 +4470,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.546</v>
+        <v>0.5475</v>
       </c>
       <c r="C239">
-        <v>0.2614</v>
+        <v>0.2615</v>
       </c>
       <c r="D239">
-        <v>0.2846</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4484,13 +4484,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.5244</v>
+        <v>0.5262</v>
       </c>
       <c r="C240">
-        <v>0.2557</v>
+        <v>0.2559</v>
       </c>
       <c r="D240">
-        <v>0.2687</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.5042</v>
+        <v>0.5061</v>
       </c>
       <c r="C241">
-        <v>0.2504</v>
+        <v>0.2506</v>
       </c>
       <c r="D241">
-        <v>0.2538</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4852</v>
+        <v>0.4873</v>
       </c>
       <c r="C242">
-        <v>0.2444</v>
+        <v>0.2447</v>
       </c>
       <c r="D242">
-        <v>0.2408</v>
+        <v>0.2426</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4667</v>
+        <v>0.4688</v>
       </c>
       <c r="C243">
-        <v>0.2386</v>
+        <v>0.2389</v>
       </c>
       <c r="D243">
-        <v>0.2281</v>
+        <v>0.2299</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4487</v>
+        <v>0.4509</v>
       </c>
       <c r="C244">
-        <v>0.2329</v>
+        <v>0.2333</v>
       </c>
       <c r="D244">
-        <v>0.2158</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,13 +4554,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4314</v>
+        <v>0.4336</v>
       </c>
       <c r="C245">
-        <v>0.2276</v>
+        <v>0.228</v>
       </c>
       <c r="D245">
-        <v>0.2039</v>
+        <v>0.2056</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4147</v>
+        <v>0.4169</v>
       </c>
       <c r="C246">
-        <v>0.2223</v>
+        <v>0.2227</v>
       </c>
       <c r="D246">
-        <v>0.1924</v>
+        <v>0.1942</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3988</v>
+        <v>0.401</v>
       </c>
       <c r="C247">
-        <v>0.2171</v>
+        <v>0.2176</v>
       </c>
       <c r="D247">
-        <v>0.1816</v>
+        <v>0.1834</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3824</v>
+        <v>0.3846</v>
       </c>
       <c r="C248">
-        <v>0.2109</v>
+        <v>0.2114</v>
       </c>
       <c r="D248">
-        <v>0.1715</v>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3662</v>
+        <v>0.3684</v>
       </c>
       <c r="C249">
-        <v>0.2042</v>
+        <v>0.2047</v>
       </c>
       <c r="D249">
-        <v>0.162</v>
+        <v>0.1637</v>
       </c>
     </row>
   </sheetData>
